--- a/LIFE帳票出力ツール_見積書.xlsx
+++ b/LIFE帳票出力ツール_見積書.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shuu\NDSoft\LIFE帳票出力ツール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36709D76-3A94-447F-9FCB-6FC77F827BF0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5411C24-C45B-43AE-BAAC-3694D2CA78F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33825" yWindow="975" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{6BCF2DA9-6C62-4252-9420-CDAFBB29C2B8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6BCF2DA9-6C62-4252-9420-CDAFBB29C2B8}"/>
   </bookViews>
   <sheets>
     <sheet name="見積書" sheetId="3" r:id="rId1"/>
     <sheet name="明細書" sheetId="2" r:id="rId2"/>
     <sheet name="別紙" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">見積書!$A$1:$K$43</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="172">
   <si>
     <t>請負見積明細書　 第</t>
     <rPh sb="4" eb="7">
@@ -1015,6 +1016,302 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>利用者</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSVファイル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>帳票</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>LIFE帳票出力ツール</t>
+    <rPh sb="4" eb="8">
+      <t>チョウヒョウシュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バージョン管理</t>
+  </si>
+  <si>
+    <t>利用者CSVファイル</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用者AさんのCSVファイル名：FOMA_A_123000001_202003_20210210.csv</t>
+    <rPh sb="0" eb="3">
+      <t>リヨウシャ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>item_id</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>item_value</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>care_facility_id</t>
+  </si>
+  <si>
+    <t>insurer_no</t>
+  </si>
+  <si>
+    <t>evaluate_date</t>
+  </si>
+  <si>
+    <t>filing_staff</t>
+  </si>
+  <si>
+    <t>00000001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東京太郎</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タロウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（フォーマット例）</t>
+    <rPh sb="7" eb="8">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>．．．</t>
+  </si>
+  <si>
+    <t>．．．</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>事業所番号</t>
+  </si>
+  <si>
+    <t>保険者番号</t>
+  </si>
+  <si>
+    <t>評価日</t>
+  </si>
+  <si>
+    <t>記入担当者名</t>
+  </si>
+  <si>
+    <t>帳票生成ルールファイル</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（※24個帳票項目を一つファイルにまとめ）</t>
+    <rPh sb="4" eb="5">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FOMA_Setup_Rule.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CSV内容例</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイル内容例</t>
+    <rPh sb="4" eb="6">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>帳票名</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目論理名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目物理名</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ブツリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>帳票中の位置</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必須</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイプ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>薬剤変更等に係る情報提供書</t>
+  </si>
+  <si>
+    <t>薬剤変更等に係る情報提供書</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>口腔衛生管理加算様式（実施計画）</t>
+  </si>
+  <si>
+    <t>B5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>文字列</t>
+    <rPh sb="0" eb="3">
+      <t>モジレツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>F7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>B3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>整数桁(文字数)</t>
+    <rPh sb="4" eb="7">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小数点以下の桁数</t>
+  </si>
+  <si>
+    <t>書式</t>
+  </si>
+  <si>
+    <t>YYYYMMDD</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>口腔衛生管理加算様式（実施計画）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>科学的介護推進に関する評価</t>
+  </si>
 </sst>
 </file>
 
@@ -1022,12 +1319,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0_ "/>
-    <numFmt numFmtId="182" formatCode="#,##0.0_ "/>
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.0_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1109,6 +1406,75 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1136,7 +1502,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -1732,6 +2098,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1741,7 +2181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1770,484 +2210,604 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="37" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="3" borderId="37" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2949,6 +3509,1404 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>179295</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>143438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>56299</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>17932</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69A6A2B0-81D1-469A-87EB-A1119DE31954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2940424" y="3639673"/>
+          <a:ext cx="898981" cy="1039905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>116541</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>125505</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="四角形: 角を丸くする 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49CB5B34-6A48-4D75-AC62-9D78A82B8BED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1622612" y="627529"/>
+          <a:ext cx="3021105" cy="4347883"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150" cmpd="dbl">
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>125508</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>20442</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABFE2976-BB79-46F1-BD0B-C559FF01E880}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1882590" y="851648"/>
+          <a:ext cx="898981" cy="1039905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>35860</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>134472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>683830</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>242047</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2D8B41-DDE3-434A-8725-0A401301FB32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2545978" y="1532966"/>
+          <a:ext cx="898981" cy="1039905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>233084</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>116543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>128018</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>206189</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE5179C-9BAD-4541-9523-79A7DBC4A97B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3245225" y="2214284"/>
+          <a:ext cx="898981" cy="1039905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>116542</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>62755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>11476</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>107578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7B16787-22B6-4950-B09D-3F8B9FC5DAF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3630707" y="3092826"/>
+          <a:ext cx="898981" cy="1039905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>125507</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>35861</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="四角形: 角を丸くする 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DF9D955-082B-4592-9B95-03CEAA6FCB32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6400801" y="1954305"/>
+          <a:ext cx="2339787" cy="1640544"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150" cmpd="dbl">
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>160639</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>143180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3B3618-587F-4F5E-81D1-7D6728C8F24E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10954145" y="878542"/>
+          <a:ext cx="1022702" cy="1362379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>143435</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="四角形: 角を丸くする 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D7F2D7-7AA2-4538-930E-BDD8555C491E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10551460" y="627529"/>
+          <a:ext cx="3021104" cy="4347883"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150" cmpd="dbl">
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>169605</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>89649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>127884</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>188258</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4CBA2FE-8E8E-4EE1-9DF9-DA6352347615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11967158" y="1721225"/>
+          <a:ext cx="962326" cy="1281951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>62028</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>197226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>136727</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19846543-FE34-45D5-A797-04425041CB2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12361604" y="2994214"/>
+          <a:ext cx="827735" cy="1102657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>187533</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>98615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>60345</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{349038A9-F90E-49BB-802C-2412D6E25BCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11734074" y="3827933"/>
+          <a:ext cx="625847" cy="833715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>237988</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E23FE85B-357D-4FF4-82F1-A673ED4ED371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6786282" y="2653384"/>
+          <a:ext cx="1479177" cy="632604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>125505</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>192742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>125507</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940BC35F-2153-4B03-8CA8-71AD2FD4AA0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4643717" y="2774577"/>
+          <a:ext cx="1757084" cy="4482"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>192742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>134472</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>197224</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="直線矢印コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D17D3F0F-CE3A-4CC9-813D-DCC8CF512EAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8740588" y="2774577"/>
+          <a:ext cx="1810872" cy="4482"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>242048</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>80683</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74EDC55F-EBC2-4D5F-8E19-8880636C41B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5262283" y="2411506"/>
+          <a:ext cx="591671" cy="322730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>読込</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>161365</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152402</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CE67002-409F-4048-8D4C-FBC5889C0EE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9323294" y="2411507"/>
+          <a:ext cx="591672" cy="322730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>出力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>188258</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>35858</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>98611</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="四角形: 角を丸くする 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F82A9BD-3CB1-419C-AFA3-309E8A104108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="690282" y="6427693"/>
+          <a:ext cx="5611906" cy="2671483"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150" cmpd="dbl">
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>322728</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>44822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>35857</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>116542</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="四角形: 角を丸くする 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9B58BE8-0AD0-4C11-899D-9591FDA01885}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7871010" y="6947646"/>
+          <a:ext cx="11134165" cy="3612778"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150" cmpd="dbl">
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>170330</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>80682</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>197223</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="四角形: 角を丸くする 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FEDD295-9655-453F-B1A7-BA190917CF2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4957483" y="11241741"/>
+          <a:ext cx="2169458" cy="1281953"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="57150" cmpd="dbl">
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" algn="l" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>53789</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>71718</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>26895</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>5075</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42DE4349-9756-4E26-B57D-3682C07561B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5342965" y="11698942"/>
+          <a:ext cx="1479177" cy="632604"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>71719</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>72444</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>170073</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60EF8758-953D-40E6-96C1-1903929DE359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2832848" y="13509812"/>
+          <a:ext cx="1022702" cy="1362379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>53790</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>72445</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>170073</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5011B6-443D-4D69-A559-2B93C979FD06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5593978" y="13509812"/>
+          <a:ext cx="1022702" cy="1362379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>71719</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>90374</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D52A62-BC11-4D40-873D-B3A502F4C963}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8247531" y="13527741"/>
+          <a:ext cx="1022702" cy="1362379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4223,518 +6181,518 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
-    </row>
-    <row r="2" spans="2:10" s="84" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D2" s="85" t="s">
+      <c r="I1" s="128"/>
+      <c r="J1" s="129"/>
+    </row>
+    <row r="2" spans="2:10" s="41" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="86" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D3" s="87"/>
-    </row>
-    <row r="4" spans="2:10" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D4" s="87"/>
-    </row>
-    <row r="5" spans="2:10" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="88"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
-    </row>
-    <row r="6" spans="2:10" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="91" t="s">
+    <row r="3" spans="2:10" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D3" s="44"/>
+    </row>
+    <row r="4" spans="2:10" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D4" s="44"/>
+    </row>
+    <row r="5" spans="2:10" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47"/>
+    </row>
+    <row r="6" spans="2:10" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="91" t="s">
+      <c r="F6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-    </row>
-    <row r="7" spans="2:10" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="87"/>
-      <c r="F7" s="91" t="s">
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+    </row>
+    <row r="7" spans="2:10" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="44"/>
+      <c r="F7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="94"/>
-    </row>
-    <row r="8" spans="2:10" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="86" t="s">
+      <c r="G7" s="131"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+    </row>
+    <row r="8" spans="2:10" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="95"/>
-    </row>
-    <row r="9" spans="2:10" s="86" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="D9" s="87"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="96"/>
-      <c r="I9" s="96"/>
-      <c r="J9" s="96"/>
-    </row>
-    <row r="10" spans="2:10" s="86" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="86" t="s">
+      <c r="D8" s="44"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+    </row>
+    <row r="9" spans="2:10" s="43" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="D9" s="44"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+    </row>
+    <row r="10" spans="2:10" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="87"/>
-      <c r="F10" s="97" t="s">
+      <c r="D10" s="44"/>
+      <c r="F10" s="133" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
     </row>
     <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
       <c r="F11" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F12" s="99" t="s">
+      <c r="F12" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
     </row>
     <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="101" t="s">
+      <c r="B13" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="F13" s="104" t="s">
+      <c r="C13" s="122"/>
+      <c r="D13" s="123"/>
+      <c r="F13" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F14" s="106"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
     </row>
     <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F15" s="108"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
-      <c r="J15" s="109"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
     </row>
     <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="110">
+      <c r="C16" s="127">
         <v>44256</v>
       </c>
-      <c r="D16" s="110"/>
+      <c r="D16" s="127"/>
     </row>
     <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="111">
+      <c r="C17" s="115">
         <v>44281</v>
       </c>
-      <c r="D17" s="111"/>
+      <c r="D17" s="115"/>
     </row>
     <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
     </row>
     <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
     </row>
     <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
     </row>
     <row r="22" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="115"/>
-      <c r="C23" s="116" t="s">
+      <c r="B23" s="118"/>
+      <c r="C23" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="116" t="s">
+      <c r="D23" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="117"/>
-      <c r="F23" s="116" t="s">
+      <c r="E23" s="120"/>
+      <c r="F23" s="107" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="117"/>
-      <c r="H23" s="116" t="s">
+      <c r="G23" s="120"/>
+      <c r="H23" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="118"/>
-      <c r="J23" s="119"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="109"/>
     </row>
     <row r="24" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="120"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="121"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="121"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="123"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="112"/>
     </row>
     <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="17"/>
-      <c r="C25" s="45" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="124">
+      <c r="D25" s="57">
         <v>7</v>
       </c>
-      <c r="E25" s="125" t="s">
+      <c r="E25" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="126">
+      <c r="F25" s="59">
         <v>45000</v>
       </c>
-      <c r="G25" s="127" t="s">
+      <c r="G25" s="60" t="s">
         <v>60</v>
       </c>
       <c r="H25" s="5"/>
-      <c r="I25" s="128">
+      <c r="I25" s="61">
         <f t="shared" ref="I25:I30" si="0">D25*F25</f>
         <v>315000</v>
       </c>
-      <c r="J25" s="129" t="s">
+      <c r="J25" s="62" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="17"/>
-      <c r="C26" s="45" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="124">
+      <c r="D26" s="57">
         <v>32</v>
       </c>
-      <c r="E26" s="125" t="s">
+      <c r="E26" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="126">
+      <c r="F26" s="59">
         <v>40000</v>
       </c>
-      <c r="G26" s="125" t="s">
+      <c r="G26" s="58" t="s">
         <v>60</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="128">
+      <c r="I26" s="61">
         <f t="shared" si="0"/>
         <v>1280000</v>
       </c>
-      <c r="J26" s="130" t="s">
+      <c r="J26" s="63" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="131" t="s">
+      <c r="B27" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="132">
+      <c r="D27" s="65">
         <v>12</v>
       </c>
-      <c r="E27" s="125" t="s">
+      <c r="E27" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="126">
+      <c r="F27" s="59">
         <v>40000</v>
       </c>
-      <c r="G27" s="125" t="s">
+      <c r="G27" s="58" t="s">
         <v>60</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="128">
+      <c r="I27" s="61">
         <f t="shared" si="0"/>
         <v>480000</v>
       </c>
-      <c r="J27" s="130" t="s">
+      <c r="J27" s="63" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="17"/>
-      <c r="C28" s="45" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="132">
+      <c r="D28" s="65">
         <v>5</v>
       </c>
-      <c r="E28" s="125" t="s">
+      <c r="E28" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="126">
+      <c r="F28" s="59">
         <v>35000</v>
       </c>
-      <c r="G28" s="125" t="s">
+      <c r="G28" s="58" t="s">
         <v>60</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="128">
+      <c r="I28" s="61">
         <f t="shared" si="0"/>
         <v>175000</v>
       </c>
-      <c r="J28" s="130" t="s">
+      <c r="J28" s="63" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="17"/>
-      <c r="C29" s="45" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="132">
+      <c r="D29" s="65">
         <v>1</v>
       </c>
-      <c r="E29" s="125" t="s">
+      <c r="E29" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F29" s="126">
+      <c r="F29" s="59">
         <v>35000</v>
       </c>
-      <c r="G29" s="125" t="s">
+      <c r="G29" s="58" t="s">
         <v>60</v>
       </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="128">
+      <c r="I29" s="61">
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
-      <c r="J29" s="130" t="s">
+      <c r="J29" s="63" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="17"/>
-      <c r="C30" s="43" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="132">
+      <c r="D30" s="65">
         <v>3</v>
       </c>
-      <c r="E30" s="125" t="s">
+      <c r="E30" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="F30" s="126">
+      <c r="F30" s="59">
         <v>35000</v>
       </c>
-      <c r="G30" s="125" t="s">
+      <c r="G30" s="58" t="s">
         <v>60</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="128">
+      <c r="I30" s="61">
         <f t="shared" si="0"/>
         <v>105000</v>
       </c>
-      <c r="J30" s="130" t="s">
+      <c r="J30" s="63" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="133" t="s">
+      <c r="B31" s="113" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="134"/>
-      <c r="D31" s="135">
+      <c r="C31" s="114"/>
+      <c r="D31" s="66">
         <f>SUM(D25:D30)</f>
         <v>60</v>
       </c>
-      <c r="E31" s="127" t="s">
+      <c r="E31" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="136"/>
-      <c r="G31" s="137" t="s">
+      <c r="F31" s="67"/>
+      <c r="G31" s="68" t="s">
         <v>62</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I31" s="128">
+      <c r="I31" s="61">
         <f>SUM(I25:I30)</f>
         <v>2390000</v>
       </c>
-      <c r="J31" s="129" t="s">
+      <c r="J31" s="62" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="138" t="s">
+      <c r="B32" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="139"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="142"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="106"/>
       <c r="H32" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I32" s="143"/>
-      <c r="J32" s="130" t="s">
+      <c r="I32" s="69"/>
+      <c r="J32" s="63" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="138" t="s">
+      <c r="B33" s="87" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="139"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="142"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="106"/>
       <c r="H33" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I33" s="143"/>
-      <c r="J33" s="130" t="s">
+      <c r="I33" s="69"/>
+      <c r="J33" s="63" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="138" t="s">
+      <c r="B34" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="139"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="146"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="91"/>
       <c r="H34" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I34" s="143"/>
-      <c r="J34" s="130" t="s">
+      <c r="I34" s="69"/>
+      <c r="J34" s="63" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="138"/>
-      <c r="C35" s="139"/>
-      <c r="D35" s="144"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="146"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="90"/>
+      <c r="G35" s="91"/>
       <c r="H35" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="143"/>
-      <c r="J35" s="147" t="s">
+      <c r="I35" s="69"/>
+      <c r="J35" s="70" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="138"/>
-      <c r="C36" s="139"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="142"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="88"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="106"/>
       <c r="H36" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="I36" s="143"/>
-      <c r="J36" s="147" t="s">
+      <c r="I36" s="69"/>
+      <c r="J36" s="70" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="138"/>
-      <c r="C37" s="139"/>
-      <c r="D37" s="144"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="148" t="s">
+      <c r="B37" s="87"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="90"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="I37" s="149"/>
-      <c r="J37" s="150" t="s">
+      <c r="I37" s="72"/>
+      <c r="J37" s="73" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="151" t="s">
+      <c r="B38" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="152"/>
-      <c r="D38" s="153" t="s">
+      <c r="C38" s="93"/>
+      <c r="D38" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="155">
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="100">
         <f>SUM(I31:I37)</f>
         <v>2390000</v>
       </c>
-      <c r="I38" s="156"/>
-      <c r="J38" s="157"/>
+      <c r="I38" s="101"/>
+      <c r="J38" s="74"/>
     </row>
     <row r="39" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="158"/>
-      <c r="C39" s="159"/>
-      <c r="D39" s="160"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="162"/>
-      <c r="I39" s="163"/>
-      <c r="J39" s="164" t="s">
+      <c r="B39" s="94"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="75" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4752,23 +6710,18 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="D38:G39"/>
-    <mergeCell ref="H38:I39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H23:J24"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -4777,18 +6730,23 @@
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:E24"/>
     <mergeCell ref="F23:G24"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="H23:J24"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="D38:G39"/>
+    <mergeCell ref="H38:I39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5732,464 +7690,482 @@
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="I6" s="11"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:9" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="2:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="10" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="168" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="169"/>
+      <c r="I10" s="170"/>
     </row>
     <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="20"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="171"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="173"/>
     </row>
     <row r="12" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="173"/>
     </row>
     <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="173"/>
     </row>
     <row r="14" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="173"/>
     </row>
     <row r="15" spans="2:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="174"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="176"/>
     </row>
     <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="2:9" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="12" t="s">
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+    </row>
+    <row r="17" spans="2:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="19" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="178" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29" t="s">
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="30"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="181"/>
     </row>
     <row r="20" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="32" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36" t="s">
+      <c r="G20" s="19"/>
+      <c r="H20" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="37" t="s">
+      <c r="I20" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="38"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="43" t="s">
+      <c r="F21" s="162"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="38"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="7">
         <v>2</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="46" t="s">
+      <c r="E22" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="47"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="49" t="s">
+      <c r="F22" s="143"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="50">
+      <c r="I22" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="38"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="1">
         <v>3</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="43" t="s">
+      <c r="F23" s="143"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="50">
+      <c r="I23" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="38"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="7">
         <v>4</v>
       </c>
-      <c r="D24" s="45" t="s">
+      <c r="D24" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="164" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="47"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="49" t="s">
+      <c r="F24" s="143"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="50">
+      <c r="I24" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="38"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="1">
         <v>5</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="47"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="49" t="s">
+      <c r="F25" s="143"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="I25" s="50">
+      <c r="I25" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="38"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="7">
         <v>6</v>
       </c>
-      <c r="D26" s="45" t="s">
+      <c r="D26" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="E26" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="49" t="s">
+      <c r="F26" s="143"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="50">
+      <c r="I26" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="38"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="7">
         <v>7</v>
       </c>
-      <c r="D27" s="45" t="s">
+      <c r="D27" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="53" t="s">
+      <c r="E27" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="49" t="s">
+      <c r="F27" s="143"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="50">
+      <c r="I27" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="38"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="7">
         <v>8</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="53" t="s">
+      <c r="E28" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="49" t="s">
+      <c r="F28" s="143"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="I28" s="50">
+      <c r="I28" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B29" s="38"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="7">
         <v>9</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="168" t="s">
+      <c r="E29" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="169"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="49" t="s">
+      <c r="F29" s="146"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="I29" s="50">
+      <c r="I29" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B30" s="54"/>
-      <c r="C30" s="55">
+      <c r="B30" s="30"/>
+      <c r="C30" s="31">
         <v>10</v>
       </c>
-      <c r="D30" s="171" t="s">
+      <c r="D30" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="165" t="s">
+      <c r="E30" s="139" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="166"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="56" t="s">
+      <c r="F30" s="140"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="57">
+      <c r="I30" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="12" t="s">
+    <row r="33" spans="2:9" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="58"/>
-      <c r="I33" s="59"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="35"/>
     </row>
     <row r="34" spans="2:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="35" spans="2:9" s="66" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="60"/>
-      <c r="C35" s="61" t="s">
+    <row r="35" spans="2:9" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="36"/>
+      <c r="C35" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="62" t="s">
+      <c r="D35" s="157" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="62" t="s">
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="159"/>
+      <c r="H35" s="157" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="65"/>
+      <c r="I35" s="160"/>
     </row>
     <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C36" s="67">
+      <c r="C36" s="39">
         <v>1</v>
       </c>
-      <c r="D36" s="68"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="72"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="156"/>
     </row>
     <row r="37" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="67">
+      <c r="C37" s="39">
         <v>2</v>
       </c>
-      <c r="D37" s="68"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="72"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="149"/>
+      <c r="F37" s="149"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="155"/>
+      <c r="I37" s="156"/>
     </row>
     <row r="38" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="17"/>
-      <c r="C38" s="67">
+      <c r="B38" s="12"/>
+      <c r="C38" s="39">
         <v>3</v>
       </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="70"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="72"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="156"/>
     </row>
     <row r="39" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="17"/>
-      <c r="C39" s="67">
+      <c r="B39" s="12"/>
+      <c r="C39" s="39">
         <v>4</v>
       </c>
-      <c r="D39" s="68"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="72"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="149"/>
+      <c r="F39" s="149"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="156"/>
     </row>
     <row r="40" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="17"/>
-      <c r="C40" s="67">
+      <c r="B40" s="12"/>
+      <c r="C40" s="39">
         <v>5</v>
       </c>
-      <c r="D40" s="68"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="73"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="151"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B41" s="17"/>
-      <c r="C41" s="67">
+      <c r="B41" s="12"/>
+      <c r="C41" s="39">
         <v>6</v>
       </c>
-      <c r="D41" s="74"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="73"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="153"/>
+      <c r="F41" s="153"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="151"/>
     </row>
     <row r="42" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="17"/>
-      <c r="C42" s="67">
+      <c r="B42" s="12"/>
+      <c r="C42" s="39">
         <v>7</v>
       </c>
-      <c r="D42" s="68"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="73"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="151"/>
     </row>
     <row r="43" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="21"/>
-      <c r="C43" s="77">
+      <c r="B43" s="13"/>
+      <c r="C43" s="40">
         <v>8</v>
       </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="78"/>
-      <c r="I43" s="81"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="136"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="137"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C10:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="E30:G30"/>
@@ -6206,24 +8182,6 @@
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C10:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -6237,14 +8195,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:AR31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="77" t="s">
         <v>95</v>
       </c>
     </row>
@@ -6295,153 +8253,153 @@
       </c>
     </row>
     <row r="24" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="D24" s="176" t="s">
+      <c r="D24" s="81" t="s">
         <v>106</v>
       </c>
-      <c r="E24" s="177"/>
-      <c r="F24" s="176" t="s">
+      <c r="E24" s="82"/>
+      <c r="F24" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="177"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="177" t="s">
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="K24" s="177"/>
-      <c r="L24" s="177"/>
-      <c r="M24" s="177"/>
-      <c r="N24" s="177"/>
-      <c r="O24" s="177"/>
-      <c r="P24" s="177"/>
-      <c r="Q24" s="177"/>
-      <c r="R24" s="177"/>
-      <c r="S24" s="177"/>
-      <c r="T24" s="177"/>
-      <c r="U24" s="177"/>
-      <c r="V24" s="177"/>
-      <c r="W24" s="177"/>
-      <c r="X24" s="177"/>
-      <c r="Y24" s="177"/>
-      <c r="Z24" s="177"/>
-      <c r="AA24" s="176" t="s">
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
+      <c r="R24" s="82"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="82"/>
+      <c r="V24" s="82"/>
+      <c r="W24" s="82"/>
+      <c r="X24" s="82"/>
+      <c r="Y24" s="82"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="81" t="s">
         <v>109</v>
       </c>
-      <c r="AB24" s="177"/>
-      <c r="AC24" s="177"/>
-      <c r="AD24" s="177"/>
-      <c r="AE24" s="177"/>
-      <c r="AF24" s="177"/>
-      <c r="AG24" s="177"/>
-      <c r="AH24" s="177"/>
-      <c r="AI24" s="177"/>
-      <c r="AJ24" s="177"/>
-      <c r="AK24" s="177"/>
-      <c r="AL24" s="177"/>
-      <c r="AM24" s="177"/>
-      <c r="AN24" s="177"/>
-      <c r="AO24" s="177"/>
-      <c r="AP24" s="177"/>
-      <c r="AQ24" s="177"/>
-      <c r="AR24" s="178"/>
+      <c r="AB24" s="82"/>
+      <c r="AC24" s="82"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="82"/>
+      <c r="AF24" s="82"/>
+      <c r="AG24" s="82"/>
+      <c r="AH24" s="82"/>
+      <c r="AI24" s="82"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="82"/>
+      <c r="AL24" s="82"/>
+      <c r="AM24" s="82"/>
+      <c r="AN24" s="82"/>
+      <c r="AO24" s="82"/>
+      <c r="AP24" s="82"/>
+      <c r="AQ24" s="82"/>
+      <c r="AR24" s="83"/>
     </row>
     <row r="25" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="D25" s="179">
+      <c r="D25" s="84">
         <v>1</v>
       </c>
-      <c r="E25" s="180"/>
-      <c r="F25" s="179" t="s">
+      <c r="E25" s="85"/>
+      <c r="F25" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="G25" s="180"/>
-      <c r="H25" s="180"/>
-      <c r="I25" s="181"/>
-      <c r="J25" s="180" t="s">
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="K25" s="180"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="180"/>
-      <c r="O25" s="180"/>
-      <c r="P25" s="180"/>
-      <c r="Q25" s="180"/>
-      <c r="R25" s="180"/>
-      <c r="S25" s="180"/>
-      <c r="T25" s="180"/>
-      <c r="U25" s="180"/>
-      <c r="V25" s="180"/>
-      <c r="W25" s="180"/>
-      <c r="X25" s="180"/>
-      <c r="Y25" s="180"/>
-      <c r="Z25" s="180"/>
-      <c r="AA25" s="179"/>
-      <c r="AB25" s="180"/>
-      <c r="AC25" s="180"/>
-      <c r="AD25" s="180"/>
-      <c r="AE25" s="180"/>
-      <c r="AF25" s="180"/>
-      <c r="AG25" s="180"/>
-      <c r="AH25" s="180"/>
-      <c r="AI25" s="180"/>
-      <c r="AJ25" s="180"/>
-      <c r="AK25" s="180"/>
-      <c r="AL25" s="180"/>
-      <c r="AM25" s="180"/>
-      <c r="AN25" s="180"/>
-      <c r="AO25" s="180"/>
-      <c r="AP25" s="180"/>
-      <c r="AQ25" s="180"/>
-      <c r="AR25" s="181"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
+      <c r="N25" s="85"/>
+      <c r="O25" s="85"/>
+      <c r="P25" s="85"/>
+      <c r="Q25" s="85"/>
+      <c r="R25" s="85"/>
+      <c r="S25" s="85"/>
+      <c r="T25" s="85"/>
+      <c r="U25" s="85"/>
+      <c r="V25" s="85"/>
+      <c r="W25" s="85"/>
+      <c r="X25" s="85"/>
+      <c r="Y25" s="85"/>
+      <c r="Z25" s="85"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="85"/>
+      <c r="AC25" s="85"/>
+      <c r="AD25" s="85"/>
+      <c r="AE25" s="85"/>
+      <c r="AF25" s="85"/>
+      <c r="AG25" s="85"/>
+      <c r="AH25" s="85"/>
+      <c r="AI25" s="85"/>
+      <c r="AJ25" s="85"/>
+      <c r="AK25" s="85"/>
+      <c r="AL25" s="85"/>
+      <c r="AM25" s="85"/>
+      <c r="AN25" s="85"/>
+      <c r="AO25" s="85"/>
+      <c r="AP25" s="85"/>
+      <c r="AQ25" s="85"/>
+      <c r="AR25" s="86"/>
     </row>
     <row r="26" spans="2:44" x14ac:dyDescent="0.45">
-      <c r="D26" s="173">
+      <c r="D26" s="78">
         <v>2</v>
       </c>
-      <c r="E26" s="174"/>
-      <c r="F26" s="173" t="s">
+      <c r="E26" s="79"/>
+      <c r="F26" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="G26" s="174"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="174" t="s">
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="79" t="s">
         <v>113</v>
       </c>
-      <c r="K26" s="174"/>
-      <c r="L26" s="174"/>
-      <c r="M26" s="174"/>
-      <c r="N26" s="174"/>
-      <c r="O26" s="174"/>
-      <c r="P26" s="174"/>
-      <c r="Q26" s="174"/>
-      <c r="R26" s="174"/>
-      <c r="S26" s="174"/>
-      <c r="T26" s="174"/>
-      <c r="U26" s="174"/>
-      <c r="V26" s="174"/>
-      <c r="W26" s="174"/>
-      <c r="X26" s="174"/>
-      <c r="Y26" s="174"/>
-      <c r="Z26" s="174"/>
-      <c r="AA26" s="173"/>
-      <c r="AB26" s="174"/>
-      <c r="AC26" s="174"/>
-      <c r="AD26" s="174"/>
-      <c r="AE26" s="174"/>
-      <c r="AF26" s="174"/>
-      <c r="AG26" s="174"/>
-      <c r="AH26" s="174"/>
-      <c r="AI26" s="174"/>
-      <c r="AJ26" s="174"/>
-      <c r="AK26" s="174"/>
-      <c r="AL26" s="174"/>
-      <c r="AM26" s="174"/>
-      <c r="AN26" s="174"/>
-      <c r="AO26" s="174"/>
-      <c r="AP26" s="174"/>
-      <c r="AQ26" s="174"/>
-      <c r="AR26" s="175"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="79"/>
+      <c r="W26" s="79"/>
+      <c r="X26" s="79"/>
+      <c r="Y26" s="79"/>
+      <c r="Z26" s="79"/>
+      <c r="AA26" s="78"/>
+      <c r="AB26" s="79"/>
+      <c r="AC26" s="79"/>
+      <c r="AD26" s="79"/>
+      <c r="AE26" s="79"/>
+      <c r="AF26" s="79"/>
+      <c r="AG26" s="79"/>
+      <c r="AH26" s="79"/>
+      <c r="AI26" s="79"/>
+      <c r="AJ26" s="79"/>
+      <c r="AK26" s="79"/>
+      <c r="AL26" s="79"/>
+      <c r="AM26" s="79"/>
+      <c r="AN26" s="79"/>
+      <c r="AO26" s="79"/>
+      <c r="AP26" s="79"/>
+      <c r="AQ26" s="79"/>
+      <c r="AR26" s="80"/>
     </row>
     <row r="28" spans="2:44" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
@@ -6477,4 +8435,971 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591B07A0-150A-42B3-8439-C419787ED092}">
+  <dimension ref="E11:BT64"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="12" max="12" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="9:45" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="AB11" s="185" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="9:45" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="I14" s="183" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS14" s="184" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="9:45" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="I15" s="183" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="5:39" x14ac:dyDescent="0.45">
+      <c r="AB17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="5:39" x14ac:dyDescent="0.45">
+      <c r="AB18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="5:39" x14ac:dyDescent="0.45">
+      <c r="AA19" s="188" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="5:39" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="AG24" s="187"/>
+    </row>
+    <row r="29" spans="5:39" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="E29" s="184" t="s">
+        <v>124</v>
+      </c>
+      <c r="L29" s="182" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="5:39" x14ac:dyDescent="0.45">
+      <c r="E30" s="182" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="5:39" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="E31" s="182" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE31" s="184" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM31" s="182" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="5:39" x14ac:dyDescent="0.45">
+      <c r="E32" t="s">
+        <v>126</v>
+      </c>
+      <c r="G32" t="s">
+        <v>127</v>
+      </c>
+      <c r="L32" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE32" s="182" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="5:72" x14ac:dyDescent="0.45">
+      <c r="E33" s="189">
+        <v>1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>129</v>
+      </c>
+      <c r="L33" s="190" t="s">
+        <v>133</v>
+      </c>
+      <c r="S33" s="186" t="s">
+        <v>138</v>
+      </c>
+      <c r="T33" s="191" t="s">
+        <v>139</v>
+      </c>
+      <c r="U33" s="191"/>
+      <c r="V33" s="191"/>
+      <c r="AE33" s="182" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI33" s="182" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK33" s="182" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="5:72" x14ac:dyDescent="0.45">
+      <c r="E34" s="189">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>130</v>
+      </c>
+      <c r="L34">
+        <v>1230001</v>
+      </c>
+      <c r="S34" s="191" t="s">
+        <v>138</v>
+      </c>
+      <c r="T34" s="191" t="s">
+        <v>140</v>
+      </c>
+      <c r="U34" s="191"/>
+      <c r="V34" s="191"/>
+      <c r="AE34" s="182" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="5:72" x14ac:dyDescent="0.45">
+      <c r="E35" s="189">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>131</v>
+      </c>
+      <c r="L35">
+        <v>20210301</v>
+      </c>
+      <c r="S35" s="191" t="s">
+        <v>138</v>
+      </c>
+      <c r="T35" s="191" t="s">
+        <v>141</v>
+      </c>
+      <c r="U35" s="191"/>
+      <c r="V35" s="191"/>
+      <c r="AE35" s="194" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF35" s="195"/>
+      <c r="AG35" s="194" t="s">
+        <v>149</v>
+      </c>
+      <c r="AH35" s="195"/>
+      <c r="AI35" s="195"/>
+      <c r="AJ35" s="195"/>
+      <c r="AK35" s="195"/>
+      <c r="AL35" s="195"/>
+      <c r="AM35" s="195"/>
+      <c r="AN35" s="195"/>
+      <c r="AO35" s="212"/>
+      <c r="AP35" s="195" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ35" s="195"/>
+      <c r="AR35" s="195"/>
+      <c r="AS35" s="195"/>
+      <c r="AT35" s="194" t="s">
+        <v>151</v>
+      </c>
+      <c r="AU35" s="195"/>
+      <c r="AV35" s="195"/>
+      <c r="AW35" s="212"/>
+      <c r="AX35" s="195" t="s">
+        <v>152</v>
+      </c>
+      <c r="AY35" s="195"/>
+      <c r="AZ35" s="195"/>
+      <c r="BA35" s="195"/>
+      <c r="BB35" s="195"/>
+      <c r="BC35" s="194" t="s">
+        <v>153</v>
+      </c>
+      <c r="BD35" s="212"/>
+      <c r="BE35" s="195" t="s">
+        <v>154</v>
+      </c>
+      <c r="BF35" s="195"/>
+      <c r="BG35" s="195"/>
+      <c r="BH35" s="194" t="s">
+        <v>166</v>
+      </c>
+      <c r="BI35" s="195"/>
+      <c r="BJ35" s="195"/>
+      <c r="BK35" s="212"/>
+      <c r="BL35" s="195" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM35" s="195"/>
+      <c r="BN35" s="195"/>
+      <c r="BO35" s="195"/>
+      <c r="BP35" s="195"/>
+      <c r="BQ35" s="194" t="s">
+        <v>168</v>
+      </c>
+      <c r="BR35" s="195"/>
+      <c r="BS35" s="195"/>
+      <c r="BT35" s="196"/>
+    </row>
+    <row r="36" spans="5:72" x14ac:dyDescent="0.45">
+      <c r="E36" s="189">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>132</v>
+      </c>
+      <c r="L36" t="s">
+        <v>134</v>
+      </c>
+      <c r="S36" s="191" t="s">
+        <v>138</v>
+      </c>
+      <c r="T36" s="191" t="s">
+        <v>142</v>
+      </c>
+      <c r="U36" s="191"/>
+      <c r="V36" s="191"/>
+      <c r="AE36" s="197">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="198"/>
+      <c r="AG36" s="197" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH36" s="198"/>
+      <c r="AI36" s="198"/>
+      <c r="AJ36" s="198"/>
+      <c r="AK36" s="198"/>
+      <c r="AL36" s="198"/>
+      <c r="AM36" s="198"/>
+      <c r="AN36" s="198"/>
+      <c r="AO36" s="213"/>
+      <c r="AP36" s="197" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ36" s="198"/>
+      <c r="AR36" s="198"/>
+      <c r="AS36" s="198"/>
+      <c r="AT36" s="197" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU36" s="198"/>
+      <c r="AV36" s="198"/>
+      <c r="AW36" s="213"/>
+      <c r="AX36" s="197"/>
+      <c r="AY36" s="198" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ36" s="198"/>
+      <c r="BA36" s="198"/>
+      <c r="BB36" s="213"/>
+      <c r="BC36" s="199" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD36" s="198"/>
+      <c r="BE36" s="197" t="s">
+        <v>162</v>
+      </c>
+      <c r="BF36" s="198"/>
+      <c r="BG36" s="213"/>
+      <c r="BH36" s="198"/>
+      <c r="BI36" s="198">
+        <v>10</v>
+      </c>
+      <c r="BJ36" s="198"/>
+      <c r="BK36" s="198"/>
+      <c r="BL36" s="197"/>
+      <c r="BM36" s="198"/>
+      <c r="BN36" s="198"/>
+      <c r="BO36" s="198"/>
+      <c r="BP36" s="213"/>
+      <c r="BQ36" s="198"/>
+      <c r="BR36" s="198"/>
+      <c r="BS36" s="198"/>
+      <c r="BT36" s="86"/>
+    </row>
+    <row r="37" spans="5:72" x14ac:dyDescent="0.45">
+      <c r="E37" s="182" t="s">
+        <v>137</v>
+      </c>
+      <c r="S37" s="182" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE37" s="200">
+        <v>2</v>
+      </c>
+      <c r="AF37" s="201"/>
+      <c r="AG37" s="200" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH37" s="201"/>
+      <c r="AI37" s="201"/>
+      <c r="AJ37" s="201"/>
+      <c r="AK37" s="201"/>
+      <c r="AL37" s="201"/>
+      <c r="AM37" s="201"/>
+      <c r="AN37" s="201"/>
+      <c r="AO37" s="214"/>
+      <c r="AP37" s="200" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ37" s="201"/>
+      <c r="AR37" s="201"/>
+      <c r="AS37" s="201"/>
+      <c r="AT37" s="200" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU37" s="201"/>
+      <c r="AV37" s="201"/>
+      <c r="AW37" s="214"/>
+      <c r="AX37" s="200"/>
+      <c r="AY37" s="201" t="s">
+        <v>159</v>
+      </c>
+      <c r="AZ37" s="201"/>
+      <c r="BA37" s="201"/>
+      <c r="BB37" s="214"/>
+      <c r="BC37" s="202"/>
+      <c r="BD37" s="201"/>
+      <c r="BE37" s="200" t="s">
+        <v>162</v>
+      </c>
+      <c r="BF37" s="201"/>
+      <c r="BG37" s="214"/>
+      <c r="BH37" s="201"/>
+      <c r="BI37" s="201">
+        <v>6</v>
+      </c>
+      <c r="BJ37" s="201"/>
+      <c r="BK37" s="201"/>
+      <c r="BL37" s="200"/>
+      <c r="BM37" s="201"/>
+      <c r="BN37" s="201"/>
+      <c r="BO37" s="201"/>
+      <c r="BP37" s="214"/>
+      <c r="BQ37" s="201"/>
+      <c r="BR37" s="201"/>
+      <c r="BS37" s="201"/>
+      <c r="BT37" s="203"/>
+    </row>
+    <row r="38" spans="5:72" x14ac:dyDescent="0.45">
+      <c r="AE38" s="200">
+        <v>3</v>
+      </c>
+      <c r="AF38" s="201"/>
+      <c r="AG38" s="200" t="s">
+        <v>156</v>
+      </c>
+      <c r="AH38" s="201"/>
+      <c r="AI38" s="201"/>
+      <c r="AJ38" s="201"/>
+      <c r="AK38" s="201"/>
+      <c r="AL38" s="201"/>
+      <c r="AM38" s="201"/>
+      <c r="AN38" s="201"/>
+      <c r="AO38" s="214"/>
+      <c r="AP38" s="200" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ38" s="201"/>
+      <c r="AR38" s="201"/>
+      <c r="AS38" s="201"/>
+      <c r="AT38" s="200" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU38" s="201"/>
+      <c r="AV38" s="201"/>
+      <c r="AW38" s="214"/>
+      <c r="AX38" s="200"/>
+      <c r="AY38" s="201" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ38" s="201"/>
+      <c r="BA38" s="201"/>
+      <c r="BB38" s="214"/>
+      <c r="BC38" s="202" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD38" s="201"/>
+      <c r="BE38" s="200" t="s">
+        <v>162</v>
+      </c>
+      <c r="BF38" s="201"/>
+      <c r="BG38" s="214"/>
+      <c r="BH38" s="201"/>
+      <c r="BI38" s="201">
+        <v>8</v>
+      </c>
+      <c r="BJ38" s="201"/>
+      <c r="BK38" s="201"/>
+      <c r="BL38" s="200"/>
+      <c r="BM38" s="201"/>
+      <c r="BN38" s="201"/>
+      <c r="BO38" s="201"/>
+      <c r="BP38" s="214"/>
+      <c r="BQ38" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="BR38" s="201"/>
+      <c r="BS38" s="201"/>
+      <c r="BT38" s="203"/>
+    </row>
+    <row r="39" spans="5:72" x14ac:dyDescent="0.45">
+      <c r="AE39" s="218" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF39" s="205"/>
+      <c r="AG39" s="200"/>
+      <c r="AH39" s="201"/>
+      <c r="AI39" s="220" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ39" s="201"/>
+      <c r="AK39" s="201"/>
+      <c r="AL39" s="201"/>
+      <c r="AM39" s="201"/>
+      <c r="AN39" s="201"/>
+      <c r="AO39" s="214"/>
+      <c r="AP39" s="217"/>
+      <c r="AQ39" s="220" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR39" s="206"/>
+      <c r="AS39" s="206"/>
+      <c r="AT39" s="217"/>
+      <c r="AU39" s="220" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV39" s="206"/>
+      <c r="AW39" s="214"/>
+      <c r="AX39" s="204"/>
+      <c r="AY39" s="220" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ39" s="201"/>
+      <c r="BA39" s="201"/>
+      <c r="BB39" s="214"/>
+      <c r="BC39" s="220" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD39" s="201"/>
+      <c r="BE39" s="200"/>
+      <c r="BF39" s="220" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG39" s="214"/>
+      <c r="BH39" s="201"/>
+      <c r="BI39" s="220" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ39" s="207"/>
+      <c r="BK39" s="207"/>
+      <c r="BL39" s="200"/>
+      <c r="BM39" s="201"/>
+      <c r="BN39" s="220" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO39" s="201"/>
+      <c r="BP39" s="214"/>
+      <c r="BQ39" s="201"/>
+      <c r="BR39" s="220" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS39" s="201"/>
+      <c r="BT39" s="203"/>
+    </row>
+    <row r="40" spans="5:72" x14ac:dyDescent="0.45">
+      <c r="AE40" s="200">
+        <v>57</v>
+      </c>
+      <c r="AF40" s="201"/>
+      <c r="AG40" s="200" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH40" s="201"/>
+      <c r="AI40" s="201"/>
+      <c r="AJ40" s="201"/>
+      <c r="AK40" s="201"/>
+      <c r="AL40" s="201"/>
+      <c r="AM40" s="201"/>
+      <c r="AN40" s="201"/>
+      <c r="AO40" s="214"/>
+      <c r="AP40" s="200" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ40" s="201"/>
+      <c r="AR40" s="201"/>
+      <c r="AS40" s="201"/>
+      <c r="AT40" s="200" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU40" s="201"/>
+      <c r="AV40" s="201"/>
+      <c r="AW40" s="214"/>
+      <c r="AX40" s="200"/>
+      <c r="AY40" s="201" t="s">
+        <v>163</v>
+      </c>
+      <c r="AZ40" s="201"/>
+      <c r="BA40" s="201"/>
+      <c r="BB40" s="214"/>
+      <c r="BC40" s="202" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD40" s="201"/>
+      <c r="BE40" s="200" t="s">
+        <v>162</v>
+      </c>
+      <c r="BF40" s="201"/>
+      <c r="BG40" s="214"/>
+      <c r="BH40" s="201"/>
+      <c r="BI40" s="201">
+        <v>10</v>
+      </c>
+      <c r="BJ40" s="201"/>
+      <c r="BK40" s="201"/>
+      <c r="BL40" s="200"/>
+      <c r="BM40" s="201"/>
+      <c r="BN40" s="201"/>
+      <c r="BO40" s="201"/>
+      <c r="BP40" s="214"/>
+      <c r="BQ40" s="201"/>
+      <c r="BR40" s="201"/>
+      <c r="BS40" s="201"/>
+      <c r="BT40" s="203"/>
+    </row>
+    <row r="41" spans="5:72" x14ac:dyDescent="0.45">
+      <c r="AE41" s="200">
+        <v>58</v>
+      </c>
+      <c r="AF41" s="201"/>
+      <c r="AG41" s="200" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH41" s="201"/>
+      <c r="AI41" s="201"/>
+      <c r="AJ41" s="201"/>
+      <c r="AK41" s="201"/>
+      <c r="AL41" s="201"/>
+      <c r="AM41" s="201"/>
+      <c r="AN41" s="201"/>
+      <c r="AO41" s="214"/>
+      <c r="AP41" s="200" t="s">
+        <v>140</v>
+      </c>
+      <c r="AQ41" s="201"/>
+      <c r="AR41" s="201"/>
+      <c r="AS41" s="201"/>
+      <c r="AT41" s="200" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU41" s="201"/>
+      <c r="AV41" s="201"/>
+      <c r="AW41" s="214"/>
+      <c r="AX41" s="200"/>
+      <c r="AY41" s="201" t="s">
+        <v>164</v>
+      </c>
+      <c r="AZ41" s="201"/>
+      <c r="BA41" s="201"/>
+      <c r="BB41" s="214"/>
+      <c r="BC41" s="202" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD41" s="201"/>
+      <c r="BE41" s="200" t="s">
+        <v>162</v>
+      </c>
+      <c r="BF41" s="201"/>
+      <c r="BG41" s="214"/>
+      <c r="BH41" s="201"/>
+      <c r="BI41" s="201">
+        <v>6</v>
+      </c>
+      <c r="BJ41" s="201"/>
+      <c r="BK41" s="201"/>
+      <c r="BL41" s="200"/>
+      <c r="BM41" s="201"/>
+      <c r="BN41" s="201"/>
+      <c r="BO41" s="201"/>
+      <c r="BP41" s="214"/>
+      <c r="BQ41" s="201"/>
+      <c r="BR41" s="201"/>
+      <c r="BS41" s="201"/>
+      <c r="BT41" s="203"/>
+    </row>
+    <row r="42" spans="5:72" x14ac:dyDescent="0.45">
+      <c r="AE42" s="200">
+        <v>59</v>
+      </c>
+      <c r="AF42" s="201"/>
+      <c r="AG42" s="200" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH42" s="201"/>
+      <c r="AI42" s="201"/>
+      <c r="AJ42" s="201"/>
+      <c r="AK42" s="201"/>
+      <c r="AL42" s="201"/>
+      <c r="AM42" s="201"/>
+      <c r="AN42" s="201"/>
+      <c r="AO42" s="214"/>
+      <c r="AP42" s="200" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ42" s="201"/>
+      <c r="AR42" s="201"/>
+      <c r="AS42" s="201"/>
+      <c r="AT42" s="200" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU42" s="201"/>
+      <c r="AV42" s="201"/>
+      <c r="AW42" s="214"/>
+      <c r="AX42" s="200"/>
+      <c r="AY42" s="201" t="s">
+        <v>165</v>
+      </c>
+      <c r="AZ42" s="201"/>
+      <c r="BA42" s="201"/>
+      <c r="BB42" s="214"/>
+      <c r="BC42" s="202" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD42" s="201"/>
+      <c r="BE42" s="200" t="s">
+        <v>162</v>
+      </c>
+      <c r="BF42" s="201"/>
+      <c r="BG42" s="214"/>
+      <c r="BH42" s="201"/>
+      <c r="BI42" s="201">
+        <v>8</v>
+      </c>
+      <c r="BJ42" s="201"/>
+      <c r="BK42" s="201"/>
+      <c r="BL42" s="200"/>
+      <c r="BM42" s="201"/>
+      <c r="BN42" s="201"/>
+      <c r="BO42" s="201"/>
+      <c r="BP42" s="214"/>
+      <c r="BQ42" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="BR42" s="201"/>
+      <c r="BS42" s="201"/>
+      <c r="BT42" s="203"/>
+    </row>
+    <row r="43" spans="5:72" x14ac:dyDescent="0.45">
+      <c r="AE43" s="219" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF43" s="216"/>
+      <c r="AG43" s="208"/>
+      <c r="AH43" s="209"/>
+      <c r="AI43" s="221" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ43" s="209"/>
+      <c r="AK43" s="209"/>
+      <c r="AL43" s="209"/>
+      <c r="AM43" s="209"/>
+      <c r="AN43" s="209"/>
+      <c r="AO43" s="215"/>
+      <c r="AP43" s="208"/>
+      <c r="AQ43" s="221" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR43" s="209"/>
+      <c r="AS43" s="209"/>
+      <c r="AT43" s="208"/>
+      <c r="AU43" s="221" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV43" s="209"/>
+      <c r="AW43" s="215"/>
+      <c r="AX43" s="208"/>
+      <c r="AY43" s="221" t="s">
+        <v>136</v>
+      </c>
+      <c r="AZ43" s="209"/>
+      <c r="BA43" s="209"/>
+      <c r="BB43" s="215"/>
+      <c r="BC43" s="221" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD43" s="209"/>
+      <c r="BE43" s="208"/>
+      <c r="BF43" s="221" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG43" s="215"/>
+      <c r="BH43" s="209"/>
+      <c r="BI43" s="221" t="s">
+        <v>136</v>
+      </c>
+      <c r="BJ43" s="210"/>
+      <c r="BK43" s="210"/>
+      <c r="BL43" s="208"/>
+      <c r="BM43" s="209"/>
+      <c r="BN43" s="221" t="s">
+        <v>136</v>
+      </c>
+      <c r="BO43" s="209"/>
+      <c r="BP43" s="215"/>
+      <c r="BQ43" s="209"/>
+      <c r="BR43" s="221" t="s">
+        <v>136</v>
+      </c>
+      <c r="BS43" s="209"/>
+      <c r="BT43" s="211"/>
+    </row>
+    <row r="44" spans="5:72" x14ac:dyDescent="0.45">
+      <c r="AE44" s="192"/>
+      <c r="AF44" s="192"/>
+      <c r="AG44" s="192"/>
+      <c r="AH44" s="192"/>
+      <c r="AI44" s="192"/>
+      <c r="AJ44" s="192"/>
+      <c r="AK44" s="192"/>
+      <c r="AL44" s="192"/>
+      <c r="AM44" s="192"/>
+      <c r="AN44" s="192"/>
+      <c r="AO44" s="192"/>
+      <c r="AP44" s="192"/>
+      <c r="AQ44" s="192"/>
+      <c r="AR44" s="192"/>
+      <c r="AS44" s="192"/>
+      <c r="AT44" s="192"/>
+      <c r="AU44" s="192"/>
+      <c r="AV44" s="192"/>
+      <c r="AW44" s="192"/>
+      <c r="AX44" s="192"/>
+      <c r="AY44" s="192"/>
+      <c r="AZ44" s="192"/>
+      <c r="BA44" s="192"/>
+      <c r="BB44" s="192"/>
+      <c r="BC44" s="192"/>
+      <c r="BD44" s="192"/>
+      <c r="BE44" s="192"/>
+      <c r="BF44" s="192"/>
+      <c r="BG44" s="192"/>
+      <c r="BH44" s="192"/>
+      <c r="BI44" s="192"/>
+      <c r="BJ44" s="193"/>
+      <c r="BK44" s="193"/>
+      <c r="BL44" s="192"/>
+      <c r="BM44" s="192"/>
+      <c r="BN44" s="192"/>
+      <c r="BO44" s="192"/>
+      <c r="BP44" s="192"/>
+      <c r="BQ44" s="192"/>
+      <c r="BR44" s="192"/>
+      <c r="BS44" s="192"/>
+      <c r="BT44" s="193"/>
+    </row>
+    <row r="45" spans="5:72" x14ac:dyDescent="0.45">
+      <c r="AG45" s="191"/>
+      <c r="AH45" s="191"/>
+      <c r="AI45" s="191"/>
+      <c r="AJ45" s="191"/>
+      <c r="AK45" s="191"/>
+      <c r="AL45" s="191"/>
+      <c r="AM45" s="191"/>
+      <c r="AN45" s="191"/>
+      <c r="AO45" s="191"/>
+      <c r="AP45" s="191"/>
+      <c r="AQ45" s="191"/>
+      <c r="AR45" s="191"/>
+      <c r="AS45" s="191"/>
+      <c r="AT45" s="191"/>
+      <c r="AU45" s="191"/>
+      <c r="AV45" s="191"/>
+      <c r="AW45" s="191"/>
+      <c r="AX45" s="191"/>
+      <c r="AY45" s="191"/>
+      <c r="AZ45" s="191"/>
+      <c r="BA45" s="191"/>
+      <c r="BB45" s="191"/>
+      <c r="BC45" s="191"/>
+      <c r="BD45" s="191"/>
+      <c r="BE45" s="191"/>
+      <c r="BF45" s="191"/>
+      <c r="BG45" s="191"/>
+      <c r="BH45" s="191"/>
+      <c r="BI45" s="191"/>
+      <c r="BJ45" s="191"/>
+      <c r="BK45" s="191"/>
+      <c r="BL45" s="191"/>
+      <c r="BM45" s="191"/>
+      <c r="BN45" s="191"/>
+      <c r="BO45" s="191"/>
+      <c r="BP45" s="191"/>
+      <c r="BQ45" s="191"/>
+      <c r="BR45" s="191"/>
+      <c r="BS45" s="191"/>
+    </row>
+    <row r="46" spans="5:72" x14ac:dyDescent="0.45">
+      <c r="AG46" s="191"/>
+      <c r="AH46" s="191"/>
+      <c r="AI46" s="191"/>
+      <c r="AJ46" s="191"/>
+      <c r="AK46" s="191"/>
+      <c r="AL46" s="191"/>
+      <c r="AM46" s="191"/>
+      <c r="AN46" s="191"/>
+      <c r="AO46" s="191"/>
+      <c r="AP46" s="191"/>
+      <c r="AQ46" s="191"/>
+      <c r="AR46" s="191"/>
+      <c r="AS46" s="191"/>
+      <c r="AT46" s="191"/>
+      <c r="AU46" s="191"/>
+      <c r="AV46" s="191"/>
+      <c r="AW46" s="191"/>
+      <c r="AX46" s="191"/>
+      <c r="AY46" s="191"/>
+      <c r="AZ46" s="191"/>
+      <c r="BA46" s="191"/>
+      <c r="BB46" s="191"/>
+      <c r="BC46" s="191"/>
+      <c r="BD46" s="191"/>
+      <c r="BE46" s="191"/>
+      <c r="BF46" s="191"/>
+      <c r="BG46" s="191"/>
+      <c r="BH46" s="191"/>
+      <c r="BI46" s="191"/>
+      <c r="BJ46" s="191"/>
+      <c r="BK46" s="191"/>
+      <c r="BL46" s="191"/>
+      <c r="BM46" s="191"/>
+      <c r="BN46" s="191"/>
+      <c r="BO46" s="191"/>
+      <c r="BP46" s="191"/>
+      <c r="BQ46" s="191"/>
+      <c r="BR46" s="191"/>
+      <c r="BS46" s="191"/>
+    </row>
+    <row r="47" spans="5:72" x14ac:dyDescent="0.45">
+      <c r="AG47" s="191"/>
+      <c r="AH47" s="191"/>
+      <c r="AI47" s="191"/>
+      <c r="AJ47" s="191"/>
+      <c r="AK47" s="191"/>
+      <c r="AL47" s="191"/>
+      <c r="AM47" s="191"/>
+      <c r="AN47" s="191"/>
+      <c r="AO47" s="191"/>
+      <c r="AP47" s="191"/>
+      <c r="AQ47" s="191"/>
+      <c r="AR47" s="191"/>
+      <c r="AS47" s="191"/>
+      <c r="AT47" s="191"/>
+      <c r="AU47" s="191"/>
+      <c r="AV47" s="191"/>
+      <c r="AW47" s="191"/>
+      <c r="AX47" s="191"/>
+      <c r="AY47" s="191"/>
+      <c r="AZ47" s="191"/>
+      <c r="BA47" s="191"/>
+      <c r="BB47" s="191"/>
+      <c r="BC47" s="191"/>
+      <c r="BD47" s="191"/>
+      <c r="BE47" s="191"/>
+      <c r="BF47" s="191"/>
+      <c r="BG47" s="191"/>
+      <c r="BH47" s="191"/>
+      <c r="BI47" s="191"/>
+      <c r="BJ47" s="191"/>
+      <c r="BK47" s="191"/>
+      <c r="BL47" s="191"/>
+      <c r="BM47" s="191"/>
+      <c r="BN47" s="191"/>
+      <c r="BO47" s="191"/>
+      <c r="BP47" s="191"/>
+      <c r="BQ47" s="191"/>
+      <c r="BR47" s="191"/>
+      <c r="BS47" s="191"/>
+    </row>
+    <row r="49" spans="11:40" ht="19.8" x14ac:dyDescent="0.45">
+      <c r="T49" s="185" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="11:40" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="AN61" s="184" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="11:40" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="64" spans="11:40" x14ac:dyDescent="0.45">
+      <c r="K64" s="186" t="s">
+        <v>155</v>
+      </c>
+      <c r="L64" s="186"/>
+      <c r="M64" s="186"/>
+      <c r="N64" s="186"/>
+      <c r="O64" s="186"/>
+      <c r="P64" s="186"/>
+      <c r="Q64" s="186"/>
+      <c r="R64" s="186"/>
+      <c r="S64" s="186" t="s">
+        <v>157</v>
+      </c>
+      <c r="T64" s="186"/>
+      <c r="U64" s="186"/>
+      <c r="V64" s="186"/>
+      <c r="W64" s="186"/>
+      <c r="X64" s="186"/>
+      <c r="Y64" s="186"/>
+      <c r="Z64" s="186"/>
+      <c r="AA64" s="186"/>
+      <c r="AB64" s="186"/>
+      <c r="AC64" s="186"/>
+      <c r="AD64" s="186" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="L33" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/LIFE帳票出力ツール_見積書.xlsx
+++ b/LIFE帳票出力ツール_見積書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shuu\NDSoft\LIFE帳票出力ツール\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Shuu\NDsoft\ndsoft-formoutput.git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5411C24-C45B-43AE-BAAC-3694D2CA78F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D2D90E-C01C-4E9E-B267-5F5A2D36E41E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6BCF2DA9-6C62-4252-9420-CDAFBB29C2B8}"/>
+    <workbookView xWindow="1635" yWindow="810" windowWidth="26490" windowHeight="13635" activeTab="3" xr2:uid="{6BCF2DA9-6C62-4252-9420-CDAFBB29C2B8}"/>
   </bookViews>
   <sheets>
     <sheet name="見積書" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">見積書!$A$1:$K$43</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="177">
   <si>
     <t>請負見積明細書　 第</t>
     <rPh sb="4" eb="7">
@@ -1062,18 +1062,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>no</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>item_id</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>item_value</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>care_facility_id</t>
   </si>
   <si>
@@ -1114,10 +1102,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>※</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>事業所番号</t>
   </si>
   <si>
@@ -1125,9 +1109,6 @@
   </si>
   <si>
     <t>評価日</t>
-  </si>
-  <si>
-    <t>記入担当者名</t>
   </si>
   <si>
     <t>帳票生成ルールファイル</t>
@@ -1311,6 +1292,58 @@
   </si>
   <si>
     <t>科学的介護推進に関する評価</t>
+  </si>
+  <si>
+    <t>1230001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>00000002</t>
+  </si>
+  <si>
+    <t>00000003</t>
+  </si>
+  <si>
+    <t>00000004</t>
+  </si>
+  <si>
+    <t>1230002</t>
+  </si>
+  <si>
+    <t>1230003</t>
+  </si>
+  <si>
+    <t>1230004</t>
+  </si>
+  <si>
+    <t>東京次郎</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジロウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東京三郎</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サブロウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東京四郎</t>
+    <rPh sb="0" eb="2">
+      <t>トウキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シロウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -2443,10 +2476,210 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1"/>
@@ -2488,89 +2721,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="5" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2584,15 +2821,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2602,9 +2830,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2615,199 +2840,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="28" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3525,7 +3558,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>56299</xdr:colOff>
+      <xdr:colOff>56298</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>17932</xdr:rowOff>
     </xdr:to>
@@ -3656,8 +3689,8 @@
       <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>20442</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>222148</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>26894</xdr:rowOff>
     </xdr:to>
@@ -3718,7 +3751,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>683830</xdr:colOff>
+      <xdr:colOff>683831</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>242047</xdr:rowOff>
     </xdr:to>
@@ -3972,7 +4005,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
-      <xdr:colOff>179294</xdr:colOff>
+      <xdr:colOff>179295</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>143180</xdr:rowOff>
     </xdr:to>
@@ -4087,7 +4120,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
-      <xdr:colOff>127884</xdr:colOff>
+      <xdr:colOff>127883</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>188258</xdr:rowOff>
     </xdr:to>
@@ -4525,13 +4558,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>188258</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>35858</xdr:rowOff>
+      <xdr:rowOff>35859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>8964</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>98611</xdr:rowOff>
+      <xdr:rowOff>11207</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4546,8 +4579,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="690282" y="6427693"/>
-          <a:ext cx="5611906" cy="2671483"/>
+          <a:off x="681317" y="6490447"/>
+          <a:ext cx="5815853" cy="2698378"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4786,9 +4819,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>72444</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>170073</xdr:rowOff>
+      <xdr:colOff>72443</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1985</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4831,8 +4864,8 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>72445</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>170073</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1985</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4874,7 +4907,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>90374</xdr:colOff>
+      <xdr:colOff>90373</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>1088</xdr:rowOff>
     </xdr:to>
@@ -5216,975 +5249,975 @@
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.69921875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.3984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.09765625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="2.69921875" style="1" customWidth="1"/>
-    <col min="12" max="13" width="8.09765625" style="1"/>
-    <col min="14" max="14" width="11.19921875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="2.8984375" style="1" customWidth="1"/>
-    <col min="16" max="256" width="8.09765625" style="1"/>
-    <col min="257" max="257" width="1.69921875" style="1" customWidth="1"/>
-    <col min="258" max="258" width="12.09765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="2.75" style="1" customWidth="1"/>
+    <col min="12" max="13" width="8.125" style="1"/>
+    <col min="14" max="14" width="11.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="2.875" style="1" customWidth="1"/>
+    <col min="16" max="256" width="8.125" style="1"/>
+    <col min="257" max="257" width="1.75" style="1" customWidth="1"/>
+    <col min="258" max="258" width="12.125" style="1" customWidth="1"/>
     <col min="259" max="259" width="17" style="1" customWidth="1"/>
-    <col min="260" max="260" width="7.59765625" style="1" customWidth="1"/>
-    <col min="261" max="261" width="5.3984375" style="1" customWidth="1"/>
-    <col min="262" max="262" width="10.59765625" style="1" customWidth="1"/>
-    <col min="263" max="263" width="4.296875" style="1" customWidth="1"/>
-    <col min="264" max="264" width="3.09765625" style="1" customWidth="1"/>
-    <col min="265" max="265" width="12.59765625" style="1" customWidth="1"/>
-    <col min="266" max="266" width="5.3984375" style="1" customWidth="1"/>
-    <col min="267" max="267" width="2.69921875" style="1" customWidth="1"/>
-    <col min="268" max="269" width="8.09765625" style="1"/>
-    <col min="270" max="270" width="11.19921875" style="1" customWidth="1"/>
-    <col min="271" max="271" width="2.8984375" style="1" customWidth="1"/>
-    <col min="272" max="512" width="8.09765625" style="1"/>
-    <col min="513" max="513" width="1.69921875" style="1" customWidth="1"/>
-    <col min="514" max="514" width="12.09765625" style="1" customWidth="1"/>
+    <col min="260" max="260" width="7.625" style="1" customWidth="1"/>
+    <col min="261" max="261" width="5.375" style="1" customWidth="1"/>
+    <col min="262" max="262" width="10.625" style="1" customWidth="1"/>
+    <col min="263" max="263" width="4.25" style="1" customWidth="1"/>
+    <col min="264" max="264" width="3.125" style="1" customWidth="1"/>
+    <col min="265" max="265" width="12.625" style="1" customWidth="1"/>
+    <col min="266" max="266" width="5.375" style="1" customWidth="1"/>
+    <col min="267" max="267" width="2.75" style="1" customWidth="1"/>
+    <col min="268" max="269" width="8.125" style="1"/>
+    <col min="270" max="270" width="11.25" style="1" customWidth="1"/>
+    <col min="271" max="271" width="2.875" style="1" customWidth="1"/>
+    <col min="272" max="512" width="8.125" style="1"/>
+    <col min="513" max="513" width="1.75" style="1" customWidth="1"/>
+    <col min="514" max="514" width="12.125" style="1" customWidth="1"/>
     <col min="515" max="515" width="17" style="1" customWidth="1"/>
-    <col min="516" max="516" width="7.59765625" style="1" customWidth="1"/>
-    <col min="517" max="517" width="5.3984375" style="1" customWidth="1"/>
-    <col min="518" max="518" width="10.59765625" style="1" customWidth="1"/>
-    <col min="519" max="519" width="4.296875" style="1" customWidth="1"/>
-    <col min="520" max="520" width="3.09765625" style="1" customWidth="1"/>
-    <col min="521" max="521" width="12.59765625" style="1" customWidth="1"/>
-    <col min="522" max="522" width="5.3984375" style="1" customWidth="1"/>
-    <col min="523" max="523" width="2.69921875" style="1" customWidth="1"/>
-    <col min="524" max="525" width="8.09765625" style="1"/>
-    <col min="526" max="526" width="11.19921875" style="1" customWidth="1"/>
-    <col min="527" max="527" width="2.8984375" style="1" customWidth="1"/>
-    <col min="528" max="768" width="8.09765625" style="1"/>
-    <col min="769" max="769" width="1.69921875" style="1" customWidth="1"/>
-    <col min="770" max="770" width="12.09765625" style="1" customWidth="1"/>
+    <col min="516" max="516" width="7.625" style="1" customWidth="1"/>
+    <col min="517" max="517" width="5.375" style="1" customWidth="1"/>
+    <col min="518" max="518" width="10.625" style="1" customWidth="1"/>
+    <col min="519" max="519" width="4.25" style="1" customWidth="1"/>
+    <col min="520" max="520" width="3.125" style="1" customWidth="1"/>
+    <col min="521" max="521" width="12.625" style="1" customWidth="1"/>
+    <col min="522" max="522" width="5.375" style="1" customWidth="1"/>
+    <col min="523" max="523" width="2.75" style="1" customWidth="1"/>
+    <col min="524" max="525" width="8.125" style="1"/>
+    <col min="526" max="526" width="11.25" style="1" customWidth="1"/>
+    <col min="527" max="527" width="2.875" style="1" customWidth="1"/>
+    <col min="528" max="768" width="8.125" style="1"/>
+    <col min="769" max="769" width="1.75" style="1" customWidth="1"/>
+    <col min="770" max="770" width="12.125" style="1" customWidth="1"/>
     <col min="771" max="771" width="17" style="1" customWidth="1"/>
-    <col min="772" max="772" width="7.59765625" style="1" customWidth="1"/>
-    <col min="773" max="773" width="5.3984375" style="1" customWidth="1"/>
-    <col min="774" max="774" width="10.59765625" style="1" customWidth="1"/>
-    <col min="775" max="775" width="4.296875" style="1" customWidth="1"/>
-    <col min="776" max="776" width="3.09765625" style="1" customWidth="1"/>
-    <col min="777" max="777" width="12.59765625" style="1" customWidth="1"/>
-    <col min="778" max="778" width="5.3984375" style="1" customWidth="1"/>
-    <col min="779" max="779" width="2.69921875" style="1" customWidth="1"/>
-    <col min="780" max="781" width="8.09765625" style="1"/>
-    <col min="782" max="782" width="11.19921875" style="1" customWidth="1"/>
-    <col min="783" max="783" width="2.8984375" style="1" customWidth="1"/>
-    <col min="784" max="1024" width="8.09765625" style="1"/>
-    <col min="1025" max="1025" width="1.69921875" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="12.09765625" style="1" customWidth="1"/>
+    <col min="772" max="772" width="7.625" style="1" customWidth="1"/>
+    <col min="773" max="773" width="5.375" style="1" customWidth="1"/>
+    <col min="774" max="774" width="10.625" style="1" customWidth="1"/>
+    <col min="775" max="775" width="4.25" style="1" customWidth="1"/>
+    <col min="776" max="776" width="3.125" style="1" customWidth="1"/>
+    <col min="777" max="777" width="12.625" style="1" customWidth="1"/>
+    <col min="778" max="778" width="5.375" style="1" customWidth="1"/>
+    <col min="779" max="779" width="2.75" style="1" customWidth="1"/>
+    <col min="780" max="781" width="8.125" style="1"/>
+    <col min="782" max="782" width="11.25" style="1" customWidth="1"/>
+    <col min="783" max="783" width="2.875" style="1" customWidth="1"/>
+    <col min="784" max="1024" width="8.125" style="1"/>
+    <col min="1025" max="1025" width="1.75" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="12.125" style="1" customWidth="1"/>
     <col min="1027" max="1027" width="17" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="7.59765625" style="1" customWidth="1"/>
-    <col min="1029" max="1029" width="5.3984375" style="1" customWidth="1"/>
-    <col min="1030" max="1030" width="10.59765625" style="1" customWidth="1"/>
-    <col min="1031" max="1031" width="4.296875" style="1" customWidth="1"/>
-    <col min="1032" max="1032" width="3.09765625" style="1" customWidth="1"/>
-    <col min="1033" max="1033" width="12.59765625" style="1" customWidth="1"/>
-    <col min="1034" max="1034" width="5.3984375" style="1" customWidth="1"/>
-    <col min="1035" max="1035" width="2.69921875" style="1" customWidth="1"/>
-    <col min="1036" max="1037" width="8.09765625" style="1"/>
-    <col min="1038" max="1038" width="11.19921875" style="1" customWidth="1"/>
-    <col min="1039" max="1039" width="2.8984375" style="1" customWidth="1"/>
-    <col min="1040" max="1280" width="8.09765625" style="1"/>
-    <col min="1281" max="1281" width="1.69921875" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="12.09765625" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="7.625" style="1" customWidth="1"/>
+    <col min="1029" max="1029" width="5.375" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="10.625" style="1" customWidth="1"/>
+    <col min="1031" max="1031" width="4.25" style="1" customWidth="1"/>
+    <col min="1032" max="1032" width="3.125" style="1" customWidth="1"/>
+    <col min="1033" max="1033" width="12.625" style="1" customWidth="1"/>
+    <col min="1034" max="1034" width="5.375" style="1" customWidth="1"/>
+    <col min="1035" max="1035" width="2.75" style="1" customWidth="1"/>
+    <col min="1036" max="1037" width="8.125" style="1"/>
+    <col min="1038" max="1038" width="11.25" style="1" customWidth="1"/>
+    <col min="1039" max="1039" width="2.875" style="1" customWidth="1"/>
+    <col min="1040" max="1280" width="8.125" style="1"/>
+    <col min="1281" max="1281" width="1.75" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="12.125" style="1" customWidth="1"/>
     <col min="1283" max="1283" width="17" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="7.59765625" style="1" customWidth="1"/>
-    <col min="1285" max="1285" width="5.3984375" style="1" customWidth="1"/>
-    <col min="1286" max="1286" width="10.59765625" style="1" customWidth="1"/>
-    <col min="1287" max="1287" width="4.296875" style="1" customWidth="1"/>
-    <col min="1288" max="1288" width="3.09765625" style="1" customWidth="1"/>
-    <col min="1289" max="1289" width="12.59765625" style="1" customWidth="1"/>
-    <col min="1290" max="1290" width="5.3984375" style="1" customWidth="1"/>
-    <col min="1291" max="1291" width="2.69921875" style="1" customWidth="1"/>
-    <col min="1292" max="1293" width="8.09765625" style="1"/>
-    <col min="1294" max="1294" width="11.19921875" style="1" customWidth="1"/>
-    <col min="1295" max="1295" width="2.8984375" style="1" customWidth="1"/>
-    <col min="1296" max="1536" width="8.09765625" style="1"/>
-    <col min="1537" max="1537" width="1.69921875" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="12.09765625" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="7.625" style="1" customWidth="1"/>
+    <col min="1285" max="1285" width="5.375" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="10.625" style="1" customWidth="1"/>
+    <col min="1287" max="1287" width="4.25" style="1" customWidth="1"/>
+    <col min="1288" max="1288" width="3.125" style="1" customWidth="1"/>
+    <col min="1289" max="1289" width="12.625" style="1" customWidth="1"/>
+    <col min="1290" max="1290" width="5.375" style="1" customWidth="1"/>
+    <col min="1291" max="1291" width="2.75" style="1" customWidth="1"/>
+    <col min="1292" max="1293" width="8.125" style="1"/>
+    <col min="1294" max="1294" width="11.25" style="1" customWidth="1"/>
+    <col min="1295" max="1295" width="2.875" style="1" customWidth="1"/>
+    <col min="1296" max="1536" width="8.125" style="1"/>
+    <col min="1537" max="1537" width="1.75" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="12.125" style="1" customWidth="1"/>
     <col min="1539" max="1539" width="17" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="7.59765625" style="1" customWidth="1"/>
-    <col min="1541" max="1541" width="5.3984375" style="1" customWidth="1"/>
-    <col min="1542" max="1542" width="10.59765625" style="1" customWidth="1"/>
-    <col min="1543" max="1543" width="4.296875" style="1" customWidth="1"/>
-    <col min="1544" max="1544" width="3.09765625" style="1" customWidth="1"/>
-    <col min="1545" max="1545" width="12.59765625" style="1" customWidth="1"/>
-    <col min="1546" max="1546" width="5.3984375" style="1" customWidth="1"/>
-    <col min="1547" max="1547" width="2.69921875" style="1" customWidth="1"/>
-    <col min="1548" max="1549" width="8.09765625" style="1"/>
-    <col min="1550" max="1550" width="11.19921875" style="1" customWidth="1"/>
-    <col min="1551" max="1551" width="2.8984375" style="1" customWidth="1"/>
-    <col min="1552" max="1792" width="8.09765625" style="1"/>
-    <col min="1793" max="1793" width="1.69921875" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="12.09765625" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="7.625" style="1" customWidth="1"/>
+    <col min="1541" max="1541" width="5.375" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="10.625" style="1" customWidth="1"/>
+    <col min="1543" max="1543" width="4.25" style="1" customWidth="1"/>
+    <col min="1544" max="1544" width="3.125" style="1" customWidth="1"/>
+    <col min="1545" max="1545" width="12.625" style="1" customWidth="1"/>
+    <col min="1546" max="1546" width="5.375" style="1" customWidth="1"/>
+    <col min="1547" max="1547" width="2.75" style="1" customWidth="1"/>
+    <col min="1548" max="1549" width="8.125" style="1"/>
+    <col min="1550" max="1550" width="11.25" style="1" customWidth="1"/>
+    <col min="1551" max="1551" width="2.875" style="1" customWidth="1"/>
+    <col min="1552" max="1792" width="8.125" style="1"/>
+    <col min="1793" max="1793" width="1.75" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="12.125" style="1" customWidth="1"/>
     <col min="1795" max="1795" width="17" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="7.59765625" style="1" customWidth="1"/>
-    <col min="1797" max="1797" width="5.3984375" style="1" customWidth="1"/>
-    <col min="1798" max="1798" width="10.59765625" style="1" customWidth="1"/>
-    <col min="1799" max="1799" width="4.296875" style="1" customWidth="1"/>
-    <col min="1800" max="1800" width="3.09765625" style="1" customWidth="1"/>
-    <col min="1801" max="1801" width="12.59765625" style="1" customWidth="1"/>
-    <col min="1802" max="1802" width="5.3984375" style="1" customWidth="1"/>
-    <col min="1803" max="1803" width="2.69921875" style="1" customWidth="1"/>
-    <col min="1804" max="1805" width="8.09765625" style="1"/>
-    <col min="1806" max="1806" width="11.19921875" style="1" customWidth="1"/>
-    <col min="1807" max="1807" width="2.8984375" style="1" customWidth="1"/>
-    <col min="1808" max="2048" width="8.09765625" style="1"/>
-    <col min="2049" max="2049" width="1.69921875" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="12.09765625" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="7.625" style="1" customWidth="1"/>
+    <col min="1797" max="1797" width="5.375" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="10.625" style="1" customWidth="1"/>
+    <col min="1799" max="1799" width="4.25" style="1" customWidth="1"/>
+    <col min="1800" max="1800" width="3.125" style="1" customWidth="1"/>
+    <col min="1801" max="1801" width="12.625" style="1" customWidth="1"/>
+    <col min="1802" max="1802" width="5.375" style="1" customWidth="1"/>
+    <col min="1803" max="1803" width="2.75" style="1" customWidth="1"/>
+    <col min="1804" max="1805" width="8.125" style="1"/>
+    <col min="1806" max="1806" width="11.25" style="1" customWidth="1"/>
+    <col min="1807" max="1807" width="2.875" style="1" customWidth="1"/>
+    <col min="1808" max="2048" width="8.125" style="1"/>
+    <col min="2049" max="2049" width="1.75" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="12.125" style="1" customWidth="1"/>
     <col min="2051" max="2051" width="17" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="7.59765625" style="1" customWidth="1"/>
-    <col min="2053" max="2053" width="5.3984375" style="1" customWidth="1"/>
-    <col min="2054" max="2054" width="10.59765625" style="1" customWidth="1"/>
-    <col min="2055" max="2055" width="4.296875" style="1" customWidth="1"/>
-    <col min="2056" max="2056" width="3.09765625" style="1" customWidth="1"/>
-    <col min="2057" max="2057" width="12.59765625" style="1" customWidth="1"/>
-    <col min="2058" max="2058" width="5.3984375" style="1" customWidth="1"/>
-    <col min="2059" max="2059" width="2.69921875" style="1" customWidth="1"/>
-    <col min="2060" max="2061" width="8.09765625" style="1"/>
-    <col min="2062" max="2062" width="11.19921875" style="1" customWidth="1"/>
-    <col min="2063" max="2063" width="2.8984375" style="1" customWidth="1"/>
-    <col min="2064" max="2304" width="8.09765625" style="1"/>
-    <col min="2305" max="2305" width="1.69921875" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="12.09765625" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="7.625" style="1" customWidth="1"/>
+    <col min="2053" max="2053" width="5.375" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="10.625" style="1" customWidth="1"/>
+    <col min="2055" max="2055" width="4.25" style="1" customWidth="1"/>
+    <col min="2056" max="2056" width="3.125" style="1" customWidth="1"/>
+    <col min="2057" max="2057" width="12.625" style="1" customWidth="1"/>
+    <col min="2058" max="2058" width="5.375" style="1" customWidth="1"/>
+    <col min="2059" max="2059" width="2.75" style="1" customWidth="1"/>
+    <col min="2060" max="2061" width="8.125" style="1"/>
+    <col min="2062" max="2062" width="11.25" style="1" customWidth="1"/>
+    <col min="2063" max="2063" width="2.875" style="1" customWidth="1"/>
+    <col min="2064" max="2304" width="8.125" style="1"/>
+    <col min="2305" max="2305" width="1.75" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="12.125" style="1" customWidth="1"/>
     <col min="2307" max="2307" width="17" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="7.59765625" style="1" customWidth="1"/>
-    <col min="2309" max="2309" width="5.3984375" style="1" customWidth="1"/>
-    <col min="2310" max="2310" width="10.59765625" style="1" customWidth="1"/>
-    <col min="2311" max="2311" width="4.296875" style="1" customWidth="1"/>
-    <col min="2312" max="2312" width="3.09765625" style="1" customWidth="1"/>
-    <col min="2313" max="2313" width="12.59765625" style="1" customWidth="1"/>
-    <col min="2314" max="2314" width="5.3984375" style="1" customWidth="1"/>
-    <col min="2315" max="2315" width="2.69921875" style="1" customWidth="1"/>
-    <col min="2316" max="2317" width="8.09765625" style="1"/>
-    <col min="2318" max="2318" width="11.19921875" style="1" customWidth="1"/>
-    <col min="2319" max="2319" width="2.8984375" style="1" customWidth="1"/>
-    <col min="2320" max="2560" width="8.09765625" style="1"/>
-    <col min="2561" max="2561" width="1.69921875" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="12.09765625" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="7.625" style="1" customWidth="1"/>
+    <col min="2309" max="2309" width="5.375" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="10.625" style="1" customWidth="1"/>
+    <col min="2311" max="2311" width="4.25" style="1" customWidth="1"/>
+    <col min="2312" max="2312" width="3.125" style="1" customWidth="1"/>
+    <col min="2313" max="2313" width="12.625" style="1" customWidth="1"/>
+    <col min="2314" max="2314" width="5.375" style="1" customWidth="1"/>
+    <col min="2315" max="2315" width="2.75" style="1" customWidth="1"/>
+    <col min="2316" max="2317" width="8.125" style="1"/>
+    <col min="2318" max="2318" width="11.25" style="1" customWidth="1"/>
+    <col min="2319" max="2319" width="2.875" style="1" customWidth="1"/>
+    <col min="2320" max="2560" width="8.125" style="1"/>
+    <col min="2561" max="2561" width="1.75" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="12.125" style="1" customWidth="1"/>
     <col min="2563" max="2563" width="17" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="7.59765625" style="1" customWidth="1"/>
-    <col min="2565" max="2565" width="5.3984375" style="1" customWidth="1"/>
-    <col min="2566" max="2566" width="10.59765625" style="1" customWidth="1"/>
-    <col min="2567" max="2567" width="4.296875" style="1" customWidth="1"/>
-    <col min="2568" max="2568" width="3.09765625" style="1" customWidth="1"/>
-    <col min="2569" max="2569" width="12.59765625" style="1" customWidth="1"/>
-    <col min="2570" max="2570" width="5.3984375" style="1" customWidth="1"/>
-    <col min="2571" max="2571" width="2.69921875" style="1" customWidth="1"/>
-    <col min="2572" max="2573" width="8.09765625" style="1"/>
-    <col min="2574" max="2574" width="11.19921875" style="1" customWidth="1"/>
-    <col min="2575" max="2575" width="2.8984375" style="1" customWidth="1"/>
-    <col min="2576" max="2816" width="8.09765625" style="1"/>
-    <col min="2817" max="2817" width="1.69921875" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="12.09765625" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="7.625" style="1" customWidth="1"/>
+    <col min="2565" max="2565" width="5.375" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="10.625" style="1" customWidth="1"/>
+    <col min="2567" max="2567" width="4.25" style="1" customWidth="1"/>
+    <col min="2568" max="2568" width="3.125" style="1" customWidth="1"/>
+    <col min="2569" max="2569" width="12.625" style="1" customWidth="1"/>
+    <col min="2570" max="2570" width="5.375" style="1" customWidth="1"/>
+    <col min="2571" max="2571" width="2.75" style="1" customWidth="1"/>
+    <col min="2572" max="2573" width="8.125" style="1"/>
+    <col min="2574" max="2574" width="11.25" style="1" customWidth="1"/>
+    <col min="2575" max="2575" width="2.875" style="1" customWidth="1"/>
+    <col min="2576" max="2816" width="8.125" style="1"/>
+    <col min="2817" max="2817" width="1.75" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="12.125" style="1" customWidth="1"/>
     <col min="2819" max="2819" width="17" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="7.59765625" style="1" customWidth="1"/>
-    <col min="2821" max="2821" width="5.3984375" style="1" customWidth="1"/>
-    <col min="2822" max="2822" width="10.59765625" style="1" customWidth="1"/>
-    <col min="2823" max="2823" width="4.296875" style="1" customWidth="1"/>
-    <col min="2824" max="2824" width="3.09765625" style="1" customWidth="1"/>
-    <col min="2825" max="2825" width="12.59765625" style="1" customWidth="1"/>
-    <col min="2826" max="2826" width="5.3984375" style="1" customWidth="1"/>
-    <col min="2827" max="2827" width="2.69921875" style="1" customWidth="1"/>
-    <col min="2828" max="2829" width="8.09765625" style="1"/>
-    <col min="2830" max="2830" width="11.19921875" style="1" customWidth="1"/>
-    <col min="2831" max="2831" width="2.8984375" style="1" customWidth="1"/>
-    <col min="2832" max="3072" width="8.09765625" style="1"/>
-    <col min="3073" max="3073" width="1.69921875" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="12.09765625" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="7.625" style="1" customWidth="1"/>
+    <col min="2821" max="2821" width="5.375" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="10.625" style="1" customWidth="1"/>
+    <col min="2823" max="2823" width="4.25" style="1" customWidth="1"/>
+    <col min="2824" max="2824" width="3.125" style="1" customWidth="1"/>
+    <col min="2825" max="2825" width="12.625" style="1" customWidth="1"/>
+    <col min="2826" max="2826" width="5.375" style="1" customWidth="1"/>
+    <col min="2827" max="2827" width="2.75" style="1" customWidth="1"/>
+    <col min="2828" max="2829" width="8.125" style="1"/>
+    <col min="2830" max="2830" width="11.25" style="1" customWidth="1"/>
+    <col min="2831" max="2831" width="2.875" style="1" customWidth="1"/>
+    <col min="2832" max="3072" width="8.125" style="1"/>
+    <col min="3073" max="3073" width="1.75" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="12.125" style="1" customWidth="1"/>
     <col min="3075" max="3075" width="17" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="7.59765625" style="1" customWidth="1"/>
-    <col min="3077" max="3077" width="5.3984375" style="1" customWidth="1"/>
-    <col min="3078" max="3078" width="10.59765625" style="1" customWidth="1"/>
-    <col min="3079" max="3079" width="4.296875" style="1" customWidth="1"/>
-    <col min="3080" max="3080" width="3.09765625" style="1" customWidth="1"/>
-    <col min="3081" max="3081" width="12.59765625" style="1" customWidth="1"/>
-    <col min="3082" max="3082" width="5.3984375" style="1" customWidth="1"/>
-    <col min="3083" max="3083" width="2.69921875" style="1" customWidth="1"/>
-    <col min="3084" max="3085" width="8.09765625" style="1"/>
-    <col min="3086" max="3086" width="11.19921875" style="1" customWidth="1"/>
-    <col min="3087" max="3087" width="2.8984375" style="1" customWidth="1"/>
-    <col min="3088" max="3328" width="8.09765625" style="1"/>
-    <col min="3329" max="3329" width="1.69921875" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="12.09765625" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="7.625" style="1" customWidth="1"/>
+    <col min="3077" max="3077" width="5.375" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="10.625" style="1" customWidth="1"/>
+    <col min="3079" max="3079" width="4.25" style="1" customWidth="1"/>
+    <col min="3080" max="3080" width="3.125" style="1" customWidth="1"/>
+    <col min="3081" max="3081" width="12.625" style="1" customWidth="1"/>
+    <col min="3082" max="3082" width="5.375" style="1" customWidth="1"/>
+    <col min="3083" max="3083" width="2.75" style="1" customWidth="1"/>
+    <col min="3084" max="3085" width="8.125" style="1"/>
+    <col min="3086" max="3086" width="11.25" style="1" customWidth="1"/>
+    <col min="3087" max="3087" width="2.875" style="1" customWidth="1"/>
+    <col min="3088" max="3328" width="8.125" style="1"/>
+    <col min="3329" max="3329" width="1.75" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="12.125" style="1" customWidth="1"/>
     <col min="3331" max="3331" width="17" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="7.59765625" style="1" customWidth="1"/>
-    <col min="3333" max="3333" width="5.3984375" style="1" customWidth="1"/>
-    <col min="3334" max="3334" width="10.59765625" style="1" customWidth="1"/>
-    <col min="3335" max="3335" width="4.296875" style="1" customWidth="1"/>
-    <col min="3336" max="3336" width="3.09765625" style="1" customWidth="1"/>
-    <col min="3337" max="3337" width="12.59765625" style="1" customWidth="1"/>
-    <col min="3338" max="3338" width="5.3984375" style="1" customWidth="1"/>
-    <col min="3339" max="3339" width="2.69921875" style="1" customWidth="1"/>
-    <col min="3340" max="3341" width="8.09765625" style="1"/>
-    <col min="3342" max="3342" width="11.19921875" style="1" customWidth="1"/>
-    <col min="3343" max="3343" width="2.8984375" style="1" customWidth="1"/>
-    <col min="3344" max="3584" width="8.09765625" style="1"/>
-    <col min="3585" max="3585" width="1.69921875" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="12.09765625" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="7.625" style="1" customWidth="1"/>
+    <col min="3333" max="3333" width="5.375" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="10.625" style="1" customWidth="1"/>
+    <col min="3335" max="3335" width="4.25" style="1" customWidth="1"/>
+    <col min="3336" max="3336" width="3.125" style="1" customWidth="1"/>
+    <col min="3337" max="3337" width="12.625" style="1" customWidth="1"/>
+    <col min="3338" max="3338" width="5.375" style="1" customWidth="1"/>
+    <col min="3339" max="3339" width="2.75" style="1" customWidth="1"/>
+    <col min="3340" max="3341" width="8.125" style="1"/>
+    <col min="3342" max="3342" width="11.25" style="1" customWidth="1"/>
+    <col min="3343" max="3343" width="2.875" style="1" customWidth="1"/>
+    <col min="3344" max="3584" width="8.125" style="1"/>
+    <col min="3585" max="3585" width="1.75" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="12.125" style="1" customWidth="1"/>
     <col min="3587" max="3587" width="17" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="7.59765625" style="1" customWidth="1"/>
-    <col min="3589" max="3589" width="5.3984375" style="1" customWidth="1"/>
-    <col min="3590" max="3590" width="10.59765625" style="1" customWidth="1"/>
-    <col min="3591" max="3591" width="4.296875" style="1" customWidth="1"/>
-    <col min="3592" max="3592" width="3.09765625" style="1" customWidth="1"/>
-    <col min="3593" max="3593" width="12.59765625" style="1" customWidth="1"/>
-    <col min="3594" max="3594" width="5.3984375" style="1" customWidth="1"/>
-    <col min="3595" max="3595" width="2.69921875" style="1" customWidth="1"/>
-    <col min="3596" max="3597" width="8.09765625" style="1"/>
-    <col min="3598" max="3598" width="11.19921875" style="1" customWidth="1"/>
-    <col min="3599" max="3599" width="2.8984375" style="1" customWidth="1"/>
-    <col min="3600" max="3840" width="8.09765625" style="1"/>
-    <col min="3841" max="3841" width="1.69921875" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="12.09765625" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="7.625" style="1" customWidth="1"/>
+    <col min="3589" max="3589" width="5.375" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="10.625" style="1" customWidth="1"/>
+    <col min="3591" max="3591" width="4.25" style="1" customWidth="1"/>
+    <col min="3592" max="3592" width="3.125" style="1" customWidth="1"/>
+    <col min="3593" max="3593" width="12.625" style="1" customWidth="1"/>
+    <col min="3594" max="3594" width="5.375" style="1" customWidth="1"/>
+    <col min="3595" max="3595" width="2.75" style="1" customWidth="1"/>
+    <col min="3596" max="3597" width="8.125" style="1"/>
+    <col min="3598" max="3598" width="11.25" style="1" customWidth="1"/>
+    <col min="3599" max="3599" width="2.875" style="1" customWidth="1"/>
+    <col min="3600" max="3840" width="8.125" style="1"/>
+    <col min="3841" max="3841" width="1.75" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="12.125" style="1" customWidth="1"/>
     <col min="3843" max="3843" width="17" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="7.59765625" style="1" customWidth="1"/>
-    <col min="3845" max="3845" width="5.3984375" style="1" customWidth="1"/>
-    <col min="3846" max="3846" width="10.59765625" style="1" customWidth="1"/>
-    <col min="3847" max="3847" width="4.296875" style="1" customWidth="1"/>
-    <col min="3848" max="3848" width="3.09765625" style="1" customWidth="1"/>
-    <col min="3849" max="3849" width="12.59765625" style="1" customWidth="1"/>
-    <col min="3850" max="3850" width="5.3984375" style="1" customWidth="1"/>
-    <col min="3851" max="3851" width="2.69921875" style="1" customWidth="1"/>
-    <col min="3852" max="3853" width="8.09765625" style="1"/>
-    <col min="3854" max="3854" width="11.19921875" style="1" customWidth="1"/>
-    <col min="3855" max="3855" width="2.8984375" style="1" customWidth="1"/>
-    <col min="3856" max="4096" width="8.09765625" style="1"/>
-    <col min="4097" max="4097" width="1.69921875" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="12.09765625" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="7.625" style="1" customWidth="1"/>
+    <col min="3845" max="3845" width="5.375" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="10.625" style="1" customWidth="1"/>
+    <col min="3847" max="3847" width="4.25" style="1" customWidth="1"/>
+    <col min="3848" max="3848" width="3.125" style="1" customWidth="1"/>
+    <col min="3849" max="3849" width="12.625" style="1" customWidth="1"/>
+    <col min="3850" max="3850" width="5.375" style="1" customWidth="1"/>
+    <col min="3851" max="3851" width="2.75" style="1" customWidth="1"/>
+    <col min="3852" max="3853" width="8.125" style="1"/>
+    <col min="3854" max="3854" width="11.25" style="1" customWidth="1"/>
+    <col min="3855" max="3855" width="2.875" style="1" customWidth="1"/>
+    <col min="3856" max="4096" width="8.125" style="1"/>
+    <col min="4097" max="4097" width="1.75" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="12.125" style="1" customWidth="1"/>
     <col min="4099" max="4099" width="17" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="7.59765625" style="1" customWidth="1"/>
-    <col min="4101" max="4101" width="5.3984375" style="1" customWidth="1"/>
-    <col min="4102" max="4102" width="10.59765625" style="1" customWidth="1"/>
-    <col min="4103" max="4103" width="4.296875" style="1" customWidth="1"/>
-    <col min="4104" max="4104" width="3.09765625" style="1" customWidth="1"/>
-    <col min="4105" max="4105" width="12.59765625" style="1" customWidth="1"/>
-    <col min="4106" max="4106" width="5.3984375" style="1" customWidth="1"/>
-    <col min="4107" max="4107" width="2.69921875" style="1" customWidth="1"/>
-    <col min="4108" max="4109" width="8.09765625" style="1"/>
-    <col min="4110" max="4110" width="11.19921875" style="1" customWidth="1"/>
-    <col min="4111" max="4111" width="2.8984375" style="1" customWidth="1"/>
-    <col min="4112" max="4352" width="8.09765625" style="1"/>
-    <col min="4353" max="4353" width="1.69921875" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="12.09765625" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="7.625" style="1" customWidth="1"/>
+    <col min="4101" max="4101" width="5.375" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="10.625" style="1" customWidth="1"/>
+    <col min="4103" max="4103" width="4.25" style="1" customWidth="1"/>
+    <col min="4104" max="4104" width="3.125" style="1" customWidth="1"/>
+    <col min="4105" max="4105" width="12.625" style="1" customWidth="1"/>
+    <col min="4106" max="4106" width="5.375" style="1" customWidth="1"/>
+    <col min="4107" max="4107" width="2.75" style="1" customWidth="1"/>
+    <col min="4108" max="4109" width="8.125" style="1"/>
+    <col min="4110" max="4110" width="11.25" style="1" customWidth="1"/>
+    <col min="4111" max="4111" width="2.875" style="1" customWidth="1"/>
+    <col min="4112" max="4352" width="8.125" style="1"/>
+    <col min="4353" max="4353" width="1.75" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="12.125" style="1" customWidth="1"/>
     <col min="4355" max="4355" width="17" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="7.59765625" style="1" customWidth="1"/>
-    <col min="4357" max="4357" width="5.3984375" style="1" customWidth="1"/>
-    <col min="4358" max="4358" width="10.59765625" style="1" customWidth="1"/>
-    <col min="4359" max="4359" width="4.296875" style="1" customWidth="1"/>
-    <col min="4360" max="4360" width="3.09765625" style="1" customWidth="1"/>
-    <col min="4361" max="4361" width="12.59765625" style="1" customWidth="1"/>
-    <col min="4362" max="4362" width="5.3984375" style="1" customWidth="1"/>
-    <col min="4363" max="4363" width="2.69921875" style="1" customWidth="1"/>
-    <col min="4364" max="4365" width="8.09765625" style="1"/>
-    <col min="4366" max="4366" width="11.19921875" style="1" customWidth="1"/>
-    <col min="4367" max="4367" width="2.8984375" style="1" customWidth="1"/>
-    <col min="4368" max="4608" width="8.09765625" style="1"/>
-    <col min="4609" max="4609" width="1.69921875" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="12.09765625" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="7.625" style="1" customWidth="1"/>
+    <col min="4357" max="4357" width="5.375" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="10.625" style="1" customWidth="1"/>
+    <col min="4359" max="4359" width="4.25" style="1" customWidth="1"/>
+    <col min="4360" max="4360" width="3.125" style="1" customWidth="1"/>
+    <col min="4361" max="4361" width="12.625" style="1" customWidth="1"/>
+    <col min="4362" max="4362" width="5.375" style="1" customWidth="1"/>
+    <col min="4363" max="4363" width="2.75" style="1" customWidth="1"/>
+    <col min="4364" max="4365" width="8.125" style="1"/>
+    <col min="4366" max="4366" width="11.25" style="1" customWidth="1"/>
+    <col min="4367" max="4367" width="2.875" style="1" customWidth="1"/>
+    <col min="4368" max="4608" width="8.125" style="1"/>
+    <col min="4609" max="4609" width="1.75" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="12.125" style="1" customWidth="1"/>
     <col min="4611" max="4611" width="17" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="7.59765625" style="1" customWidth="1"/>
-    <col min="4613" max="4613" width="5.3984375" style="1" customWidth="1"/>
-    <col min="4614" max="4614" width="10.59765625" style="1" customWidth="1"/>
-    <col min="4615" max="4615" width="4.296875" style="1" customWidth="1"/>
-    <col min="4616" max="4616" width="3.09765625" style="1" customWidth="1"/>
-    <col min="4617" max="4617" width="12.59765625" style="1" customWidth="1"/>
-    <col min="4618" max="4618" width="5.3984375" style="1" customWidth="1"/>
-    <col min="4619" max="4619" width="2.69921875" style="1" customWidth="1"/>
-    <col min="4620" max="4621" width="8.09765625" style="1"/>
-    <col min="4622" max="4622" width="11.19921875" style="1" customWidth="1"/>
-    <col min="4623" max="4623" width="2.8984375" style="1" customWidth="1"/>
-    <col min="4624" max="4864" width="8.09765625" style="1"/>
-    <col min="4865" max="4865" width="1.69921875" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="12.09765625" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="7.625" style="1" customWidth="1"/>
+    <col min="4613" max="4613" width="5.375" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="10.625" style="1" customWidth="1"/>
+    <col min="4615" max="4615" width="4.25" style="1" customWidth="1"/>
+    <col min="4616" max="4616" width="3.125" style="1" customWidth="1"/>
+    <col min="4617" max="4617" width="12.625" style="1" customWidth="1"/>
+    <col min="4618" max="4618" width="5.375" style="1" customWidth="1"/>
+    <col min="4619" max="4619" width="2.75" style="1" customWidth="1"/>
+    <col min="4620" max="4621" width="8.125" style="1"/>
+    <col min="4622" max="4622" width="11.25" style="1" customWidth="1"/>
+    <col min="4623" max="4623" width="2.875" style="1" customWidth="1"/>
+    <col min="4624" max="4864" width="8.125" style="1"/>
+    <col min="4865" max="4865" width="1.75" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="12.125" style="1" customWidth="1"/>
     <col min="4867" max="4867" width="17" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="7.59765625" style="1" customWidth="1"/>
-    <col min="4869" max="4869" width="5.3984375" style="1" customWidth="1"/>
-    <col min="4870" max="4870" width="10.59765625" style="1" customWidth="1"/>
-    <col min="4871" max="4871" width="4.296875" style="1" customWidth="1"/>
-    <col min="4872" max="4872" width="3.09765625" style="1" customWidth="1"/>
-    <col min="4873" max="4873" width="12.59765625" style="1" customWidth="1"/>
-    <col min="4874" max="4874" width="5.3984375" style="1" customWidth="1"/>
-    <col min="4875" max="4875" width="2.69921875" style="1" customWidth="1"/>
-    <col min="4876" max="4877" width="8.09765625" style="1"/>
-    <col min="4878" max="4878" width="11.19921875" style="1" customWidth="1"/>
-    <col min="4879" max="4879" width="2.8984375" style="1" customWidth="1"/>
-    <col min="4880" max="5120" width="8.09765625" style="1"/>
-    <col min="5121" max="5121" width="1.69921875" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="12.09765625" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="7.625" style="1" customWidth="1"/>
+    <col min="4869" max="4869" width="5.375" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="10.625" style="1" customWidth="1"/>
+    <col min="4871" max="4871" width="4.25" style="1" customWidth="1"/>
+    <col min="4872" max="4872" width="3.125" style="1" customWidth="1"/>
+    <col min="4873" max="4873" width="12.625" style="1" customWidth="1"/>
+    <col min="4874" max="4874" width="5.375" style="1" customWidth="1"/>
+    <col min="4875" max="4875" width="2.75" style="1" customWidth="1"/>
+    <col min="4876" max="4877" width="8.125" style="1"/>
+    <col min="4878" max="4878" width="11.25" style="1" customWidth="1"/>
+    <col min="4879" max="4879" width="2.875" style="1" customWidth="1"/>
+    <col min="4880" max="5120" width="8.125" style="1"/>
+    <col min="5121" max="5121" width="1.75" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="12.125" style="1" customWidth="1"/>
     <col min="5123" max="5123" width="17" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="7.59765625" style="1" customWidth="1"/>
-    <col min="5125" max="5125" width="5.3984375" style="1" customWidth="1"/>
-    <col min="5126" max="5126" width="10.59765625" style="1" customWidth="1"/>
-    <col min="5127" max="5127" width="4.296875" style="1" customWidth="1"/>
-    <col min="5128" max="5128" width="3.09765625" style="1" customWidth="1"/>
-    <col min="5129" max="5129" width="12.59765625" style="1" customWidth="1"/>
-    <col min="5130" max="5130" width="5.3984375" style="1" customWidth="1"/>
-    <col min="5131" max="5131" width="2.69921875" style="1" customWidth="1"/>
-    <col min="5132" max="5133" width="8.09765625" style="1"/>
-    <col min="5134" max="5134" width="11.19921875" style="1" customWidth="1"/>
-    <col min="5135" max="5135" width="2.8984375" style="1" customWidth="1"/>
-    <col min="5136" max="5376" width="8.09765625" style="1"/>
-    <col min="5377" max="5377" width="1.69921875" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="12.09765625" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="7.625" style="1" customWidth="1"/>
+    <col min="5125" max="5125" width="5.375" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="10.625" style="1" customWidth="1"/>
+    <col min="5127" max="5127" width="4.25" style="1" customWidth="1"/>
+    <col min="5128" max="5128" width="3.125" style="1" customWidth="1"/>
+    <col min="5129" max="5129" width="12.625" style="1" customWidth="1"/>
+    <col min="5130" max="5130" width="5.375" style="1" customWidth="1"/>
+    <col min="5131" max="5131" width="2.75" style="1" customWidth="1"/>
+    <col min="5132" max="5133" width="8.125" style="1"/>
+    <col min="5134" max="5134" width="11.25" style="1" customWidth="1"/>
+    <col min="5135" max="5135" width="2.875" style="1" customWidth="1"/>
+    <col min="5136" max="5376" width="8.125" style="1"/>
+    <col min="5377" max="5377" width="1.75" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="12.125" style="1" customWidth="1"/>
     <col min="5379" max="5379" width="17" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="7.59765625" style="1" customWidth="1"/>
-    <col min="5381" max="5381" width="5.3984375" style="1" customWidth="1"/>
-    <col min="5382" max="5382" width="10.59765625" style="1" customWidth="1"/>
-    <col min="5383" max="5383" width="4.296875" style="1" customWidth="1"/>
-    <col min="5384" max="5384" width="3.09765625" style="1" customWidth="1"/>
-    <col min="5385" max="5385" width="12.59765625" style="1" customWidth="1"/>
-    <col min="5386" max="5386" width="5.3984375" style="1" customWidth="1"/>
-    <col min="5387" max="5387" width="2.69921875" style="1" customWidth="1"/>
-    <col min="5388" max="5389" width="8.09765625" style="1"/>
-    <col min="5390" max="5390" width="11.19921875" style="1" customWidth="1"/>
-    <col min="5391" max="5391" width="2.8984375" style="1" customWidth="1"/>
-    <col min="5392" max="5632" width="8.09765625" style="1"/>
-    <col min="5633" max="5633" width="1.69921875" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="12.09765625" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="7.625" style="1" customWidth="1"/>
+    <col min="5381" max="5381" width="5.375" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="10.625" style="1" customWidth="1"/>
+    <col min="5383" max="5383" width="4.25" style="1" customWidth="1"/>
+    <col min="5384" max="5384" width="3.125" style="1" customWidth="1"/>
+    <col min="5385" max="5385" width="12.625" style="1" customWidth="1"/>
+    <col min="5386" max="5386" width="5.375" style="1" customWidth="1"/>
+    <col min="5387" max="5387" width="2.75" style="1" customWidth="1"/>
+    <col min="5388" max="5389" width="8.125" style="1"/>
+    <col min="5390" max="5390" width="11.25" style="1" customWidth="1"/>
+    <col min="5391" max="5391" width="2.875" style="1" customWidth="1"/>
+    <col min="5392" max="5632" width="8.125" style="1"/>
+    <col min="5633" max="5633" width="1.75" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="12.125" style="1" customWidth="1"/>
     <col min="5635" max="5635" width="17" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="7.59765625" style="1" customWidth="1"/>
-    <col min="5637" max="5637" width="5.3984375" style="1" customWidth="1"/>
-    <col min="5638" max="5638" width="10.59765625" style="1" customWidth="1"/>
-    <col min="5639" max="5639" width="4.296875" style="1" customWidth="1"/>
-    <col min="5640" max="5640" width="3.09765625" style="1" customWidth="1"/>
-    <col min="5641" max="5641" width="12.59765625" style="1" customWidth="1"/>
-    <col min="5642" max="5642" width="5.3984375" style="1" customWidth="1"/>
-    <col min="5643" max="5643" width="2.69921875" style="1" customWidth="1"/>
-    <col min="5644" max="5645" width="8.09765625" style="1"/>
-    <col min="5646" max="5646" width="11.19921875" style="1" customWidth="1"/>
-    <col min="5647" max="5647" width="2.8984375" style="1" customWidth="1"/>
-    <col min="5648" max="5888" width="8.09765625" style="1"/>
-    <col min="5889" max="5889" width="1.69921875" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="12.09765625" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="7.625" style="1" customWidth="1"/>
+    <col min="5637" max="5637" width="5.375" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="10.625" style="1" customWidth="1"/>
+    <col min="5639" max="5639" width="4.25" style="1" customWidth="1"/>
+    <col min="5640" max="5640" width="3.125" style="1" customWidth="1"/>
+    <col min="5641" max="5641" width="12.625" style="1" customWidth="1"/>
+    <col min="5642" max="5642" width="5.375" style="1" customWidth="1"/>
+    <col min="5643" max="5643" width="2.75" style="1" customWidth="1"/>
+    <col min="5644" max="5645" width="8.125" style="1"/>
+    <col min="5646" max="5646" width="11.25" style="1" customWidth="1"/>
+    <col min="5647" max="5647" width="2.875" style="1" customWidth="1"/>
+    <col min="5648" max="5888" width="8.125" style="1"/>
+    <col min="5889" max="5889" width="1.75" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="12.125" style="1" customWidth="1"/>
     <col min="5891" max="5891" width="17" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="7.59765625" style="1" customWidth="1"/>
-    <col min="5893" max="5893" width="5.3984375" style="1" customWidth="1"/>
-    <col min="5894" max="5894" width="10.59765625" style="1" customWidth="1"/>
-    <col min="5895" max="5895" width="4.296875" style="1" customWidth="1"/>
-    <col min="5896" max="5896" width="3.09765625" style="1" customWidth="1"/>
-    <col min="5897" max="5897" width="12.59765625" style="1" customWidth="1"/>
-    <col min="5898" max="5898" width="5.3984375" style="1" customWidth="1"/>
-    <col min="5899" max="5899" width="2.69921875" style="1" customWidth="1"/>
-    <col min="5900" max="5901" width="8.09765625" style="1"/>
-    <col min="5902" max="5902" width="11.19921875" style="1" customWidth="1"/>
-    <col min="5903" max="5903" width="2.8984375" style="1" customWidth="1"/>
-    <col min="5904" max="6144" width="8.09765625" style="1"/>
-    <col min="6145" max="6145" width="1.69921875" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="12.09765625" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="7.625" style="1" customWidth="1"/>
+    <col min="5893" max="5893" width="5.375" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="10.625" style="1" customWidth="1"/>
+    <col min="5895" max="5895" width="4.25" style="1" customWidth="1"/>
+    <col min="5896" max="5896" width="3.125" style="1" customWidth="1"/>
+    <col min="5897" max="5897" width="12.625" style="1" customWidth="1"/>
+    <col min="5898" max="5898" width="5.375" style="1" customWidth="1"/>
+    <col min="5899" max="5899" width="2.75" style="1" customWidth="1"/>
+    <col min="5900" max="5901" width="8.125" style="1"/>
+    <col min="5902" max="5902" width="11.25" style="1" customWidth="1"/>
+    <col min="5903" max="5903" width="2.875" style="1" customWidth="1"/>
+    <col min="5904" max="6144" width="8.125" style="1"/>
+    <col min="6145" max="6145" width="1.75" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="12.125" style="1" customWidth="1"/>
     <col min="6147" max="6147" width="17" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="7.59765625" style="1" customWidth="1"/>
-    <col min="6149" max="6149" width="5.3984375" style="1" customWidth="1"/>
-    <col min="6150" max="6150" width="10.59765625" style="1" customWidth="1"/>
-    <col min="6151" max="6151" width="4.296875" style="1" customWidth="1"/>
-    <col min="6152" max="6152" width="3.09765625" style="1" customWidth="1"/>
-    <col min="6153" max="6153" width="12.59765625" style="1" customWidth="1"/>
-    <col min="6154" max="6154" width="5.3984375" style="1" customWidth="1"/>
-    <col min="6155" max="6155" width="2.69921875" style="1" customWidth="1"/>
-    <col min="6156" max="6157" width="8.09765625" style="1"/>
-    <col min="6158" max="6158" width="11.19921875" style="1" customWidth="1"/>
-    <col min="6159" max="6159" width="2.8984375" style="1" customWidth="1"/>
-    <col min="6160" max="6400" width="8.09765625" style="1"/>
-    <col min="6401" max="6401" width="1.69921875" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="7.625" style="1" customWidth="1"/>
+    <col min="6149" max="6149" width="5.375" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="10.625" style="1" customWidth="1"/>
+    <col min="6151" max="6151" width="4.25" style="1" customWidth="1"/>
+    <col min="6152" max="6152" width="3.125" style="1" customWidth="1"/>
+    <col min="6153" max="6153" width="12.625" style="1" customWidth="1"/>
+    <col min="6154" max="6154" width="5.375" style="1" customWidth="1"/>
+    <col min="6155" max="6155" width="2.75" style="1" customWidth="1"/>
+    <col min="6156" max="6157" width="8.125" style="1"/>
+    <col min="6158" max="6158" width="11.25" style="1" customWidth="1"/>
+    <col min="6159" max="6159" width="2.875" style="1" customWidth="1"/>
+    <col min="6160" max="6400" width="8.125" style="1"/>
+    <col min="6401" max="6401" width="1.75" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="12.125" style="1" customWidth="1"/>
     <col min="6403" max="6403" width="17" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="7.59765625" style="1" customWidth="1"/>
-    <col min="6405" max="6405" width="5.3984375" style="1" customWidth="1"/>
-    <col min="6406" max="6406" width="10.59765625" style="1" customWidth="1"/>
-    <col min="6407" max="6407" width="4.296875" style="1" customWidth="1"/>
-    <col min="6408" max="6408" width="3.09765625" style="1" customWidth="1"/>
-    <col min="6409" max="6409" width="12.59765625" style="1" customWidth="1"/>
-    <col min="6410" max="6410" width="5.3984375" style="1" customWidth="1"/>
-    <col min="6411" max="6411" width="2.69921875" style="1" customWidth="1"/>
-    <col min="6412" max="6413" width="8.09765625" style="1"/>
-    <col min="6414" max="6414" width="11.19921875" style="1" customWidth="1"/>
-    <col min="6415" max="6415" width="2.8984375" style="1" customWidth="1"/>
-    <col min="6416" max="6656" width="8.09765625" style="1"/>
-    <col min="6657" max="6657" width="1.69921875" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="7.625" style="1" customWidth="1"/>
+    <col min="6405" max="6405" width="5.375" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="10.625" style="1" customWidth="1"/>
+    <col min="6407" max="6407" width="4.25" style="1" customWidth="1"/>
+    <col min="6408" max="6408" width="3.125" style="1" customWidth="1"/>
+    <col min="6409" max="6409" width="12.625" style="1" customWidth="1"/>
+    <col min="6410" max="6410" width="5.375" style="1" customWidth="1"/>
+    <col min="6411" max="6411" width="2.75" style="1" customWidth="1"/>
+    <col min="6412" max="6413" width="8.125" style="1"/>
+    <col min="6414" max="6414" width="11.25" style="1" customWidth="1"/>
+    <col min="6415" max="6415" width="2.875" style="1" customWidth="1"/>
+    <col min="6416" max="6656" width="8.125" style="1"/>
+    <col min="6657" max="6657" width="1.75" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="12.125" style="1" customWidth="1"/>
     <col min="6659" max="6659" width="17" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="7.59765625" style="1" customWidth="1"/>
-    <col min="6661" max="6661" width="5.3984375" style="1" customWidth="1"/>
-    <col min="6662" max="6662" width="10.59765625" style="1" customWidth="1"/>
-    <col min="6663" max="6663" width="4.296875" style="1" customWidth="1"/>
-    <col min="6664" max="6664" width="3.09765625" style="1" customWidth="1"/>
-    <col min="6665" max="6665" width="12.59765625" style="1" customWidth="1"/>
-    <col min="6666" max="6666" width="5.3984375" style="1" customWidth="1"/>
-    <col min="6667" max="6667" width="2.69921875" style="1" customWidth="1"/>
-    <col min="6668" max="6669" width="8.09765625" style="1"/>
-    <col min="6670" max="6670" width="11.19921875" style="1" customWidth="1"/>
-    <col min="6671" max="6671" width="2.8984375" style="1" customWidth="1"/>
-    <col min="6672" max="6912" width="8.09765625" style="1"/>
-    <col min="6913" max="6913" width="1.69921875" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="7.625" style="1" customWidth="1"/>
+    <col min="6661" max="6661" width="5.375" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="10.625" style="1" customWidth="1"/>
+    <col min="6663" max="6663" width="4.25" style="1" customWidth="1"/>
+    <col min="6664" max="6664" width="3.125" style="1" customWidth="1"/>
+    <col min="6665" max="6665" width="12.625" style="1" customWidth="1"/>
+    <col min="6666" max="6666" width="5.375" style="1" customWidth="1"/>
+    <col min="6667" max="6667" width="2.75" style="1" customWidth="1"/>
+    <col min="6668" max="6669" width="8.125" style="1"/>
+    <col min="6670" max="6670" width="11.25" style="1" customWidth="1"/>
+    <col min="6671" max="6671" width="2.875" style="1" customWidth="1"/>
+    <col min="6672" max="6912" width="8.125" style="1"/>
+    <col min="6913" max="6913" width="1.75" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="12.125" style="1" customWidth="1"/>
     <col min="6915" max="6915" width="17" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="7.59765625" style="1" customWidth="1"/>
-    <col min="6917" max="6917" width="5.3984375" style="1" customWidth="1"/>
-    <col min="6918" max="6918" width="10.59765625" style="1" customWidth="1"/>
-    <col min="6919" max="6919" width="4.296875" style="1" customWidth="1"/>
-    <col min="6920" max="6920" width="3.09765625" style="1" customWidth="1"/>
-    <col min="6921" max="6921" width="12.59765625" style="1" customWidth="1"/>
-    <col min="6922" max="6922" width="5.3984375" style="1" customWidth="1"/>
-    <col min="6923" max="6923" width="2.69921875" style="1" customWidth="1"/>
-    <col min="6924" max="6925" width="8.09765625" style="1"/>
-    <col min="6926" max="6926" width="11.19921875" style="1" customWidth="1"/>
-    <col min="6927" max="6927" width="2.8984375" style="1" customWidth="1"/>
-    <col min="6928" max="7168" width="8.09765625" style="1"/>
-    <col min="7169" max="7169" width="1.69921875" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="7.625" style="1" customWidth="1"/>
+    <col min="6917" max="6917" width="5.375" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="10.625" style="1" customWidth="1"/>
+    <col min="6919" max="6919" width="4.25" style="1" customWidth="1"/>
+    <col min="6920" max="6920" width="3.125" style="1" customWidth="1"/>
+    <col min="6921" max="6921" width="12.625" style="1" customWidth="1"/>
+    <col min="6922" max="6922" width="5.375" style="1" customWidth="1"/>
+    <col min="6923" max="6923" width="2.75" style="1" customWidth="1"/>
+    <col min="6924" max="6925" width="8.125" style="1"/>
+    <col min="6926" max="6926" width="11.25" style="1" customWidth="1"/>
+    <col min="6927" max="6927" width="2.875" style="1" customWidth="1"/>
+    <col min="6928" max="7168" width="8.125" style="1"/>
+    <col min="7169" max="7169" width="1.75" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="12.125" style="1" customWidth="1"/>
     <col min="7171" max="7171" width="17" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="7.59765625" style="1" customWidth="1"/>
-    <col min="7173" max="7173" width="5.3984375" style="1" customWidth="1"/>
-    <col min="7174" max="7174" width="10.59765625" style="1" customWidth="1"/>
-    <col min="7175" max="7175" width="4.296875" style="1" customWidth="1"/>
-    <col min="7176" max="7176" width="3.09765625" style="1" customWidth="1"/>
-    <col min="7177" max="7177" width="12.59765625" style="1" customWidth="1"/>
-    <col min="7178" max="7178" width="5.3984375" style="1" customWidth="1"/>
-    <col min="7179" max="7179" width="2.69921875" style="1" customWidth="1"/>
-    <col min="7180" max="7181" width="8.09765625" style="1"/>
-    <col min="7182" max="7182" width="11.19921875" style="1" customWidth="1"/>
-    <col min="7183" max="7183" width="2.8984375" style="1" customWidth="1"/>
-    <col min="7184" max="7424" width="8.09765625" style="1"/>
-    <col min="7425" max="7425" width="1.69921875" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="7.625" style="1" customWidth="1"/>
+    <col min="7173" max="7173" width="5.375" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="10.625" style="1" customWidth="1"/>
+    <col min="7175" max="7175" width="4.25" style="1" customWidth="1"/>
+    <col min="7176" max="7176" width="3.125" style="1" customWidth="1"/>
+    <col min="7177" max="7177" width="12.625" style="1" customWidth="1"/>
+    <col min="7178" max="7178" width="5.375" style="1" customWidth="1"/>
+    <col min="7179" max="7179" width="2.75" style="1" customWidth="1"/>
+    <col min="7180" max="7181" width="8.125" style="1"/>
+    <col min="7182" max="7182" width="11.25" style="1" customWidth="1"/>
+    <col min="7183" max="7183" width="2.875" style="1" customWidth="1"/>
+    <col min="7184" max="7424" width="8.125" style="1"/>
+    <col min="7425" max="7425" width="1.75" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="12.125" style="1" customWidth="1"/>
     <col min="7427" max="7427" width="17" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="7.59765625" style="1" customWidth="1"/>
-    <col min="7429" max="7429" width="5.3984375" style="1" customWidth="1"/>
-    <col min="7430" max="7430" width="10.59765625" style="1" customWidth="1"/>
-    <col min="7431" max="7431" width="4.296875" style="1" customWidth="1"/>
-    <col min="7432" max="7432" width="3.09765625" style="1" customWidth="1"/>
-    <col min="7433" max="7433" width="12.59765625" style="1" customWidth="1"/>
-    <col min="7434" max="7434" width="5.3984375" style="1" customWidth="1"/>
-    <col min="7435" max="7435" width="2.69921875" style="1" customWidth="1"/>
-    <col min="7436" max="7437" width="8.09765625" style="1"/>
-    <col min="7438" max="7438" width="11.19921875" style="1" customWidth="1"/>
-    <col min="7439" max="7439" width="2.8984375" style="1" customWidth="1"/>
-    <col min="7440" max="7680" width="8.09765625" style="1"/>
-    <col min="7681" max="7681" width="1.69921875" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="7.625" style="1" customWidth="1"/>
+    <col min="7429" max="7429" width="5.375" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="10.625" style="1" customWidth="1"/>
+    <col min="7431" max="7431" width="4.25" style="1" customWidth="1"/>
+    <col min="7432" max="7432" width="3.125" style="1" customWidth="1"/>
+    <col min="7433" max="7433" width="12.625" style="1" customWidth="1"/>
+    <col min="7434" max="7434" width="5.375" style="1" customWidth="1"/>
+    <col min="7435" max="7435" width="2.75" style="1" customWidth="1"/>
+    <col min="7436" max="7437" width="8.125" style="1"/>
+    <col min="7438" max="7438" width="11.25" style="1" customWidth="1"/>
+    <col min="7439" max="7439" width="2.875" style="1" customWidth="1"/>
+    <col min="7440" max="7680" width="8.125" style="1"/>
+    <col min="7681" max="7681" width="1.75" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="12.125" style="1" customWidth="1"/>
     <col min="7683" max="7683" width="17" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="7.59765625" style="1" customWidth="1"/>
-    <col min="7685" max="7685" width="5.3984375" style="1" customWidth="1"/>
-    <col min="7686" max="7686" width="10.59765625" style="1" customWidth="1"/>
-    <col min="7687" max="7687" width="4.296875" style="1" customWidth="1"/>
-    <col min="7688" max="7688" width="3.09765625" style="1" customWidth="1"/>
-    <col min="7689" max="7689" width="12.59765625" style="1" customWidth="1"/>
-    <col min="7690" max="7690" width="5.3984375" style="1" customWidth="1"/>
-    <col min="7691" max="7691" width="2.69921875" style="1" customWidth="1"/>
-    <col min="7692" max="7693" width="8.09765625" style="1"/>
-    <col min="7694" max="7694" width="11.19921875" style="1" customWidth="1"/>
-    <col min="7695" max="7695" width="2.8984375" style="1" customWidth="1"/>
-    <col min="7696" max="7936" width="8.09765625" style="1"/>
-    <col min="7937" max="7937" width="1.69921875" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="7.625" style="1" customWidth="1"/>
+    <col min="7685" max="7685" width="5.375" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="10.625" style="1" customWidth="1"/>
+    <col min="7687" max="7687" width="4.25" style="1" customWidth="1"/>
+    <col min="7688" max="7688" width="3.125" style="1" customWidth="1"/>
+    <col min="7689" max="7689" width="12.625" style="1" customWidth="1"/>
+    <col min="7690" max="7690" width="5.375" style="1" customWidth="1"/>
+    <col min="7691" max="7691" width="2.75" style="1" customWidth="1"/>
+    <col min="7692" max="7693" width="8.125" style="1"/>
+    <col min="7694" max="7694" width="11.25" style="1" customWidth="1"/>
+    <col min="7695" max="7695" width="2.875" style="1" customWidth="1"/>
+    <col min="7696" max="7936" width="8.125" style="1"/>
+    <col min="7937" max="7937" width="1.75" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="12.125" style="1" customWidth="1"/>
     <col min="7939" max="7939" width="17" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="7.59765625" style="1" customWidth="1"/>
-    <col min="7941" max="7941" width="5.3984375" style="1" customWidth="1"/>
-    <col min="7942" max="7942" width="10.59765625" style="1" customWidth="1"/>
-    <col min="7943" max="7943" width="4.296875" style="1" customWidth="1"/>
-    <col min="7944" max="7944" width="3.09765625" style="1" customWidth="1"/>
-    <col min="7945" max="7945" width="12.59765625" style="1" customWidth="1"/>
-    <col min="7946" max="7946" width="5.3984375" style="1" customWidth="1"/>
-    <col min="7947" max="7947" width="2.69921875" style="1" customWidth="1"/>
-    <col min="7948" max="7949" width="8.09765625" style="1"/>
-    <col min="7950" max="7950" width="11.19921875" style="1" customWidth="1"/>
-    <col min="7951" max="7951" width="2.8984375" style="1" customWidth="1"/>
-    <col min="7952" max="8192" width="8.09765625" style="1"/>
-    <col min="8193" max="8193" width="1.69921875" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="12.09765625" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="7.625" style="1" customWidth="1"/>
+    <col min="7941" max="7941" width="5.375" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="10.625" style="1" customWidth="1"/>
+    <col min="7943" max="7943" width="4.25" style="1" customWidth="1"/>
+    <col min="7944" max="7944" width="3.125" style="1" customWidth="1"/>
+    <col min="7945" max="7945" width="12.625" style="1" customWidth="1"/>
+    <col min="7946" max="7946" width="5.375" style="1" customWidth="1"/>
+    <col min="7947" max="7947" width="2.75" style="1" customWidth="1"/>
+    <col min="7948" max="7949" width="8.125" style="1"/>
+    <col min="7950" max="7950" width="11.25" style="1" customWidth="1"/>
+    <col min="7951" max="7951" width="2.875" style="1" customWidth="1"/>
+    <col min="7952" max="8192" width="8.125" style="1"/>
+    <col min="8193" max="8193" width="1.75" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="12.125" style="1" customWidth="1"/>
     <col min="8195" max="8195" width="17" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="7.59765625" style="1" customWidth="1"/>
-    <col min="8197" max="8197" width="5.3984375" style="1" customWidth="1"/>
-    <col min="8198" max="8198" width="10.59765625" style="1" customWidth="1"/>
-    <col min="8199" max="8199" width="4.296875" style="1" customWidth="1"/>
-    <col min="8200" max="8200" width="3.09765625" style="1" customWidth="1"/>
-    <col min="8201" max="8201" width="12.59765625" style="1" customWidth="1"/>
-    <col min="8202" max="8202" width="5.3984375" style="1" customWidth="1"/>
-    <col min="8203" max="8203" width="2.69921875" style="1" customWidth="1"/>
-    <col min="8204" max="8205" width="8.09765625" style="1"/>
-    <col min="8206" max="8206" width="11.19921875" style="1" customWidth="1"/>
-    <col min="8207" max="8207" width="2.8984375" style="1" customWidth="1"/>
-    <col min="8208" max="8448" width="8.09765625" style="1"/>
-    <col min="8449" max="8449" width="1.69921875" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="12.09765625" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="7.625" style="1" customWidth="1"/>
+    <col min="8197" max="8197" width="5.375" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="10.625" style="1" customWidth="1"/>
+    <col min="8199" max="8199" width="4.25" style="1" customWidth="1"/>
+    <col min="8200" max="8200" width="3.125" style="1" customWidth="1"/>
+    <col min="8201" max="8201" width="12.625" style="1" customWidth="1"/>
+    <col min="8202" max="8202" width="5.375" style="1" customWidth="1"/>
+    <col min="8203" max="8203" width="2.75" style="1" customWidth="1"/>
+    <col min="8204" max="8205" width="8.125" style="1"/>
+    <col min="8206" max="8206" width="11.25" style="1" customWidth="1"/>
+    <col min="8207" max="8207" width="2.875" style="1" customWidth="1"/>
+    <col min="8208" max="8448" width="8.125" style="1"/>
+    <col min="8449" max="8449" width="1.75" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="12.125" style="1" customWidth="1"/>
     <col min="8451" max="8451" width="17" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="7.59765625" style="1" customWidth="1"/>
-    <col min="8453" max="8453" width="5.3984375" style="1" customWidth="1"/>
-    <col min="8454" max="8454" width="10.59765625" style="1" customWidth="1"/>
-    <col min="8455" max="8455" width="4.296875" style="1" customWidth="1"/>
-    <col min="8456" max="8456" width="3.09765625" style="1" customWidth="1"/>
-    <col min="8457" max="8457" width="12.59765625" style="1" customWidth="1"/>
-    <col min="8458" max="8458" width="5.3984375" style="1" customWidth="1"/>
-    <col min="8459" max="8459" width="2.69921875" style="1" customWidth="1"/>
-    <col min="8460" max="8461" width="8.09765625" style="1"/>
-    <col min="8462" max="8462" width="11.19921875" style="1" customWidth="1"/>
-    <col min="8463" max="8463" width="2.8984375" style="1" customWidth="1"/>
-    <col min="8464" max="8704" width="8.09765625" style="1"/>
-    <col min="8705" max="8705" width="1.69921875" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="12.09765625" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="7.625" style="1" customWidth="1"/>
+    <col min="8453" max="8453" width="5.375" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="10.625" style="1" customWidth="1"/>
+    <col min="8455" max="8455" width="4.25" style="1" customWidth="1"/>
+    <col min="8456" max="8456" width="3.125" style="1" customWidth="1"/>
+    <col min="8457" max="8457" width="12.625" style="1" customWidth="1"/>
+    <col min="8458" max="8458" width="5.375" style="1" customWidth="1"/>
+    <col min="8459" max="8459" width="2.75" style="1" customWidth="1"/>
+    <col min="8460" max="8461" width="8.125" style="1"/>
+    <col min="8462" max="8462" width="11.25" style="1" customWidth="1"/>
+    <col min="8463" max="8463" width="2.875" style="1" customWidth="1"/>
+    <col min="8464" max="8704" width="8.125" style="1"/>
+    <col min="8705" max="8705" width="1.75" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="12.125" style="1" customWidth="1"/>
     <col min="8707" max="8707" width="17" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="7.59765625" style="1" customWidth="1"/>
-    <col min="8709" max="8709" width="5.3984375" style="1" customWidth="1"/>
-    <col min="8710" max="8710" width="10.59765625" style="1" customWidth="1"/>
-    <col min="8711" max="8711" width="4.296875" style="1" customWidth="1"/>
-    <col min="8712" max="8712" width="3.09765625" style="1" customWidth="1"/>
-    <col min="8713" max="8713" width="12.59765625" style="1" customWidth="1"/>
-    <col min="8714" max="8714" width="5.3984375" style="1" customWidth="1"/>
-    <col min="8715" max="8715" width="2.69921875" style="1" customWidth="1"/>
-    <col min="8716" max="8717" width="8.09765625" style="1"/>
-    <col min="8718" max="8718" width="11.19921875" style="1" customWidth="1"/>
-    <col min="8719" max="8719" width="2.8984375" style="1" customWidth="1"/>
-    <col min="8720" max="8960" width="8.09765625" style="1"/>
-    <col min="8961" max="8961" width="1.69921875" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="12.09765625" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="7.625" style="1" customWidth="1"/>
+    <col min="8709" max="8709" width="5.375" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="10.625" style="1" customWidth="1"/>
+    <col min="8711" max="8711" width="4.25" style="1" customWidth="1"/>
+    <col min="8712" max="8712" width="3.125" style="1" customWidth="1"/>
+    <col min="8713" max="8713" width="12.625" style="1" customWidth="1"/>
+    <col min="8714" max="8714" width="5.375" style="1" customWidth="1"/>
+    <col min="8715" max="8715" width="2.75" style="1" customWidth="1"/>
+    <col min="8716" max="8717" width="8.125" style="1"/>
+    <col min="8718" max="8718" width="11.25" style="1" customWidth="1"/>
+    <col min="8719" max="8719" width="2.875" style="1" customWidth="1"/>
+    <col min="8720" max="8960" width="8.125" style="1"/>
+    <col min="8961" max="8961" width="1.75" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="12.125" style="1" customWidth="1"/>
     <col min="8963" max="8963" width="17" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="7.59765625" style="1" customWidth="1"/>
-    <col min="8965" max="8965" width="5.3984375" style="1" customWidth="1"/>
-    <col min="8966" max="8966" width="10.59765625" style="1" customWidth="1"/>
-    <col min="8967" max="8967" width="4.296875" style="1" customWidth="1"/>
-    <col min="8968" max="8968" width="3.09765625" style="1" customWidth="1"/>
-    <col min="8969" max="8969" width="12.59765625" style="1" customWidth="1"/>
-    <col min="8970" max="8970" width="5.3984375" style="1" customWidth="1"/>
-    <col min="8971" max="8971" width="2.69921875" style="1" customWidth="1"/>
-    <col min="8972" max="8973" width="8.09765625" style="1"/>
-    <col min="8974" max="8974" width="11.19921875" style="1" customWidth="1"/>
-    <col min="8975" max="8975" width="2.8984375" style="1" customWidth="1"/>
-    <col min="8976" max="9216" width="8.09765625" style="1"/>
-    <col min="9217" max="9217" width="1.69921875" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="12.09765625" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="7.625" style="1" customWidth="1"/>
+    <col min="8965" max="8965" width="5.375" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="10.625" style="1" customWidth="1"/>
+    <col min="8967" max="8967" width="4.25" style="1" customWidth="1"/>
+    <col min="8968" max="8968" width="3.125" style="1" customWidth="1"/>
+    <col min="8969" max="8969" width="12.625" style="1" customWidth="1"/>
+    <col min="8970" max="8970" width="5.375" style="1" customWidth="1"/>
+    <col min="8971" max="8971" width="2.75" style="1" customWidth="1"/>
+    <col min="8972" max="8973" width="8.125" style="1"/>
+    <col min="8974" max="8974" width="11.25" style="1" customWidth="1"/>
+    <col min="8975" max="8975" width="2.875" style="1" customWidth="1"/>
+    <col min="8976" max="9216" width="8.125" style="1"/>
+    <col min="9217" max="9217" width="1.75" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="12.125" style="1" customWidth="1"/>
     <col min="9219" max="9219" width="17" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="7.59765625" style="1" customWidth="1"/>
-    <col min="9221" max="9221" width="5.3984375" style="1" customWidth="1"/>
-    <col min="9222" max="9222" width="10.59765625" style="1" customWidth="1"/>
-    <col min="9223" max="9223" width="4.296875" style="1" customWidth="1"/>
-    <col min="9224" max="9224" width="3.09765625" style="1" customWidth="1"/>
-    <col min="9225" max="9225" width="12.59765625" style="1" customWidth="1"/>
-    <col min="9226" max="9226" width="5.3984375" style="1" customWidth="1"/>
-    <col min="9227" max="9227" width="2.69921875" style="1" customWidth="1"/>
-    <col min="9228" max="9229" width="8.09765625" style="1"/>
-    <col min="9230" max="9230" width="11.19921875" style="1" customWidth="1"/>
-    <col min="9231" max="9231" width="2.8984375" style="1" customWidth="1"/>
-    <col min="9232" max="9472" width="8.09765625" style="1"/>
-    <col min="9473" max="9473" width="1.69921875" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="12.09765625" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="7.625" style="1" customWidth="1"/>
+    <col min="9221" max="9221" width="5.375" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="10.625" style="1" customWidth="1"/>
+    <col min="9223" max="9223" width="4.25" style="1" customWidth="1"/>
+    <col min="9224" max="9224" width="3.125" style="1" customWidth="1"/>
+    <col min="9225" max="9225" width="12.625" style="1" customWidth="1"/>
+    <col min="9226" max="9226" width="5.375" style="1" customWidth="1"/>
+    <col min="9227" max="9227" width="2.75" style="1" customWidth="1"/>
+    <col min="9228" max="9229" width="8.125" style="1"/>
+    <col min="9230" max="9230" width="11.25" style="1" customWidth="1"/>
+    <col min="9231" max="9231" width="2.875" style="1" customWidth="1"/>
+    <col min="9232" max="9472" width="8.125" style="1"/>
+    <col min="9473" max="9473" width="1.75" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="12.125" style="1" customWidth="1"/>
     <col min="9475" max="9475" width="17" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="7.59765625" style="1" customWidth="1"/>
-    <col min="9477" max="9477" width="5.3984375" style="1" customWidth="1"/>
-    <col min="9478" max="9478" width="10.59765625" style="1" customWidth="1"/>
-    <col min="9479" max="9479" width="4.296875" style="1" customWidth="1"/>
-    <col min="9480" max="9480" width="3.09765625" style="1" customWidth="1"/>
-    <col min="9481" max="9481" width="12.59765625" style="1" customWidth="1"/>
-    <col min="9482" max="9482" width="5.3984375" style="1" customWidth="1"/>
-    <col min="9483" max="9483" width="2.69921875" style="1" customWidth="1"/>
-    <col min="9484" max="9485" width="8.09765625" style="1"/>
-    <col min="9486" max="9486" width="11.19921875" style="1" customWidth="1"/>
-    <col min="9487" max="9487" width="2.8984375" style="1" customWidth="1"/>
-    <col min="9488" max="9728" width="8.09765625" style="1"/>
-    <col min="9729" max="9729" width="1.69921875" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="12.09765625" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="7.625" style="1" customWidth="1"/>
+    <col min="9477" max="9477" width="5.375" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="10.625" style="1" customWidth="1"/>
+    <col min="9479" max="9479" width="4.25" style="1" customWidth="1"/>
+    <col min="9480" max="9480" width="3.125" style="1" customWidth="1"/>
+    <col min="9481" max="9481" width="12.625" style="1" customWidth="1"/>
+    <col min="9482" max="9482" width="5.375" style="1" customWidth="1"/>
+    <col min="9483" max="9483" width="2.75" style="1" customWidth="1"/>
+    <col min="9484" max="9485" width="8.125" style="1"/>
+    <col min="9486" max="9486" width="11.25" style="1" customWidth="1"/>
+    <col min="9487" max="9487" width="2.875" style="1" customWidth="1"/>
+    <col min="9488" max="9728" width="8.125" style="1"/>
+    <col min="9729" max="9729" width="1.75" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="12.125" style="1" customWidth="1"/>
     <col min="9731" max="9731" width="17" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="7.59765625" style="1" customWidth="1"/>
-    <col min="9733" max="9733" width="5.3984375" style="1" customWidth="1"/>
-    <col min="9734" max="9734" width="10.59765625" style="1" customWidth="1"/>
-    <col min="9735" max="9735" width="4.296875" style="1" customWidth="1"/>
-    <col min="9736" max="9736" width="3.09765625" style="1" customWidth="1"/>
-    <col min="9737" max="9737" width="12.59765625" style="1" customWidth="1"/>
-    <col min="9738" max="9738" width="5.3984375" style="1" customWidth="1"/>
-    <col min="9739" max="9739" width="2.69921875" style="1" customWidth="1"/>
-    <col min="9740" max="9741" width="8.09765625" style="1"/>
-    <col min="9742" max="9742" width="11.19921875" style="1" customWidth="1"/>
-    <col min="9743" max="9743" width="2.8984375" style="1" customWidth="1"/>
-    <col min="9744" max="9984" width="8.09765625" style="1"/>
-    <col min="9985" max="9985" width="1.69921875" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="12.09765625" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="7.625" style="1" customWidth="1"/>
+    <col min="9733" max="9733" width="5.375" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="10.625" style="1" customWidth="1"/>
+    <col min="9735" max="9735" width="4.25" style="1" customWidth="1"/>
+    <col min="9736" max="9736" width="3.125" style="1" customWidth="1"/>
+    <col min="9737" max="9737" width="12.625" style="1" customWidth="1"/>
+    <col min="9738" max="9738" width="5.375" style="1" customWidth="1"/>
+    <col min="9739" max="9739" width="2.75" style="1" customWidth="1"/>
+    <col min="9740" max="9741" width="8.125" style="1"/>
+    <col min="9742" max="9742" width="11.25" style="1" customWidth="1"/>
+    <col min="9743" max="9743" width="2.875" style="1" customWidth="1"/>
+    <col min="9744" max="9984" width="8.125" style="1"/>
+    <col min="9985" max="9985" width="1.75" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="12.125" style="1" customWidth="1"/>
     <col min="9987" max="9987" width="17" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="7.59765625" style="1" customWidth="1"/>
-    <col min="9989" max="9989" width="5.3984375" style="1" customWidth="1"/>
-    <col min="9990" max="9990" width="10.59765625" style="1" customWidth="1"/>
-    <col min="9991" max="9991" width="4.296875" style="1" customWidth="1"/>
-    <col min="9992" max="9992" width="3.09765625" style="1" customWidth="1"/>
-    <col min="9993" max="9993" width="12.59765625" style="1" customWidth="1"/>
-    <col min="9994" max="9994" width="5.3984375" style="1" customWidth="1"/>
-    <col min="9995" max="9995" width="2.69921875" style="1" customWidth="1"/>
-    <col min="9996" max="9997" width="8.09765625" style="1"/>
-    <col min="9998" max="9998" width="11.19921875" style="1" customWidth="1"/>
-    <col min="9999" max="9999" width="2.8984375" style="1" customWidth="1"/>
-    <col min="10000" max="10240" width="8.09765625" style="1"/>
-    <col min="10241" max="10241" width="1.69921875" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="12.09765625" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="7.625" style="1" customWidth="1"/>
+    <col min="9989" max="9989" width="5.375" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="10.625" style="1" customWidth="1"/>
+    <col min="9991" max="9991" width="4.25" style="1" customWidth="1"/>
+    <col min="9992" max="9992" width="3.125" style="1" customWidth="1"/>
+    <col min="9993" max="9993" width="12.625" style="1" customWidth="1"/>
+    <col min="9994" max="9994" width="5.375" style="1" customWidth="1"/>
+    <col min="9995" max="9995" width="2.75" style="1" customWidth="1"/>
+    <col min="9996" max="9997" width="8.125" style="1"/>
+    <col min="9998" max="9998" width="11.25" style="1" customWidth="1"/>
+    <col min="9999" max="9999" width="2.875" style="1" customWidth="1"/>
+    <col min="10000" max="10240" width="8.125" style="1"/>
+    <col min="10241" max="10241" width="1.75" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="12.125" style="1" customWidth="1"/>
     <col min="10243" max="10243" width="17" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="7.59765625" style="1" customWidth="1"/>
-    <col min="10245" max="10245" width="5.3984375" style="1" customWidth="1"/>
-    <col min="10246" max="10246" width="10.59765625" style="1" customWidth="1"/>
-    <col min="10247" max="10247" width="4.296875" style="1" customWidth="1"/>
-    <col min="10248" max="10248" width="3.09765625" style="1" customWidth="1"/>
-    <col min="10249" max="10249" width="12.59765625" style="1" customWidth="1"/>
-    <col min="10250" max="10250" width="5.3984375" style="1" customWidth="1"/>
-    <col min="10251" max="10251" width="2.69921875" style="1" customWidth="1"/>
-    <col min="10252" max="10253" width="8.09765625" style="1"/>
-    <col min="10254" max="10254" width="11.19921875" style="1" customWidth="1"/>
-    <col min="10255" max="10255" width="2.8984375" style="1" customWidth="1"/>
-    <col min="10256" max="10496" width="8.09765625" style="1"/>
-    <col min="10497" max="10497" width="1.69921875" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="12.09765625" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="7.625" style="1" customWidth="1"/>
+    <col min="10245" max="10245" width="5.375" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="10.625" style="1" customWidth="1"/>
+    <col min="10247" max="10247" width="4.25" style="1" customWidth="1"/>
+    <col min="10248" max="10248" width="3.125" style="1" customWidth="1"/>
+    <col min="10249" max="10249" width="12.625" style="1" customWidth="1"/>
+    <col min="10250" max="10250" width="5.375" style="1" customWidth="1"/>
+    <col min="10251" max="10251" width="2.75" style="1" customWidth="1"/>
+    <col min="10252" max="10253" width="8.125" style="1"/>
+    <col min="10254" max="10254" width="11.25" style="1" customWidth="1"/>
+    <col min="10255" max="10255" width="2.875" style="1" customWidth="1"/>
+    <col min="10256" max="10496" width="8.125" style="1"/>
+    <col min="10497" max="10497" width="1.75" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="12.125" style="1" customWidth="1"/>
     <col min="10499" max="10499" width="17" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="7.59765625" style="1" customWidth="1"/>
-    <col min="10501" max="10501" width="5.3984375" style="1" customWidth="1"/>
-    <col min="10502" max="10502" width="10.59765625" style="1" customWidth="1"/>
-    <col min="10503" max="10503" width="4.296875" style="1" customWidth="1"/>
-    <col min="10504" max="10504" width="3.09765625" style="1" customWidth="1"/>
-    <col min="10505" max="10505" width="12.59765625" style="1" customWidth="1"/>
-    <col min="10506" max="10506" width="5.3984375" style="1" customWidth="1"/>
-    <col min="10507" max="10507" width="2.69921875" style="1" customWidth="1"/>
-    <col min="10508" max="10509" width="8.09765625" style="1"/>
-    <col min="10510" max="10510" width="11.19921875" style="1" customWidth="1"/>
-    <col min="10511" max="10511" width="2.8984375" style="1" customWidth="1"/>
-    <col min="10512" max="10752" width="8.09765625" style="1"/>
-    <col min="10753" max="10753" width="1.69921875" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="12.09765625" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="7.625" style="1" customWidth="1"/>
+    <col min="10501" max="10501" width="5.375" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="10.625" style="1" customWidth="1"/>
+    <col min="10503" max="10503" width="4.25" style="1" customWidth="1"/>
+    <col min="10504" max="10504" width="3.125" style="1" customWidth="1"/>
+    <col min="10505" max="10505" width="12.625" style="1" customWidth="1"/>
+    <col min="10506" max="10506" width="5.375" style="1" customWidth="1"/>
+    <col min="10507" max="10507" width="2.75" style="1" customWidth="1"/>
+    <col min="10508" max="10509" width="8.125" style="1"/>
+    <col min="10510" max="10510" width="11.25" style="1" customWidth="1"/>
+    <col min="10511" max="10511" width="2.875" style="1" customWidth="1"/>
+    <col min="10512" max="10752" width="8.125" style="1"/>
+    <col min="10753" max="10753" width="1.75" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="12.125" style="1" customWidth="1"/>
     <col min="10755" max="10755" width="17" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="7.59765625" style="1" customWidth="1"/>
-    <col min="10757" max="10757" width="5.3984375" style="1" customWidth="1"/>
-    <col min="10758" max="10758" width="10.59765625" style="1" customWidth="1"/>
-    <col min="10759" max="10759" width="4.296875" style="1" customWidth="1"/>
-    <col min="10760" max="10760" width="3.09765625" style="1" customWidth="1"/>
-    <col min="10761" max="10761" width="12.59765625" style="1" customWidth="1"/>
-    <col min="10762" max="10762" width="5.3984375" style="1" customWidth="1"/>
-    <col min="10763" max="10763" width="2.69921875" style="1" customWidth="1"/>
-    <col min="10764" max="10765" width="8.09765625" style="1"/>
-    <col min="10766" max="10766" width="11.19921875" style="1" customWidth="1"/>
-    <col min="10767" max="10767" width="2.8984375" style="1" customWidth="1"/>
-    <col min="10768" max="11008" width="8.09765625" style="1"/>
-    <col min="11009" max="11009" width="1.69921875" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="12.09765625" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="7.625" style="1" customWidth="1"/>
+    <col min="10757" max="10757" width="5.375" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="10.625" style="1" customWidth="1"/>
+    <col min="10759" max="10759" width="4.25" style="1" customWidth="1"/>
+    <col min="10760" max="10760" width="3.125" style="1" customWidth="1"/>
+    <col min="10761" max="10761" width="12.625" style="1" customWidth="1"/>
+    <col min="10762" max="10762" width="5.375" style="1" customWidth="1"/>
+    <col min="10763" max="10763" width="2.75" style="1" customWidth="1"/>
+    <col min="10764" max="10765" width="8.125" style="1"/>
+    <col min="10766" max="10766" width="11.25" style="1" customWidth="1"/>
+    <col min="10767" max="10767" width="2.875" style="1" customWidth="1"/>
+    <col min="10768" max="11008" width="8.125" style="1"/>
+    <col min="11009" max="11009" width="1.75" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="12.125" style="1" customWidth="1"/>
     <col min="11011" max="11011" width="17" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="7.59765625" style="1" customWidth="1"/>
-    <col min="11013" max="11013" width="5.3984375" style="1" customWidth="1"/>
-    <col min="11014" max="11014" width="10.59765625" style="1" customWidth="1"/>
-    <col min="11015" max="11015" width="4.296875" style="1" customWidth="1"/>
-    <col min="11016" max="11016" width="3.09765625" style="1" customWidth="1"/>
-    <col min="11017" max="11017" width="12.59765625" style="1" customWidth="1"/>
-    <col min="11018" max="11018" width="5.3984375" style="1" customWidth="1"/>
-    <col min="11019" max="11019" width="2.69921875" style="1" customWidth="1"/>
-    <col min="11020" max="11021" width="8.09765625" style="1"/>
-    <col min="11022" max="11022" width="11.19921875" style="1" customWidth="1"/>
-    <col min="11023" max="11023" width="2.8984375" style="1" customWidth="1"/>
-    <col min="11024" max="11264" width="8.09765625" style="1"/>
-    <col min="11265" max="11265" width="1.69921875" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="12.09765625" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="7.625" style="1" customWidth="1"/>
+    <col min="11013" max="11013" width="5.375" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="10.625" style="1" customWidth="1"/>
+    <col min="11015" max="11015" width="4.25" style="1" customWidth="1"/>
+    <col min="11016" max="11016" width="3.125" style="1" customWidth="1"/>
+    <col min="11017" max="11017" width="12.625" style="1" customWidth="1"/>
+    <col min="11018" max="11018" width="5.375" style="1" customWidth="1"/>
+    <col min="11019" max="11019" width="2.75" style="1" customWidth="1"/>
+    <col min="11020" max="11021" width="8.125" style="1"/>
+    <col min="11022" max="11022" width="11.25" style="1" customWidth="1"/>
+    <col min="11023" max="11023" width="2.875" style="1" customWidth="1"/>
+    <col min="11024" max="11264" width="8.125" style="1"/>
+    <col min="11265" max="11265" width="1.75" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="12.125" style="1" customWidth="1"/>
     <col min="11267" max="11267" width="17" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="7.59765625" style="1" customWidth="1"/>
-    <col min="11269" max="11269" width="5.3984375" style="1" customWidth="1"/>
-    <col min="11270" max="11270" width="10.59765625" style="1" customWidth="1"/>
-    <col min="11271" max="11271" width="4.296875" style="1" customWidth="1"/>
-    <col min="11272" max="11272" width="3.09765625" style="1" customWidth="1"/>
-    <col min="11273" max="11273" width="12.59765625" style="1" customWidth="1"/>
-    <col min="11274" max="11274" width="5.3984375" style="1" customWidth="1"/>
-    <col min="11275" max="11275" width="2.69921875" style="1" customWidth="1"/>
-    <col min="11276" max="11277" width="8.09765625" style="1"/>
-    <col min="11278" max="11278" width="11.19921875" style="1" customWidth="1"/>
-    <col min="11279" max="11279" width="2.8984375" style="1" customWidth="1"/>
-    <col min="11280" max="11520" width="8.09765625" style="1"/>
-    <col min="11521" max="11521" width="1.69921875" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="12.09765625" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="7.625" style="1" customWidth="1"/>
+    <col min="11269" max="11269" width="5.375" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="10.625" style="1" customWidth="1"/>
+    <col min="11271" max="11271" width="4.25" style="1" customWidth="1"/>
+    <col min="11272" max="11272" width="3.125" style="1" customWidth="1"/>
+    <col min="11273" max="11273" width="12.625" style="1" customWidth="1"/>
+    <col min="11274" max="11274" width="5.375" style="1" customWidth="1"/>
+    <col min="11275" max="11275" width="2.75" style="1" customWidth="1"/>
+    <col min="11276" max="11277" width="8.125" style="1"/>
+    <col min="11278" max="11278" width="11.25" style="1" customWidth="1"/>
+    <col min="11279" max="11279" width="2.875" style="1" customWidth="1"/>
+    <col min="11280" max="11520" width="8.125" style="1"/>
+    <col min="11521" max="11521" width="1.75" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="12.125" style="1" customWidth="1"/>
     <col min="11523" max="11523" width="17" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="7.59765625" style="1" customWidth="1"/>
-    <col min="11525" max="11525" width="5.3984375" style="1" customWidth="1"/>
-    <col min="11526" max="11526" width="10.59765625" style="1" customWidth="1"/>
-    <col min="11527" max="11527" width="4.296875" style="1" customWidth="1"/>
-    <col min="11528" max="11528" width="3.09765625" style="1" customWidth="1"/>
-    <col min="11529" max="11529" width="12.59765625" style="1" customWidth="1"/>
-    <col min="11530" max="11530" width="5.3984375" style="1" customWidth="1"/>
-    <col min="11531" max="11531" width="2.69921875" style="1" customWidth="1"/>
-    <col min="11532" max="11533" width="8.09765625" style="1"/>
-    <col min="11534" max="11534" width="11.19921875" style="1" customWidth="1"/>
-    <col min="11535" max="11535" width="2.8984375" style="1" customWidth="1"/>
-    <col min="11536" max="11776" width="8.09765625" style="1"/>
-    <col min="11777" max="11777" width="1.69921875" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="12.09765625" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="7.625" style="1" customWidth="1"/>
+    <col min="11525" max="11525" width="5.375" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="10.625" style="1" customWidth="1"/>
+    <col min="11527" max="11527" width="4.25" style="1" customWidth="1"/>
+    <col min="11528" max="11528" width="3.125" style="1" customWidth="1"/>
+    <col min="11529" max="11529" width="12.625" style="1" customWidth="1"/>
+    <col min="11530" max="11530" width="5.375" style="1" customWidth="1"/>
+    <col min="11531" max="11531" width="2.75" style="1" customWidth="1"/>
+    <col min="11532" max="11533" width="8.125" style="1"/>
+    <col min="11534" max="11534" width="11.25" style="1" customWidth="1"/>
+    <col min="11535" max="11535" width="2.875" style="1" customWidth="1"/>
+    <col min="11536" max="11776" width="8.125" style="1"/>
+    <col min="11777" max="11777" width="1.75" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="12.125" style="1" customWidth="1"/>
     <col min="11779" max="11779" width="17" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="7.59765625" style="1" customWidth="1"/>
-    <col min="11781" max="11781" width="5.3984375" style="1" customWidth="1"/>
-    <col min="11782" max="11782" width="10.59765625" style="1" customWidth="1"/>
-    <col min="11783" max="11783" width="4.296875" style="1" customWidth="1"/>
-    <col min="11784" max="11784" width="3.09765625" style="1" customWidth="1"/>
-    <col min="11785" max="11785" width="12.59765625" style="1" customWidth="1"/>
-    <col min="11786" max="11786" width="5.3984375" style="1" customWidth="1"/>
-    <col min="11787" max="11787" width="2.69921875" style="1" customWidth="1"/>
-    <col min="11788" max="11789" width="8.09765625" style="1"/>
-    <col min="11790" max="11790" width="11.19921875" style="1" customWidth="1"/>
-    <col min="11791" max="11791" width="2.8984375" style="1" customWidth="1"/>
-    <col min="11792" max="12032" width="8.09765625" style="1"/>
-    <col min="12033" max="12033" width="1.69921875" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="12.09765625" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="7.625" style="1" customWidth="1"/>
+    <col min="11781" max="11781" width="5.375" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="10.625" style="1" customWidth="1"/>
+    <col min="11783" max="11783" width="4.25" style="1" customWidth="1"/>
+    <col min="11784" max="11784" width="3.125" style="1" customWidth="1"/>
+    <col min="11785" max="11785" width="12.625" style="1" customWidth="1"/>
+    <col min="11786" max="11786" width="5.375" style="1" customWidth="1"/>
+    <col min="11787" max="11787" width="2.75" style="1" customWidth="1"/>
+    <col min="11788" max="11789" width="8.125" style="1"/>
+    <col min="11790" max="11790" width="11.25" style="1" customWidth="1"/>
+    <col min="11791" max="11791" width="2.875" style="1" customWidth="1"/>
+    <col min="11792" max="12032" width="8.125" style="1"/>
+    <col min="12033" max="12033" width="1.75" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="12.125" style="1" customWidth="1"/>
     <col min="12035" max="12035" width="17" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="7.59765625" style="1" customWidth="1"/>
-    <col min="12037" max="12037" width="5.3984375" style="1" customWidth="1"/>
-    <col min="12038" max="12038" width="10.59765625" style="1" customWidth="1"/>
-    <col min="12039" max="12039" width="4.296875" style="1" customWidth="1"/>
-    <col min="12040" max="12040" width="3.09765625" style="1" customWidth="1"/>
-    <col min="12041" max="12041" width="12.59765625" style="1" customWidth="1"/>
-    <col min="12042" max="12042" width="5.3984375" style="1" customWidth="1"/>
-    <col min="12043" max="12043" width="2.69921875" style="1" customWidth="1"/>
-    <col min="12044" max="12045" width="8.09765625" style="1"/>
-    <col min="12046" max="12046" width="11.19921875" style="1" customWidth="1"/>
-    <col min="12047" max="12047" width="2.8984375" style="1" customWidth="1"/>
-    <col min="12048" max="12288" width="8.09765625" style="1"/>
-    <col min="12289" max="12289" width="1.69921875" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="12.09765625" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="7.625" style="1" customWidth="1"/>
+    <col min="12037" max="12037" width="5.375" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="10.625" style="1" customWidth="1"/>
+    <col min="12039" max="12039" width="4.25" style="1" customWidth="1"/>
+    <col min="12040" max="12040" width="3.125" style="1" customWidth="1"/>
+    <col min="12041" max="12041" width="12.625" style="1" customWidth="1"/>
+    <col min="12042" max="12042" width="5.375" style="1" customWidth="1"/>
+    <col min="12043" max="12043" width="2.75" style="1" customWidth="1"/>
+    <col min="12044" max="12045" width="8.125" style="1"/>
+    <col min="12046" max="12046" width="11.25" style="1" customWidth="1"/>
+    <col min="12047" max="12047" width="2.875" style="1" customWidth="1"/>
+    <col min="12048" max="12288" width="8.125" style="1"/>
+    <col min="12289" max="12289" width="1.75" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="12.125" style="1" customWidth="1"/>
     <col min="12291" max="12291" width="17" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="7.59765625" style="1" customWidth="1"/>
-    <col min="12293" max="12293" width="5.3984375" style="1" customWidth="1"/>
-    <col min="12294" max="12294" width="10.59765625" style="1" customWidth="1"/>
-    <col min="12295" max="12295" width="4.296875" style="1" customWidth="1"/>
-    <col min="12296" max="12296" width="3.09765625" style="1" customWidth="1"/>
-    <col min="12297" max="12297" width="12.59765625" style="1" customWidth="1"/>
-    <col min="12298" max="12298" width="5.3984375" style="1" customWidth="1"/>
-    <col min="12299" max="12299" width="2.69921875" style="1" customWidth="1"/>
-    <col min="12300" max="12301" width="8.09765625" style="1"/>
-    <col min="12302" max="12302" width="11.19921875" style="1" customWidth="1"/>
-    <col min="12303" max="12303" width="2.8984375" style="1" customWidth="1"/>
-    <col min="12304" max="12544" width="8.09765625" style="1"/>
-    <col min="12545" max="12545" width="1.69921875" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="12.09765625" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="7.625" style="1" customWidth="1"/>
+    <col min="12293" max="12293" width="5.375" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="10.625" style="1" customWidth="1"/>
+    <col min="12295" max="12295" width="4.25" style="1" customWidth="1"/>
+    <col min="12296" max="12296" width="3.125" style="1" customWidth="1"/>
+    <col min="12297" max="12297" width="12.625" style="1" customWidth="1"/>
+    <col min="12298" max="12298" width="5.375" style="1" customWidth="1"/>
+    <col min="12299" max="12299" width="2.75" style="1" customWidth="1"/>
+    <col min="12300" max="12301" width="8.125" style="1"/>
+    <col min="12302" max="12302" width="11.25" style="1" customWidth="1"/>
+    <col min="12303" max="12303" width="2.875" style="1" customWidth="1"/>
+    <col min="12304" max="12544" width="8.125" style="1"/>
+    <col min="12545" max="12545" width="1.75" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="12.125" style="1" customWidth="1"/>
     <col min="12547" max="12547" width="17" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="7.59765625" style="1" customWidth="1"/>
-    <col min="12549" max="12549" width="5.3984375" style="1" customWidth="1"/>
-    <col min="12550" max="12550" width="10.59765625" style="1" customWidth="1"/>
-    <col min="12551" max="12551" width="4.296875" style="1" customWidth="1"/>
-    <col min="12552" max="12552" width="3.09765625" style="1" customWidth="1"/>
-    <col min="12553" max="12553" width="12.59765625" style="1" customWidth="1"/>
-    <col min="12554" max="12554" width="5.3984375" style="1" customWidth="1"/>
-    <col min="12555" max="12555" width="2.69921875" style="1" customWidth="1"/>
-    <col min="12556" max="12557" width="8.09765625" style="1"/>
-    <col min="12558" max="12558" width="11.19921875" style="1" customWidth="1"/>
-    <col min="12559" max="12559" width="2.8984375" style="1" customWidth="1"/>
-    <col min="12560" max="12800" width="8.09765625" style="1"/>
-    <col min="12801" max="12801" width="1.69921875" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="12.09765625" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="7.625" style="1" customWidth="1"/>
+    <col min="12549" max="12549" width="5.375" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="10.625" style="1" customWidth="1"/>
+    <col min="12551" max="12551" width="4.25" style="1" customWidth="1"/>
+    <col min="12552" max="12552" width="3.125" style="1" customWidth="1"/>
+    <col min="12553" max="12553" width="12.625" style="1" customWidth="1"/>
+    <col min="12554" max="12554" width="5.375" style="1" customWidth="1"/>
+    <col min="12555" max="12555" width="2.75" style="1" customWidth="1"/>
+    <col min="12556" max="12557" width="8.125" style="1"/>
+    <col min="12558" max="12558" width="11.25" style="1" customWidth="1"/>
+    <col min="12559" max="12559" width="2.875" style="1" customWidth="1"/>
+    <col min="12560" max="12800" width="8.125" style="1"/>
+    <col min="12801" max="12801" width="1.75" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="12.125" style="1" customWidth="1"/>
     <col min="12803" max="12803" width="17" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="7.59765625" style="1" customWidth="1"/>
-    <col min="12805" max="12805" width="5.3984375" style="1" customWidth="1"/>
-    <col min="12806" max="12806" width="10.59765625" style="1" customWidth="1"/>
-    <col min="12807" max="12807" width="4.296875" style="1" customWidth="1"/>
-    <col min="12808" max="12808" width="3.09765625" style="1" customWidth="1"/>
-    <col min="12809" max="12809" width="12.59765625" style="1" customWidth="1"/>
-    <col min="12810" max="12810" width="5.3984375" style="1" customWidth="1"/>
-    <col min="12811" max="12811" width="2.69921875" style="1" customWidth="1"/>
-    <col min="12812" max="12813" width="8.09765625" style="1"/>
-    <col min="12814" max="12814" width="11.19921875" style="1" customWidth="1"/>
-    <col min="12815" max="12815" width="2.8984375" style="1" customWidth="1"/>
-    <col min="12816" max="13056" width="8.09765625" style="1"/>
-    <col min="13057" max="13057" width="1.69921875" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="12.09765625" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="7.625" style="1" customWidth="1"/>
+    <col min="12805" max="12805" width="5.375" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="10.625" style="1" customWidth="1"/>
+    <col min="12807" max="12807" width="4.25" style="1" customWidth="1"/>
+    <col min="12808" max="12808" width="3.125" style="1" customWidth="1"/>
+    <col min="12809" max="12809" width="12.625" style="1" customWidth="1"/>
+    <col min="12810" max="12810" width="5.375" style="1" customWidth="1"/>
+    <col min="12811" max="12811" width="2.75" style="1" customWidth="1"/>
+    <col min="12812" max="12813" width="8.125" style="1"/>
+    <col min="12814" max="12814" width="11.25" style="1" customWidth="1"/>
+    <col min="12815" max="12815" width="2.875" style="1" customWidth="1"/>
+    <col min="12816" max="13056" width="8.125" style="1"/>
+    <col min="13057" max="13057" width="1.75" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="12.125" style="1" customWidth="1"/>
     <col min="13059" max="13059" width="17" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="7.59765625" style="1" customWidth="1"/>
-    <col min="13061" max="13061" width="5.3984375" style="1" customWidth="1"/>
-    <col min="13062" max="13062" width="10.59765625" style="1" customWidth="1"/>
-    <col min="13063" max="13063" width="4.296875" style="1" customWidth="1"/>
-    <col min="13064" max="13064" width="3.09765625" style="1" customWidth="1"/>
-    <col min="13065" max="13065" width="12.59765625" style="1" customWidth="1"/>
-    <col min="13066" max="13066" width="5.3984375" style="1" customWidth="1"/>
-    <col min="13067" max="13067" width="2.69921875" style="1" customWidth="1"/>
-    <col min="13068" max="13069" width="8.09765625" style="1"/>
-    <col min="13070" max="13070" width="11.19921875" style="1" customWidth="1"/>
-    <col min="13071" max="13071" width="2.8984375" style="1" customWidth="1"/>
-    <col min="13072" max="13312" width="8.09765625" style="1"/>
-    <col min="13313" max="13313" width="1.69921875" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="12.09765625" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="7.625" style="1" customWidth="1"/>
+    <col min="13061" max="13061" width="5.375" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="10.625" style="1" customWidth="1"/>
+    <col min="13063" max="13063" width="4.25" style="1" customWidth="1"/>
+    <col min="13064" max="13064" width="3.125" style="1" customWidth="1"/>
+    <col min="13065" max="13065" width="12.625" style="1" customWidth="1"/>
+    <col min="13066" max="13066" width="5.375" style="1" customWidth="1"/>
+    <col min="13067" max="13067" width="2.75" style="1" customWidth="1"/>
+    <col min="13068" max="13069" width="8.125" style="1"/>
+    <col min="13070" max="13070" width="11.25" style="1" customWidth="1"/>
+    <col min="13071" max="13071" width="2.875" style="1" customWidth="1"/>
+    <col min="13072" max="13312" width="8.125" style="1"/>
+    <col min="13313" max="13313" width="1.75" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="12.125" style="1" customWidth="1"/>
     <col min="13315" max="13315" width="17" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="7.59765625" style="1" customWidth="1"/>
-    <col min="13317" max="13317" width="5.3984375" style="1" customWidth="1"/>
-    <col min="13318" max="13318" width="10.59765625" style="1" customWidth="1"/>
-    <col min="13319" max="13319" width="4.296875" style="1" customWidth="1"/>
-    <col min="13320" max="13320" width="3.09765625" style="1" customWidth="1"/>
-    <col min="13321" max="13321" width="12.59765625" style="1" customWidth="1"/>
-    <col min="13322" max="13322" width="5.3984375" style="1" customWidth="1"/>
-    <col min="13323" max="13323" width="2.69921875" style="1" customWidth="1"/>
-    <col min="13324" max="13325" width="8.09765625" style="1"/>
-    <col min="13326" max="13326" width="11.19921875" style="1" customWidth="1"/>
-    <col min="13327" max="13327" width="2.8984375" style="1" customWidth="1"/>
-    <col min="13328" max="13568" width="8.09765625" style="1"/>
-    <col min="13569" max="13569" width="1.69921875" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="12.09765625" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="7.625" style="1" customWidth="1"/>
+    <col min="13317" max="13317" width="5.375" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="10.625" style="1" customWidth="1"/>
+    <col min="13319" max="13319" width="4.25" style="1" customWidth="1"/>
+    <col min="13320" max="13320" width="3.125" style="1" customWidth="1"/>
+    <col min="13321" max="13321" width="12.625" style="1" customWidth="1"/>
+    <col min="13322" max="13322" width="5.375" style="1" customWidth="1"/>
+    <col min="13323" max="13323" width="2.75" style="1" customWidth="1"/>
+    <col min="13324" max="13325" width="8.125" style="1"/>
+    <col min="13326" max="13326" width="11.25" style="1" customWidth="1"/>
+    <col min="13327" max="13327" width="2.875" style="1" customWidth="1"/>
+    <col min="13328" max="13568" width="8.125" style="1"/>
+    <col min="13569" max="13569" width="1.75" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="12.125" style="1" customWidth="1"/>
     <col min="13571" max="13571" width="17" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="7.59765625" style="1" customWidth="1"/>
-    <col min="13573" max="13573" width="5.3984375" style="1" customWidth="1"/>
-    <col min="13574" max="13574" width="10.59765625" style="1" customWidth="1"/>
-    <col min="13575" max="13575" width="4.296875" style="1" customWidth="1"/>
-    <col min="13576" max="13576" width="3.09765625" style="1" customWidth="1"/>
-    <col min="13577" max="13577" width="12.59765625" style="1" customWidth="1"/>
-    <col min="13578" max="13578" width="5.3984375" style="1" customWidth="1"/>
-    <col min="13579" max="13579" width="2.69921875" style="1" customWidth="1"/>
-    <col min="13580" max="13581" width="8.09765625" style="1"/>
-    <col min="13582" max="13582" width="11.19921875" style="1" customWidth="1"/>
-    <col min="13583" max="13583" width="2.8984375" style="1" customWidth="1"/>
-    <col min="13584" max="13824" width="8.09765625" style="1"/>
-    <col min="13825" max="13825" width="1.69921875" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="12.09765625" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="7.625" style="1" customWidth="1"/>
+    <col min="13573" max="13573" width="5.375" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="10.625" style="1" customWidth="1"/>
+    <col min="13575" max="13575" width="4.25" style="1" customWidth="1"/>
+    <col min="13576" max="13576" width="3.125" style="1" customWidth="1"/>
+    <col min="13577" max="13577" width="12.625" style="1" customWidth="1"/>
+    <col min="13578" max="13578" width="5.375" style="1" customWidth="1"/>
+    <col min="13579" max="13579" width="2.75" style="1" customWidth="1"/>
+    <col min="13580" max="13581" width="8.125" style="1"/>
+    <col min="13582" max="13582" width="11.25" style="1" customWidth="1"/>
+    <col min="13583" max="13583" width="2.875" style="1" customWidth="1"/>
+    <col min="13584" max="13824" width="8.125" style="1"/>
+    <col min="13825" max="13825" width="1.75" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="12.125" style="1" customWidth="1"/>
     <col min="13827" max="13827" width="17" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="7.59765625" style="1" customWidth="1"/>
-    <col min="13829" max="13829" width="5.3984375" style="1" customWidth="1"/>
-    <col min="13830" max="13830" width="10.59765625" style="1" customWidth="1"/>
-    <col min="13831" max="13831" width="4.296875" style="1" customWidth="1"/>
-    <col min="13832" max="13832" width="3.09765625" style="1" customWidth="1"/>
-    <col min="13833" max="13833" width="12.59765625" style="1" customWidth="1"/>
-    <col min="13834" max="13834" width="5.3984375" style="1" customWidth="1"/>
-    <col min="13835" max="13835" width="2.69921875" style="1" customWidth="1"/>
-    <col min="13836" max="13837" width="8.09765625" style="1"/>
-    <col min="13838" max="13838" width="11.19921875" style="1" customWidth="1"/>
-    <col min="13839" max="13839" width="2.8984375" style="1" customWidth="1"/>
-    <col min="13840" max="14080" width="8.09765625" style="1"/>
-    <col min="14081" max="14081" width="1.69921875" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="12.09765625" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="7.625" style="1" customWidth="1"/>
+    <col min="13829" max="13829" width="5.375" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="10.625" style="1" customWidth="1"/>
+    <col min="13831" max="13831" width="4.25" style="1" customWidth="1"/>
+    <col min="13832" max="13832" width="3.125" style="1" customWidth="1"/>
+    <col min="13833" max="13833" width="12.625" style="1" customWidth="1"/>
+    <col min="13834" max="13834" width="5.375" style="1" customWidth="1"/>
+    <col min="13835" max="13835" width="2.75" style="1" customWidth="1"/>
+    <col min="13836" max="13837" width="8.125" style="1"/>
+    <col min="13838" max="13838" width="11.25" style="1" customWidth="1"/>
+    <col min="13839" max="13839" width="2.875" style="1" customWidth="1"/>
+    <col min="13840" max="14080" width="8.125" style="1"/>
+    <col min="14081" max="14081" width="1.75" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="12.125" style="1" customWidth="1"/>
     <col min="14083" max="14083" width="17" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="7.59765625" style="1" customWidth="1"/>
-    <col min="14085" max="14085" width="5.3984375" style="1" customWidth="1"/>
-    <col min="14086" max="14086" width="10.59765625" style="1" customWidth="1"/>
-    <col min="14087" max="14087" width="4.296875" style="1" customWidth="1"/>
-    <col min="14088" max="14088" width="3.09765625" style="1" customWidth="1"/>
-    <col min="14089" max="14089" width="12.59765625" style="1" customWidth="1"/>
-    <col min="14090" max="14090" width="5.3984375" style="1" customWidth="1"/>
-    <col min="14091" max="14091" width="2.69921875" style="1" customWidth="1"/>
-    <col min="14092" max="14093" width="8.09765625" style="1"/>
-    <col min="14094" max="14094" width="11.19921875" style="1" customWidth="1"/>
-    <col min="14095" max="14095" width="2.8984375" style="1" customWidth="1"/>
-    <col min="14096" max="14336" width="8.09765625" style="1"/>
-    <col min="14337" max="14337" width="1.69921875" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="12.09765625" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="7.625" style="1" customWidth="1"/>
+    <col min="14085" max="14085" width="5.375" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="10.625" style="1" customWidth="1"/>
+    <col min="14087" max="14087" width="4.25" style="1" customWidth="1"/>
+    <col min="14088" max="14088" width="3.125" style="1" customWidth="1"/>
+    <col min="14089" max="14089" width="12.625" style="1" customWidth="1"/>
+    <col min="14090" max="14090" width="5.375" style="1" customWidth="1"/>
+    <col min="14091" max="14091" width="2.75" style="1" customWidth="1"/>
+    <col min="14092" max="14093" width="8.125" style="1"/>
+    <col min="14094" max="14094" width="11.25" style="1" customWidth="1"/>
+    <col min="14095" max="14095" width="2.875" style="1" customWidth="1"/>
+    <col min="14096" max="14336" width="8.125" style="1"/>
+    <col min="14337" max="14337" width="1.75" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="12.125" style="1" customWidth="1"/>
     <col min="14339" max="14339" width="17" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="7.59765625" style="1" customWidth="1"/>
-    <col min="14341" max="14341" width="5.3984375" style="1" customWidth="1"/>
-    <col min="14342" max="14342" width="10.59765625" style="1" customWidth="1"/>
-    <col min="14343" max="14343" width="4.296875" style="1" customWidth="1"/>
-    <col min="14344" max="14344" width="3.09765625" style="1" customWidth="1"/>
-    <col min="14345" max="14345" width="12.59765625" style="1" customWidth="1"/>
-    <col min="14346" max="14346" width="5.3984375" style="1" customWidth="1"/>
-    <col min="14347" max="14347" width="2.69921875" style="1" customWidth="1"/>
-    <col min="14348" max="14349" width="8.09765625" style="1"/>
-    <col min="14350" max="14350" width="11.19921875" style="1" customWidth="1"/>
-    <col min="14351" max="14351" width="2.8984375" style="1" customWidth="1"/>
-    <col min="14352" max="14592" width="8.09765625" style="1"/>
-    <col min="14593" max="14593" width="1.69921875" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="12.09765625" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="7.625" style="1" customWidth="1"/>
+    <col min="14341" max="14341" width="5.375" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="10.625" style="1" customWidth="1"/>
+    <col min="14343" max="14343" width="4.25" style="1" customWidth="1"/>
+    <col min="14344" max="14344" width="3.125" style="1" customWidth="1"/>
+    <col min="14345" max="14345" width="12.625" style="1" customWidth="1"/>
+    <col min="14346" max="14346" width="5.375" style="1" customWidth="1"/>
+    <col min="14347" max="14347" width="2.75" style="1" customWidth="1"/>
+    <col min="14348" max="14349" width="8.125" style="1"/>
+    <col min="14350" max="14350" width="11.25" style="1" customWidth="1"/>
+    <col min="14351" max="14351" width="2.875" style="1" customWidth="1"/>
+    <col min="14352" max="14592" width="8.125" style="1"/>
+    <col min="14593" max="14593" width="1.75" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="12.125" style="1" customWidth="1"/>
     <col min="14595" max="14595" width="17" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="7.59765625" style="1" customWidth="1"/>
-    <col min="14597" max="14597" width="5.3984375" style="1" customWidth="1"/>
-    <col min="14598" max="14598" width="10.59765625" style="1" customWidth="1"/>
-    <col min="14599" max="14599" width="4.296875" style="1" customWidth="1"/>
-    <col min="14600" max="14600" width="3.09765625" style="1" customWidth="1"/>
-    <col min="14601" max="14601" width="12.59765625" style="1" customWidth="1"/>
-    <col min="14602" max="14602" width="5.3984375" style="1" customWidth="1"/>
-    <col min="14603" max="14603" width="2.69921875" style="1" customWidth="1"/>
-    <col min="14604" max="14605" width="8.09765625" style="1"/>
-    <col min="14606" max="14606" width="11.19921875" style="1" customWidth="1"/>
-    <col min="14607" max="14607" width="2.8984375" style="1" customWidth="1"/>
-    <col min="14608" max="14848" width="8.09765625" style="1"/>
-    <col min="14849" max="14849" width="1.69921875" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="12.09765625" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="7.625" style="1" customWidth="1"/>
+    <col min="14597" max="14597" width="5.375" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="10.625" style="1" customWidth="1"/>
+    <col min="14599" max="14599" width="4.25" style="1" customWidth="1"/>
+    <col min="14600" max="14600" width="3.125" style="1" customWidth="1"/>
+    <col min="14601" max="14601" width="12.625" style="1" customWidth="1"/>
+    <col min="14602" max="14602" width="5.375" style="1" customWidth="1"/>
+    <col min="14603" max="14603" width="2.75" style="1" customWidth="1"/>
+    <col min="14604" max="14605" width="8.125" style="1"/>
+    <col min="14606" max="14606" width="11.25" style="1" customWidth="1"/>
+    <col min="14607" max="14607" width="2.875" style="1" customWidth="1"/>
+    <col min="14608" max="14848" width="8.125" style="1"/>
+    <col min="14849" max="14849" width="1.75" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="12.125" style="1" customWidth="1"/>
     <col min="14851" max="14851" width="17" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="7.59765625" style="1" customWidth="1"/>
-    <col min="14853" max="14853" width="5.3984375" style="1" customWidth="1"/>
-    <col min="14854" max="14854" width="10.59765625" style="1" customWidth="1"/>
-    <col min="14855" max="14855" width="4.296875" style="1" customWidth="1"/>
-    <col min="14856" max="14856" width="3.09765625" style="1" customWidth="1"/>
-    <col min="14857" max="14857" width="12.59765625" style="1" customWidth="1"/>
-    <col min="14858" max="14858" width="5.3984375" style="1" customWidth="1"/>
-    <col min="14859" max="14859" width="2.69921875" style="1" customWidth="1"/>
-    <col min="14860" max="14861" width="8.09765625" style="1"/>
-    <col min="14862" max="14862" width="11.19921875" style="1" customWidth="1"/>
-    <col min="14863" max="14863" width="2.8984375" style="1" customWidth="1"/>
-    <col min="14864" max="15104" width="8.09765625" style="1"/>
-    <col min="15105" max="15105" width="1.69921875" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="12.09765625" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="7.625" style="1" customWidth="1"/>
+    <col min="14853" max="14853" width="5.375" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="10.625" style="1" customWidth="1"/>
+    <col min="14855" max="14855" width="4.25" style="1" customWidth="1"/>
+    <col min="14856" max="14856" width="3.125" style="1" customWidth="1"/>
+    <col min="14857" max="14857" width="12.625" style="1" customWidth="1"/>
+    <col min="14858" max="14858" width="5.375" style="1" customWidth="1"/>
+    <col min="14859" max="14859" width="2.75" style="1" customWidth="1"/>
+    <col min="14860" max="14861" width="8.125" style="1"/>
+    <col min="14862" max="14862" width="11.25" style="1" customWidth="1"/>
+    <col min="14863" max="14863" width="2.875" style="1" customWidth="1"/>
+    <col min="14864" max="15104" width="8.125" style="1"/>
+    <col min="15105" max="15105" width="1.75" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="12.125" style="1" customWidth="1"/>
     <col min="15107" max="15107" width="17" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="7.59765625" style="1" customWidth="1"/>
-    <col min="15109" max="15109" width="5.3984375" style="1" customWidth="1"/>
-    <col min="15110" max="15110" width="10.59765625" style="1" customWidth="1"/>
-    <col min="15111" max="15111" width="4.296875" style="1" customWidth="1"/>
-    <col min="15112" max="15112" width="3.09765625" style="1" customWidth="1"/>
-    <col min="15113" max="15113" width="12.59765625" style="1" customWidth="1"/>
-    <col min="15114" max="15114" width="5.3984375" style="1" customWidth="1"/>
-    <col min="15115" max="15115" width="2.69921875" style="1" customWidth="1"/>
-    <col min="15116" max="15117" width="8.09765625" style="1"/>
-    <col min="15118" max="15118" width="11.19921875" style="1" customWidth="1"/>
-    <col min="15119" max="15119" width="2.8984375" style="1" customWidth="1"/>
-    <col min="15120" max="15360" width="8.09765625" style="1"/>
-    <col min="15361" max="15361" width="1.69921875" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="12.09765625" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="7.625" style="1" customWidth="1"/>
+    <col min="15109" max="15109" width="5.375" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="10.625" style="1" customWidth="1"/>
+    <col min="15111" max="15111" width="4.25" style="1" customWidth="1"/>
+    <col min="15112" max="15112" width="3.125" style="1" customWidth="1"/>
+    <col min="15113" max="15113" width="12.625" style="1" customWidth="1"/>
+    <col min="15114" max="15114" width="5.375" style="1" customWidth="1"/>
+    <col min="15115" max="15115" width="2.75" style="1" customWidth="1"/>
+    <col min="15116" max="15117" width="8.125" style="1"/>
+    <col min="15118" max="15118" width="11.25" style="1" customWidth="1"/>
+    <col min="15119" max="15119" width="2.875" style="1" customWidth="1"/>
+    <col min="15120" max="15360" width="8.125" style="1"/>
+    <col min="15361" max="15361" width="1.75" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="12.125" style="1" customWidth="1"/>
     <col min="15363" max="15363" width="17" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="7.59765625" style="1" customWidth="1"/>
-    <col min="15365" max="15365" width="5.3984375" style="1" customWidth="1"/>
-    <col min="15366" max="15366" width="10.59765625" style="1" customWidth="1"/>
-    <col min="15367" max="15367" width="4.296875" style="1" customWidth="1"/>
-    <col min="15368" max="15368" width="3.09765625" style="1" customWidth="1"/>
-    <col min="15369" max="15369" width="12.59765625" style="1" customWidth="1"/>
-    <col min="15370" max="15370" width="5.3984375" style="1" customWidth="1"/>
-    <col min="15371" max="15371" width="2.69921875" style="1" customWidth="1"/>
-    <col min="15372" max="15373" width="8.09765625" style="1"/>
-    <col min="15374" max="15374" width="11.19921875" style="1" customWidth="1"/>
-    <col min="15375" max="15375" width="2.8984375" style="1" customWidth="1"/>
-    <col min="15376" max="15616" width="8.09765625" style="1"/>
-    <col min="15617" max="15617" width="1.69921875" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="12.09765625" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="7.625" style="1" customWidth="1"/>
+    <col min="15365" max="15365" width="5.375" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="10.625" style="1" customWidth="1"/>
+    <col min="15367" max="15367" width="4.25" style="1" customWidth="1"/>
+    <col min="15368" max="15368" width="3.125" style="1" customWidth="1"/>
+    <col min="15369" max="15369" width="12.625" style="1" customWidth="1"/>
+    <col min="15370" max="15370" width="5.375" style="1" customWidth="1"/>
+    <col min="15371" max="15371" width="2.75" style="1" customWidth="1"/>
+    <col min="15372" max="15373" width="8.125" style="1"/>
+    <col min="15374" max="15374" width="11.25" style="1" customWidth="1"/>
+    <col min="15375" max="15375" width="2.875" style="1" customWidth="1"/>
+    <col min="15376" max="15616" width="8.125" style="1"/>
+    <col min="15617" max="15617" width="1.75" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="12.125" style="1" customWidth="1"/>
     <col min="15619" max="15619" width="17" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="7.59765625" style="1" customWidth="1"/>
-    <col min="15621" max="15621" width="5.3984375" style="1" customWidth="1"/>
-    <col min="15622" max="15622" width="10.59765625" style="1" customWidth="1"/>
-    <col min="15623" max="15623" width="4.296875" style="1" customWidth="1"/>
-    <col min="15624" max="15624" width="3.09765625" style="1" customWidth="1"/>
-    <col min="15625" max="15625" width="12.59765625" style="1" customWidth="1"/>
-    <col min="15626" max="15626" width="5.3984375" style="1" customWidth="1"/>
-    <col min="15627" max="15627" width="2.69921875" style="1" customWidth="1"/>
-    <col min="15628" max="15629" width="8.09765625" style="1"/>
-    <col min="15630" max="15630" width="11.19921875" style="1" customWidth="1"/>
-    <col min="15631" max="15631" width="2.8984375" style="1" customWidth="1"/>
-    <col min="15632" max="15872" width="8.09765625" style="1"/>
-    <col min="15873" max="15873" width="1.69921875" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="12.09765625" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="7.625" style="1" customWidth="1"/>
+    <col min="15621" max="15621" width="5.375" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="10.625" style="1" customWidth="1"/>
+    <col min="15623" max="15623" width="4.25" style="1" customWidth="1"/>
+    <col min="15624" max="15624" width="3.125" style="1" customWidth="1"/>
+    <col min="15625" max="15625" width="12.625" style="1" customWidth="1"/>
+    <col min="15626" max="15626" width="5.375" style="1" customWidth="1"/>
+    <col min="15627" max="15627" width="2.75" style="1" customWidth="1"/>
+    <col min="15628" max="15629" width="8.125" style="1"/>
+    <col min="15630" max="15630" width="11.25" style="1" customWidth="1"/>
+    <col min="15631" max="15631" width="2.875" style="1" customWidth="1"/>
+    <col min="15632" max="15872" width="8.125" style="1"/>
+    <col min="15873" max="15873" width="1.75" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="12.125" style="1" customWidth="1"/>
     <col min="15875" max="15875" width="17" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="7.59765625" style="1" customWidth="1"/>
-    <col min="15877" max="15877" width="5.3984375" style="1" customWidth="1"/>
-    <col min="15878" max="15878" width="10.59765625" style="1" customWidth="1"/>
-    <col min="15879" max="15879" width="4.296875" style="1" customWidth="1"/>
-    <col min="15880" max="15880" width="3.09765625" style="1" customWidth="1"/>
-    <col min="15881" max="15881" width="12.59765625" style="1" customWidth="1"/>
-    <col min="15882" max="15882" width="5.3984375" style="1" customWidth="1"/>
-    <col min="15883" max="15883" width="2.69921875" style="1" customWidth="1"/>
-    <col min="15884" max="15885" width="8.09765625" style="1"/>
-    <col min="15886" max="15886" width="11.19921875" style="1" customWidth="1"/>
-    <col min="15887" max="15887" width="2.8984375" style="1" customWidth="1"/>
-    <col min="15888" max="16128" width="8.09765625" style="1"/>
-    <col min="16129" max="16129" width="1.69921875" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="12.09765625" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="7.625" style="1" customWidth="1"/>
+    <col min="15877" max="15877" width="5.375" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="10.625" style="1" customWidth="1"/>
+    <col min="15879" max="15879" width="4.25" style="1" customWidth="1"/>
+    <col min="15880" max="15880" width="3.125" style="1" customWidth="1"/>
+    <col min="15881" max="15881" width="12.625" style="1" customWidth="1"/>
+    <col min="15882" max="15882" width="5.375" style="1" customWidth="1"/>
+    <col min="15883" max="15883" width="2.75" style="1" customWidth="1"/>
+    <col min="15884" max="15885" width="8.125" style="1"/>
+    <col min="15886" max="15886" width="11.25" style="1" customWidth="1"/>
+    <col min="15887" max="15887" width="2.875" style="1" customWidth="1"/>
+    <col min="15888" max="16128" width="8.125" style="1"/>
+    <col min="16129" max="16129" width="1.75" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="12.125" style="1" customWidth="1"/>
     <col min="16131" max="16131" width="17" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="7.59765625" style="1" customWidth="1"/>
-    <col min="16133" max="16133" width="5.3984375" style="1" customWidth="1"/>
-    <col min="16134" max="16134" width="10.59765625" style="1" customWidth="1"/>
-    <col min="16135" max="16135" width="4.296875" style="1" customWidth="1"/>
-    <col min="16136" max="16136" width="3.09765625" style="1" customWidth="1"/>
-    <col min="16137" max="16137" width="12.59765625" style="1" customWidth="1"/>
-    <col min="16138" max="16138" width="5.3984375" style="1" customWidth="1"/>
-    <col min="16139" max="16139" width="2.69921875" style="1" customWidth="1"/>
-    <col min="16140" max="16141" width="8.09765625" style="1"/>
-    <col min="16142" max="16142" width="11.19921875" style="1" customWidth="1"/>
-    <col min="16143" max="16143" width="2.8984375" style="1" customWidth="1"/>
-    <col min="16144" max="16384" width="8.09765625" style="1"/>
+    <col min="16132" max="16132" width="7.625" style="1" customWidth="1"/>
+    <col min="16133" max="16133" width="5.375" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="10.625" style="1" customWidth="1"/>
+    <col min="16135" max="16135" width="4.25" style="1" customWidth="1"/>
+    <col min="16136" max="16136" width="3.125" style="1" customWidth="1"/>
+    <col min="16137" max="16137" width="12.625" style="1" customWidth="1"/>
+    <col min="16138" max="16138" width="5.375" style="1" customWidth="1"/>
+    <col min="16139" max="16139" width="2.75" style="1" customWidth="1"/>
+    <col min="16140" max="16141" width="8.125" style="1"/>
+    <col min="16142" max="16142" width="11.25" style="1" customWidth="1"/>
+    <col min="16143" max="16143" width="2.875" style="1" customWidth="1"/>
+    <col min="16144" max="16384" width="8.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I1" s="128"/>
-      <c r="J1" s="129"/>
-    </row>
-    <row r="2" spans="2:10" s="41" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I1" s="127"/>
+      <c r="J1" s="128"/>
+    </row>
+    <row r="2" spans="2:10" s="41" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D2" s="42" t="s">
         <v>39</v>
       </c>
@@ -6192,13 +6225,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:10" s="43" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D3" s="44"/>
     </row>
-    <row r="4" spans="2:10" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D4" s="44"/>
     </row>
-    <row r="5" spans="2:10" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="45"/>
       <c r="C5" s="46"/>
       <c r="D5" s="47"/>
@@ -6216,22 +6249,22 @@
       <c r="F6" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
     </row>
     <row r="7" spans="2:10" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="44"/>
       <c r="F7" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-    </row>
-    <row r="8" spans="2:10" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="130"/>
+    </row>
+    <row r="8" spans="2:10" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="43" t="s">
         <v>43</v>
       </c>
@@ -6243,148 +6276,148 @@
     </row>
     <row r="9" spans="2:10" s="43" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="D9" s="44"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
     </row>
     <row r="10" spans="2:10" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D10" s="44"/>
-      <c r="F10" s="133" t="s">
+      <c r="F10" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="133"/>
-    </row>
-    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="134" t="s">
+      <c r="G10" s="132"/>
+      <c r="H10" s="132"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+    </row>
+    <row r="11" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
       <c r="F11" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F12" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
-      <c r="I12" s="121"/>
-      <c r="J12" s="121"/>
-    </row>
-    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G12" s="134"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="134"/>
+    </row>
+    <row r="13" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
+      <c r="C13" s="135"/>
+      <c r="D13" s="136"/>
       <c r="F13" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-    </row>
-    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+    </row>
+    <row r="14" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F14" s="54"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-    </row>
-    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="138"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138"/>
+    </row>
+    <row r="15" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F15" s="55"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="126"/>
-    </row>
-    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
+    </row>
+    <row r="16" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="127">
+      <c r="C16" s="126">
         <v>44256</v>
       </c>
-      <c r="D16" s="127"/>
-    </row>
-    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="126"/>
+    </row>
+    <row r="17" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="115">
+      <c r="C17" s="140">
         <v>44281</v>
       </c>
-      <c r="D17" s="115"/>
-    </row>
-    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="140"/>
+    </row>
+    <row r="18" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-    </row>
-    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+    </row>
+    <row r="19" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-    </row>
-    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+    </row>
+    <row r="20" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C20" s="56"/>
       <c r="D20" s="56"/>
     </row>
-    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-    </row>
-    <row r="22" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="118"/>
-      <c r="C23" s="107" t="s">
+    <row r="21" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+    </row>
+    <row r="22" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="143"/>
+      <c r="C23" s="145" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="107" t="s">
+      <c r="D23" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="120"/>
-      <c r="F23" s="107" t="s">
+      <c r="E23" s="147"/>
+      <c r="F23" s="145" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="120"/>
-      <c r="H23" s="107" t="s">
+      <c r="G23" s="147"/>
+      <c r="H23" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="108"/>
-      <c r="J23" s="109"/>
-    </row>
-    <row r="24" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B24" s="119"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="112"/>
-    </row>
-    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="149"/>
+      <c r="J23" s="150"/>
+    </row>
+    <row r="24" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="144"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="151"/>
+    </row>
+    <row r="25" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="12"/>
       <c r="C25" s="26" t="s">
         <v>59</v>
@@ -6410,7 +6443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="12"/>
       <c r="C26" s="26" t="s">
         <v>88</v>
@@ -6436,7 +6469,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="64" t="s">
         <v>61</v>
       </c>
@@ -6464,7 +6497,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="12"/>
       <c r="C28" s="26" t="s">
         <v>90</v>
@@ -6490,7 +6523,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="12"/>
       <c r="C29" s="26" t="s">
         <v>91</v>
@@ -6516,7 +6549,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="12"/>
       <c r="C30" s="24" t="s">
         <v>92</v>
@@ -6542,11 +6575,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="113" t="s">
+    <row r="31" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="114"/>
+      <c r="C31" s="153"/>
       <c r="D31" s="66">
         <f>SUM(D25:D30)</f>
         <v>60</v>
@@ -6569,15 +6602,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="87" t="s">
+    <row r="32" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="106"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="158"/>
       <c r="H32" s="7" t="s">
         <v>66</v>
       </c>
@@ -6586,15 +6619,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="87" t="s">
+    <row r="33" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="154" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="106"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="158"/>
       <c r="H33" s="7" t="s">
         <v>68</v>
       </c>
@@ -6603,15 +6636,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="87" t="s">
+    <row r="34" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="154" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="91"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="159"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="161"/>
       <c r="H34" s="7" t="s">
         <v>70</v>
       </c>
@@ -6620,13 +6653,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="87"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="90"/>
-      <c r="G35" s="91"/>
+    <row r="35" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="154"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="161"/>
       <c r="H35" s="7" t="s">
         <v>71</v>
       </c>
@@ -6635,13 +6668,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="87"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="106"/>
+    <row r="36" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="154"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="158"/>
       <c r="H36" s="7" t="s">
         <v>72</v>
       </c>
@@ -6650,13 +6683,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="87"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="91"/>
+    <row r="37" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="154"/>
+      <c r="C37" s="155"/>
+      <c r="D37" s="159"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
+      <c r="G37" s="161"/>
       <c r="H37" s="71" t="s">
         <v>73</v>
       </c>
@@ -6665,51 +6698,76 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="92" t="s">
+    <row r="38" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="93"/>
-      <c r="D38" s="96" t="s">
+      <c r="C38" s="163"/>
+      <c r="D38" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="100">
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
+      <c r="H38" s="170">
         <f>SUM(I31:I37)</f>
         <v>2390000</v>
       </c>
-      <c r="I38" s="101"/>
+      <c r="I38" s="171"/>
       <c r="J38" s="74"/>
     </row>
-    <row r="39" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B39" s="94"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="103"/>
+    <row r="39" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="164"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="168"/>
+      <c r="E39" s="169"/>
+      <c r="F39" s="169"/>
+      <c r="G39" s="169"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="173"/>
       <c r="J39" s="75" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B43" s="1" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="D38:G39"/>
+    <mergeCell ref="H38:I39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H23:J24"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="F23:G24"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="G6:J6"/>
@@ -6722,31 +6780,6 @@
     <mergeCell ref="G13:J13"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="G15:J15"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="H23:J24"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:G32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:G33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="D38:G39"/>
-    <mergeCell ref="H38:I39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -6765,910 +6798,910 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.09765625" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.125" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.19921875" style="1" customWidth="1"/>
-    <col min="11" max="12" width="8.09765625" style="1"/>
-    <col min="13" max="13" width="11.19921875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="2.8984375" style="1" customWidth="1"/>
-    <col min="15" max="256" width="8.09765625" style="1"/>
-    <col min="257" max="257" width="3.09765625" style="1" customWidth="1"/>
-    <col min="258" max="258" width="9.69921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.25" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.125" style="1"/>
+    <col min="13" max="13" width="11.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2.875" style="1" customWidth="1"/>
+    <col min="15" max="256" width="8.125" style="1"/>
+    <col min="257" max="257" width="3.125" style="1" customWidth="1"/>
+    <col min="258" max="258" width="9.75" style="1" customWidth="1"/>
     <col min="259" max="259" width="4" style="1" customWidth="1"/>
-    <col min="260" max="260" width="12.09765625" style="1" customWidth="1"/>
-    <col min="261" max="261" width="5.19921875" style="1" customWidth="1"/>
-    <col min="262" max="262" width="18.19921875" style="1" customWidth="1"/>
-    <col min="263" max="263" width="14.296875" style="1" customWidth="1"/>
-    <col min="264" max="264" width="9.3984375" style="1" customWidth="1"/>
+    <col min="260" max="260" width="12.125" style="1" customWidth="1"/>
+    <col min="261" max="261" width="5.25" style="1" customWidth="1"/>
+    <col min="262" max="262" width="18.25" style="1" customWidth="1"/>
+    <col min="263" max="263" width="14.25" style="1" customWidth="1"/>
+    <col min="264" max="264" width="9.375" style="1" customWidth="1"/>
     <col min="265" max="265" width="13" style="1" customWidth="1"/>
-    <col min="266" max="266" width="5.19921875" style="1" customWidth="1"/>
-    <col min="267" max="268" width="8.09765625" style="1"/>
-    <col min="269" max="269" width="11.19921875" style="1" customWidth="1"/>
-    <col min="270" max="270" width="2.8984375" style="1" customWidth="1"/>
-    <col min="271" max="512" width="8.09765625" style="1"/>
-    <col min="513" max="513" width="3.09765625" style="1" customWidth="1"/>
-    <col min="514" max="514" width="9.69921875" style="1" customWidth="1"/>
+    <col min="266" max="266" width="5.25" style="1" customWidth="1"/>
+    <col min="267" max="268" width="8.125" style="1"/>
+    <col min="269" max="269" width="11.25" style="1" customWidth="1"/>
+    <col min="270" max="270" width="2.875" style="1" customWidth="1"/>
+    <col min="271" max="512" width="8.125" style="1"/>
+    <col min="513" max="513" width="3.125" style="1" customWidth="1"/>
+    <col min="514" max="514" width="9.75" style="1" customWidth="1"/>
     <col min="515" max="515" width="4" style="1" customWidth="1"/>
-    <col min="516" max="516" width="12.09765625" style="1" customWidth="1"/>
-    <col min="517" max="517" width="5.19921875" style="1" customWidth="1"/>
-    <col min="518" max="518" width="18.19921875" style="1" customWidth="1"/>
-    <col min="519" max="519" width="14.296875" style="1" customWidth="1"/>
-    <col min="520" max="520" width="9.3984375" style="1" customWidth="1"/>
+    <col min="516" max="516" width="12.125" style="1" customWidth="1"/>
+    <col min="517" max="517" width="5.25" style="1" customWidth="1"/>
+    <col min="518" max="518" width="18.25" style="1" customWidth="1"/>
+    <col min="519" max="519" width="14.25" style="1" customWidth="1"/>
+    <col min="520" max="520" width="9.375" style="1" customWidth="1"/>
     <col min="521" max="521" width="13" style="1" customWidth="1"/>
-    <col min="522" max="522" width="5.19921875" style="1" customWidth="1"/>
-    <col min="523" max="524" width="8.09765625" style="1"/>
-    <col min="525" max="525" width="11.19921875" style="1" customWidth="1"/>
-    <col min="526" max="526" width="2.8984375" style="1" customWidth="1"/>
-    <col min="527" max="768" width="8.09765625" style="1"/>
-    <col min="769" max="769" width="3.09765625" style="1" customWidth="1"/>
-    <col min="770" max="770" width="9.69921875" style="1" customWidth="1"/>
+    <col min="522" max="522" width="5.25" style="1" customWidth="1"/>
+    <col min="523" max="524" width="8.125" style="1"/>
+    <col min="525" max="525" width="11.25" style="1" customWidth="1"/>
+    <col min="526" max="526" width="2.875" style="1" customWidth="1"/>
+    <col min="527" max="768" width="8.125" style="1"/>
+    <col min="769" max="769" width="3.125" style="1" customWidth="1"/>
+    <col min="770" max="770" width="9.75" style="1" customWidth="1"/>
     <col min="771" max="771" width="4" style="1" customWidth="1"/>
-    <col min="772" max="772" width="12.09765625" style="1" customWidth="1"/>
-    <col min="773" max="773" width="5.19921875" style="1" customWidth="1"/>
-    <col min="774" max="774" width="18.19921875" style="1" customWidth="1"/>
-    <col min="775" max="775" width="14.296875" style="1" customWidth="1"/>
-    <col min="776" max="776" width="9.3984375" style="1" customWidth="1"/>
+    <col min="772" max="772" width="12.125" style="1" customWidth="1"/>
+    <col min="773" max="773" width="5.25" style="1" customWidth="1"/>
+    <col min="774" max="774" width="18.25" style="1" customWidth="1"/>
+    <col min="775" max="775" width="14.25" style="1" customWidth="1"/>
+    <col min="776" max="776" width="9.375" style="1" customWidth="1"/>
     <col min="777" max="777" width="13" style="1" customWidth="1"/>
-    <col min="778" max="778" width="5.19921875" style="1" customWidth="1"/>
-    <col min="779" max="780" width="8.09765625" style="1"/>
-    <col min="781" max="781" width="11.19921875" style="1" customWidth="1"/>
-    <col min="782" max="782" width="2.8984375" style="1" customWidth="1"/>
-    <col min="783" max="1024" width="8.09765625" style="1"/>
-    <col min="1025" max="1025" width="3.09765625" style="1" customWidth="1"/>
-    <col min="1026" max="1026" width="9.69921875" style="1" customWidth="1"/>
+    <col min="778" max="778" width="5.25" style="1" customWidth="1"/>
+    <col min="779" max="780" width="8.125" style="1"/>
+    <col min="781" max="781" width="11.25" style="1" customWidth="1"/>
+    <col min="782" max="782" width="2.875" style="1" customWidth="1"/>
+    <col min="783" max="1024" width="8.125" style="1"/>
+    <col min="1025" max="1025" width="3.125" style="1" customWidth="1"/>
+    <col min="1026" max="1026" width="9.75" style="1" customWidth="1"/>
     <col min="1027" max="1027" width="4" style="1" customWidth="1"/>
-    <col min="1028" max="1028" width="12.09765625" style="1" customWidth="1"/>
-    <col min="1029" max="1029" width="5.19921875" style="1" customWidth="1"/>
-    <col min="1030" max="1030" width="18.19921875" style="1" customWidth="1"/>
-    <col min="1031" max="1031" width="14.296875" style="1" customWidth="1"/>
-    <col min="1032" max="1032" width="9.3984375" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="12.125" style="1" customWidth="1"/>
+    <col min="1029" max="1029" width="5.25" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="18.25" style="1" customWidth="1"/>
+    <col min="1031" max="1031" width="14.25" style="1" customWidth="1"/>
+    <col min="1032" max="1032" width="9.375" style="1" customWidth="1"/>
     <col min="1033" max="1033" width="13" style="1" customWidth="1"/>
-    <col min="1034" max="1034" width="5.19921875" style="1" customWidth="1"/>
-    <col min="1035" max="1036" width="8.09765625" style="1"/>
-    <col min="1037" max="1037" width="11.19921875" style="1" customWidth="1"/>
-    <col min="1038" max="1038" width="2.8984375" style="1" customWidth="1"/>
-    <col min="1039" max="1280" width="8.09765625" style="1"/>
-    <col min="1281" max="1281" width="3.09765625" style="1" customWidth="1"/>
-    <col min="1282" max="1282" width="9.69921875" style="1" customWidth="1"/>
+    <col min="1034" max="1034" width="5.25" style="1" customWidth="1"/>
+    <col min="1035" max="1036" width="8.125" style="1"/>
+    <col min="1037" max="1037" width="11.25" style="1" customWidth="1"/>
+    <col min="1038" max="1038" width="2.875" style="1" customWidth="1"/>
+    <col min="1039" max="1280" width="8.125" style="1"/>
+    <col min="1281" max="1281" width="3.125" style="1" customWidth="1"/>
+    <col min="1282" max="1282" width="9.75" style="1" customWidth="1"/>
     <col min="1283" max="1283" width="4" style="1" customWidth="1"/>
-    <col min="1284" max="1284" width="12.09765625" style="1" customWidth="1"/>
-    <col min="1285" max="1285" width="5.19921875" style="1" customWidth="1"/>
-    <col min="1286" max="1286" width="18.19921875" style="1" customWidth="1"/>
-    <col min="1287" max="1287" width="14.296875" style="1" customWidth="1"/>
-    <col min="1288" max="1288" width="9.3984375" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="12.125" style="1" customWidth="1"/>
+    <col min="1285" max="1285" width="5.25" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="18.25" style="1" customWidth="1"/>
+    <col min="1287" max="1287" width="14.25" style="1" customWidth="1"/>
+    <col min="1288" max="1288" width="9.375" style="1" customWidth="1"/>
     <col min="1289" max="1289" width="13" style="1" customWidth="1"/>
-    <col min="1290" max="1290" width="5.19921875" style="1" customWidth="1"/>
-    <col min="1291" max="1292" width="8.09765625" style="1"/>
-    <col min="1293" max="1293" width="11.19921875" style="1" customWidth="1"/>
-    <col min="1294" max="1294" width="2.8984375" style="1" customWidth="1"/>
-    <col min="1295" max="1536" width="8.09765625" style="1"/>
-    <col min="1537" max="1537" width="3.09765625" style="1" customWidth="1"/>
-    <col min="1538" max="1538" width="9.69921875" style="1" customWidth="1"/>
+    <col min="1290" max="1290" width="5.25" style="1" customWidth="1"/>
+    <col min="1291" max="1292" width="8.125" style="1"/>
+    <col min="1293" max="1293" width="11.25" style="1" customWidth="1"/>
+    <col min="1294" max="1294" width="2.875" style="1" customWidth="1"/>
+    <col min="1295" max="1536" width="8.125" style="1"/>
+    <col min="1537" max="1537" width="3.125" style="1" customWidth="1"/>
+    <col min="1538" max="1538" width="9.75" style="1" customWidth="1"/>
     <col min="1539" max="1539" width="4" style="1" customWidth="1"/>
-    <col min="1540" max="1540" width="12.09765625" style="1" customWidth="1"/>
-    <col min="1541" max="1541" width="5.19921875" style="1" customWidth="1"/>
-    <col min="1542" max="1542" width="18.19921875" style="1" customWidth="1"/>
-    <col min="1543" max="1543" width="14.296875" style="1" customWidth="1"/>
-    <col min="1544" max="1544" width="9.3984375" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="12.125" style="1" customWidth="1"/>
+    <col min="1541" max="1541" width="5.25" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="18.25" style="1" customWidth="1"/>
+    <col min="1543" max="1543" width="14.25" style="1" customWidth="1"/>
+    <col min="1544" max="1544" width="9.375" style="1" customWidth="1"/>
     <col min="1545" max="1545" width="13" style="1" customWidth="1"/>
-    <col min="1546" max="1546" width="5.19921875" style="1" customWidth="1"/>
-    <col min="1547" max="1548" width="8.09765625" style="1"/>
-    <col min="1549" max="1549" width="11.19921875" style="1" customWidth="1"/>
-    <col min="1550" max="1550" width="2.8984375" style="1" customWidth="1"/>
-    <col min="1551" max="1792" width="8.09765625" style="1"/>
-    <col min="1793" max="1793" width="3.09765625" style="1" customWidth="1"/>
-    <col min="1794" max="1794" width="9.69921875" style="1" customWidth="1"/>
+    <col min="1546" max="1546" width="5.25" style="1" customWidth="1"/>
+    <col min="1547" max="1548" width="8.125" style="1"/>
+    <col min="1549" max="1549" width="11.25" style="1" customWidth="1"/>
+    <col min="1550" max="1550" width="2.875" style="1" customWidth="1"/>
+    <col min="1551" max="1792" width="8.125" style="1"/>
+    <col min="1793" max="1793" width="3.125" style="1" customWidth="1"/>
+    <col min="1794" max="1794" width="9.75" style="1" customWidth="1"/>
     <col min="1795" max="1795" width="4" style="1" customWidth="1"/>
-    <col min="1796" max="1796" width="12.09765625" style="1" customWidth="1"/>
-    <col min="1797" max="1797" width="5.19921875" style="1" customWidth="1"/>
-    <col min="1798" max="1798" width="18.19921875" style="1" customWidth="1"/>
-    <col min="1799" max="1799" width="14.296875" style="1" customWidth="1"/>
-    <col min="1800" max="1800" width="9.3984375" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="12.125" style="1" customWidth="1"/>
+    <col min="1797" max="1797" width="5.25" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="18.25" style="1" customWidth="1"/>
+    <col min="1799" max="1799" width="14.25" style="1" customWidth="1"/>
+    <col min="1800" max="1800" width="9.375" style="1" customWidth="1"/>
     <col min="1801" max="1801" width="13" style="1" customWidth="1"/>
-    <col min="1802" max="1802" width="5.19921875" style="1" customWidth="1"/>
-    <col min="1803" max="1804" width="8.09765625" style="1"/>
-    <col min="1805" max="1805" width="11.19921875" style="1" customWidth="1"/>
-    <col min="1806" max="1806" width="2.8984375" style="1" customWidth="1"/>
-    <col min="1807" max="2048" width="8.09765625" style="1"/>
-    <col min="2049" max="2049" width="3.09765625" style="1" customWidth="1"/>
-    <col min="2050" max="2050" width="9.69921875" style="1" customWidth="1"/>
+    <col min="1802" max="1802" width="5.25" style="1" customWidth="1"/>
+    <col min="1803" max="1804" width="8.125" style="1"/>
+    <col min="1805" max="1805" width="11.25" style="1" customWidth="1"/>
+    <col min="1806" max="1806" width="2.875" style="1" customWidth="1"/>
+    <col min="1807" max="2048" width="8.125" style="1"/>
+    <col min="2049" max="2049" width="3.125" style="1" customWidth="1"/>
+    <col min="2050" max="2050" width="9.75" style="1" customWidth="1"/>
     <col min="2051" max="2051" width="4" style="1" customWidth="1"/>
-    <col min="2052" max="2052" width="12.09765625" style="1" customWidth="1"/>
-    <col min="2053" max="2053" width="5.19921875" style="1" customWidth="1"/>
-    <col min="2054" max="2054" width="18.19921875" style="1" customWidth="1"/>
-    <col min="2055" max="2055" width="14.296875" style="1" customWidth="1"/>
-    <col min="2056" max="2056" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="12.125" style="1" customWidth="1"/>
+    <col min="2053" max="2053" width="5.25" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="18.25" style="1" customWidth="1"/>
+    <col min="2055" max="2055" width="14.25" style="1" customWidth="1"/>
+    <col min="2056" max="2056" width="9.375" style="1" customWidth="1"/>
     <col min="2057" max="2057" width="13" style="1" customWidth="1"/>
-    <col min="2058" max="2058" width="5.19921875" style="1" customWidth="1"/>
-    <col min="2059" max="2060" width="8.09765625" style="1"/>
-    <col min="2061" max="2061" width="11.19921875" style="1" customWidth="1"/>
-    <col min="2062" max="2062" width="2.8984375" style="1" customWidth="1"/>
-    <col min="2063" max="2304" width="8.09765625" style="1"/>
-    <col min="2305" max="2305" width="3.09765625" style="1" customWidth="1"/>
-    <col min="2306" max="2306" width="9.69921875" style="1" customWidth="1"/>
+    <col min="2058" max="2058" width="5.25" style="1" customWidth="1"/>
+    <col min="2059" max="2060" width="8.125" style="1"/>
+    <col min="2061" max="2061" width="11.25" style="1" customWidth="1"/>
+    <col min="2062" max="2062" width="2.875" style="1" customWidth="1"/>
+    <col min="2063" max="2304" width="8.125" style="1"/>
+    <col min="2305" max="2305" width="3.125" style="1" customWidth="1"/>
+    <col min="2306" max="2306" width="9.75" style="1" customWidth="1"/>
     <col min="2307" max="2307" width="4" style="1" customWidth="1"/>
-    <col min="2308" max="2308" width="12.09765625" style="1" customWidth="1"/>
-    <col min="2309" max="2309" width="5.19921875" style="1" customWidth="1"/>
-    <col min="2310" max="2310" width="18.19921875" style="1" customWidth="1"/>
-    <col min="2311" max="2311" width="14.296875" style="1" customWidth="1"/>
-    <col min="2312" max="2312" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="12.125" style="1" customWidth="1"/>
+    <col min="2309" max="2309" width="5.25" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="18.25" style="1" customWidth="1"/>
+    <col min="2311" max="2311" width="14.25" style="1" customWidth="1"/>
+    <col min="2312" max="2312" width="9.375" style="1" customWidth="1"/>
     <col min="2313" max="2313" width="13" style="1" customWidth="1"/>
-    <col min="2314" max="2314" width="5.19921875" style="1" customWidth="1"/>
-    <col min="2315" max="2316" width="8.09765625" style="1"/>
-    <col min="2317" max="2317" width="11.19921875" style="1" customWidth="1"/>
-    <col min="2318" max="2318" width="2.8984375" style="1" customWidth="1"/>
-    <col min="2319" max="2560" width="8.09765625" style="1"/>
-    <col min="2561" max="2561" width="3.09765625" style="1" customWidth="1"/>
-    <col min="2562" max="2562" width="9.69921875" style="1" customWidth="1"/>
+    <col min="2314" max="2314" width="5.25" style="1" customWidth="1"/>
+    <col min="2315" max="2316" width="8.125" style="1"/>
+    <col min="2317" max="2317" width="11.25" style="1" customWidth="1"/>
+    <col min="2318" max="2318" width="2.875" style="1" customWidth="1"/>
+    <col min="2319" max="2560" width="8.125" style="1"/>
+    <col min="2561" max="2561" width="3.125" style="1" customWidth="1"/>
+    <col min="2562" max="2562" width="9.75" style="1" customWidth="1"/>
     <col min="2563" max="2563" width="4" style="1" customWidth="1"/>
-    <col min="2564" max="2564" width="12.09765625" style="1" customWidth="1"/>
-    <col min="2565" max="2565" width="5.19921875" style="1" customWidth="1"/>
-    <col min="2566" max="2566" width="18.19921875" style="1" customWidth="1"/>
-    <col min="2567" max="2567" width="14.296875" style="1" customWidth="1"/>
-    <col min="2568" max="2568" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="12.125" style="1" customWidth="1"/>
+    <col min="2565" max="2565" width="5.25" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="18.25" style="1" customWidth="1"/>
+    <col min="2567" max="2567" width="14.25" style="1" customWidth="1"/>
+    <col min="2568" max="2568" width="9.375" style="1" customWidth="1"/>
     <col min="2569" max="2569" width="13" style="1" customWidth="1"/>
-    <col min="2570" max="2570" width="5.19921875" style="1" customWidth="1"/>
-    <col min="2571" max="2572" width="8.09765625" style="1"/>
-    <col min="2573" max="2573" width="11.19921875" style="1" customWidth="1"/>
-    <col min="2574" max="2574" width="2.8984375" style="1" customWidth="1"/>
-    <col min="2575" max="2816" width="8.09765625" style="1"/>
-    <col min="2817" max="2817" width="3.09765625" style="1" customWidth="1"/>
-    <col min="2818" max="2818" width="9.69921875" style="1" customWidth="1"/>
+    <col min="2570" max="2570" width="5.25" style="1" customWidth="1"/>
+    <col min="2571" max="2572" width="8.125" style="1"/>
+    <col min="2573" max="2573" width="11.25" style="1" customWidth="1"/>
+    <col min="2574" max="2574" width="2.875" style="1" customWidth="1"/>
+    <col min="2575" max="2816" width="8.125" style="1"/>
+    <col min="2817" max="2817" width="3.125" style="1" customWidth="1"/>
+    <col min="2818" max="2818" width="9.75" style="1" customWidth="1"/>
     <col min="2819" max="2819" width="4" style="1" customWidth="1"/>
-    <col min="2820" max="2820" width="12.09765625" style="1" customWidth="1"/>
-    <col min="2821" max="2821" width="5.19921875" style="1" customWidth="1"/>
-    <col min="2822" max="2822" width="18.19921875" style="1" customWidth="1"/>
-    <col min="2823" max="2823" width="14.296875" style="1" customWidth="1"/>
-    <col min="2824" max="2824" width="9.3984375" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="12.125" style="1" customWidth="1"/>
+    <col min="2821" max="2821" width="5.25" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="18.25" style="1" customWidth="1"/>
+    <col min="2823" max="2823" width="14.25" style="1" customWidth="1"/>
+    <col min="2824" max="2824" width="9.375" style="1" customWidth="1"/>
     <col min="2825" max="2825" width="13" style="1" customWidth="1"/>
-    <col min="2826" max="2826" width="5.19921875" style="1" customWidth="1"/>
-    <col min="2827" max="2828" width="8.09765625" style="1"/>
-    <col min="2829" max="2829" width="11.19921875" style="1" customWidth="1"/>
-    <col min="2830" max="2830" width="2.8984375" style="1" customWidth="1"/>
-    <col min="2831" max="3072" width="8.09765625" style="1"/>
-    <col min="3073" max="3073" width="3.09765625" style="1" customWidth="1"/>
-    <col min="3074" max="3074" width="9.69921875" style="1" customWidth="1"/>
+    <col min="2826" max="2826" width="5.25" style="1" customWidth="1"/>
+    <col min="2827" max="2828" width="8.125" style="1"/>
+    <col min="2829" max="2829" width="11.25" style="1" customWidth="1"/>
+    <col min="2830" max="2830" width="2.875" style="1" customWidth="1"/>
+    <col min="2831" max="3072" width="8.125" style="1"/>
+    <col min="3073" max="3073" width="3.125" style="1" customWidth="1"/>
+    <col min="3074" max="3074" width="9.75" style="1" customWidth="1"/>
     <col min="3075" max="3075" width="4" style="1" customWidth="1"/>
-    <col min="3076" max="3076" width="12.09765625" style="1" customWidth="1"/>
-    <col min="3077" max="3077" width="5.19921875" style="1" customWidth="1"/>
-    <col min="3078" max="3078" width="18.19921875" style="1" customWidth="1"/>
-    <col min="3079" max="3079" width="14.296875" style="1" customWidth="1"/>
-    <col min="3080" max="3080" width="9.3984375" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="12.125" style="1" customWidth="1"/>
+    <col min="3077" max="3077" width="5.25" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="18.25" style="1" customWidth="1"/>
+    <col min="3079" max="3079" width="14.25" style="1" customWidth="1"/>
+    <col min="3080" max="3080" width="9.375" style="1" customWidth="1"/>
     <col min="3081" max="3081" width="13" style="1" customWidth="1"/>
-    <col min="3082" max="3082" width="5.19921875" style="1" customWidth="1"/>
-    <col min="3083" max="3084" width="8.09765625" style="1"/>
-    <col min="3085" max="3085" width="11.19921875" style="1" customWidth="1"/>
-    <col min="3086" max="3086" width="2.8984375" style="1" customWidth="1"/>
-    <col min="3087" max="3328" width="8.09765625" style="1"/>
-    <col min="3329" max="3329" width="3.09765625" style="1" customWidth="1"/>
-    <col min="3330" max="3330" width="9.69921875" style="1" customWidth="1"/>
+    <col min="3082" max="3082" width="5.25" style="1" customWidth="1"/>
+    <col min="3083" max="3084" width="8.125" style="1"/>
+    <col min="3085" max="3085" width="11.25" style="1" customWidth="1"/>
+    <col min="3086" max="3086" width="2.875" style="1" customWidth="1"/>
+    <col min="3087" max="3328" width="8.125" style="1"/>
+    <col min="3329" max="3329" width="3.125" style="1" customWidth="1"/>
+    <col min="3330" max="3330" width="9.75" style="1" customWidth="1"/>
     <col min="3331" max="3331" width="4" style="1" customWidth="1"/>
-    <col min="3332" max="3332" width="12.09765625" style="1" customWidth="1"/>
-    <col min="3333" max="3333" width="5.19921875" style="1" customWidth="1"/>
-    <col min="3334" max="3334" width="18.19921875" style="1" customWidth="1"/>
-    <col min="3335" max="3335" width="14.296875" style="1" customWidth="1"/>
-    <col min="3336" max="3336" width="9.3984375" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="12.125" style="1" customWidth="1"/>
+    <col min="3333" max="3333" width="5.25" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="18.25" style="1" customWidth="1"/>
+    <col min="3335" max="3335" width="14.25" style="1" customWidth="1"/>
+    <col min="3336" max="3336" width="9.375" style="1" customWidth="1"/>
     <col min="3337" max="3337" width="13" style="1" customWidth="1"/>
-    <col min="3338" max="3338" width="5.19921875" style="1" customWidth="1"/>
-    <col min="3339" max="3340" width="8.09765625" style="1"/>
-    <col min="3341" max="3341" width="11.19921875" style="1" customWidth="1"/>
-    <col min="3342" max="3342" width="2.8984375" style="1" customWidth="1"/>
-    <col min="3343" max="3584" width="8.09765625" style="1"/>
-    <col min="3585" max="3585" width="3.09765625" style="1" customWidth="1"/>
-    <col min="3586" max="3586" width="9.69921875" style="1" customWidth="1"/>
+    <col min="3338" max="3338" width="5.25" style="1" customWidth="1"/>
+    <col min="3339" max="3340" width="8.125" style="1"/>
+    <col min="3341" max="3341" width="11.25" style="1" customWidth="1"/>
+    <col min="3342" max="3342" width="2.875" style="1" customWidth="1"/>
+    <col min="3343" max="3584" width="8.125" style="1"/>
+    <col min="3585" max="3585" width="3.125" style="1" customWidth="1"/>
+    <col min="3586" max="3586" width="9.75" style="1" customWidth="1"/>
     <col min="3587" max="3587" width="4" style="1" customWidth="1"/>
-    <col min="3588" max="3588" width="12.09765625" style="1" customWidth="1"/>
-    <col min="3589" max="3589" width="5.19921875" style="1" customWidth="1"/>
-    <col min="3590" max="3590" width="18.19921875" style="1" customWidth="1"/>
-    <col min="3591" max="3591" width="14.296875" style="1" customWidth="1"/>
-    <col min="3592" max="3592" width="9.3984375" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="12.125" style="1" customWidth="1"/>
+    <col min="3589" max="3589" width="5.25" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="18.25" style="1" customWidth="1"/>
+    <col min="3591" max="3591" width="14.25" style="1" customWidth="1"/>
+    <col min="3592" max="3592" width="9.375" style="1" customWidth="1"/>
     <col min="3593" max="3593" width="13" style="1" customWidth="1"/>
-    <col min="3594" max="3594" width="5.19921875" style="1" customWidth="1"/>
-    <col min="3595" max="3596" width="8.09765625" style="1"/>
-    <col min="3597" max="3597" width="11.19921875" style="1" customWidth="1"/>
-    <col min="3598" max="3598" width="2.8984375" style="1" customWidth="1"/>
-    <col min="3599" max="3840" width="8.09765625" style="1"/>
-    <col min="3841" max="3841" width="3.09765625" style="1" customWidth="1"/>
-    <col min="3842" max="3842" width="9.69921875" style="1" customWidth="1"/>
+    <col min="3594" max="3594" width="5.25" style="1" customWidth="1"/>
+    <col min="3595" max="3596" width="8.125" style="1"/>
+    <col min="3597" max="3597" width="11.25" style="1" customWidth="1"/>
+    <col min="3598" max="3598" width="2.875" style="1" customWidth="1"/>
+    <col min="3599" max="3840" width="8.125" style="1"/>
+    <col min="3841" max="3841" width="3.125" style="1" customWidth="1"/>
+    <col min="3842" max="3842" width="9.75" style="1" customWidth="1"/>
     <col min="3843" max="3843" width="4" style="1" customWidth="1"/>
-    <col min="3844" max="3844" width="12.09765625" style="1" customWidth="1"/>
-    <col min="3845" max="3845" width="5.19921875" style="1" customWidth="1"/>
-    <col min="3846" max="3846" width="18.19921875" style="1" customWidth="1"/>
-    <col min="3847" max="3847" width="14.296875" style="1" customWidth="1"/>
-    <col min="3848" max="3848" width="9.3984375" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="12.125" style="1" customWidth="1"/>
+    <col min="3845" max="3845" width="5.25" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="18.25" style="1" customWidth="1"/>
+    <col min="3847" max="3847" width="14.25" style="1" customWidth="1"/>
+    <col min="3848" max="3848" width="9.375" style="1" customWidth="1"/>
     <col min="3849" max="3849" width="13" style="1" customWidth="1"/>
-    <col min="3850" max="3850" width="5.19921875" style="1" customWidth="1"/>
-    <col min="3851" max="3852" width="8.09765625" style="1"/>
-    <col min="3853" max="3853" width="11.19921875" style="1" customWidth="1"/>
-    <col min="3854" max="3854" width="2.8984375" style="1" customWidth="1"/>
-    <col min="3855" max="4096" width="8.09765625" style="1"/>
-    <col min="4097" max="4097" width="3.09765625" style="1" customWidth="1"/>
-    <col min="4098" max="4098" width="9.69921875" style="1" customWidth="1"/>
+    <col min="3850" max="3850" width="5.25" style="1" customWidth="1"/>
+    <col min="3851" max="3852" width="8.125" style="1"/>
+    <col min="3853" max="3853" width="11.25" style="1" customWidth="1"/>
+    <col min="3854" max="3854" width="2.875" style="1" customWidth="1"/>
+    <col min="3855" max="4096" width="8.125" style="1"/>
+    <col min="4097" max="4097" width="3.125" style="1" customWidth="1"/>
+    <col min="4098" max="4098" width="9.75" style="1" customWidth="1"/>
     <col min="4099" max="4099" width="4" style="1" customWidth="1"/>
-    <col min="4100" max="4100" width="12.09765625" style="1" customWidth="1"/>
-    <col min="4101" max="4101" width="5.19921875" style="1" customWidth="1"/>
-    <col min="4102" max="4102" width="18.19921875" style="1" customWidth="1"/>
-    <col min="4103" max="4103" width="14.296875" style="1" customWidth="1"/>
-    <col min="4104" max="4104" width="9.3984375" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="12.125" style="1" customWidth="1"/>
+    <col min="4101" max="4101" width="5.25" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="18.25" style="1" customWidth="1"/>
+    <col min="4103" max="4103" width="14.25" style="1" customWidth="1"/>
+    <col min="4104" max="4104" width="9.375" style="1" customWidth="1"/>
     <col min="4105" max="4105" width="13" style="1" customWidth="1"/>
-    <col min="4106" max="4106" width="5.19921875" style="1" customWidth="1"/>
-    <col min="4107" max="4108" width="8.09765625" style="1"/>
-    <col min="4109" max="4109" width="11.19921875" style="1" customWidth="1"/>
-    <col min="4110" max="4110" width="2.8984375" style="1" customWidth="1"/>
-    <col min="4111" max="4352" width="8.09765625" style="1"/>
-    <col min="4353" max="4353" width="3.09765625" style="1" customWidth="1"/>
-    <col min="4354" max="4354" width="9.69921875" style="1" customWidth="1"/>
+    <col min="4106" max="4106" width="5.25" style="1" customWidth="1"/>
+    <col min="4107" max="4108" width="8.125" style="1"/>
+    <col min="4109" max="4109" width="11.25" style="1" customWidth="1"/>
+    <col min="4110" max="4110" width="2.875" style="1" customWidth="1"/>
+    <col min="4111" max="4352" width="8.125" style="1"/>
+    <col min="4353" max="4353" width="3.125" style="1" customWidth="1"/>
+    <col min="4354" max="4354" width="9.75" style="1" customWidth="1"/>
     <col min="4355" max="4355" width="4" style="1" customWidth="1"/>
-    <col min="4356" max="4356" width="12.09765625" style="1" customWidth="1"/>
-    <col min="4357" max="4357" width="5.19921875" style="1" customWidth="1"/>
-    <col min="4358" max="4358" width="18.19921875" style="1" customWidth="1"/>
-    <col min="4359" max="4359" width="14.296875" style="1" customWidth="1"/>
-    <col min="4360" max="4360" width="9.3984375" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="12.125" style="1" customWidth="1"/>
+    <col min="4357" max="4357" width="5.25" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="18.25" style="1" customWidth="1"/>
+    <col min="4359" max="4359" width="14.25" style="1" customWidth="1"/>
+    <col min="4360" max="4360" width="9.375" style="1" customWidth="1"/>
     <col min="4361" max="4361" width="13" style="1" customWidth="1"/>
-    <col min="4362" max="4362" width="5.19921875" style="1" customWidth="1"/>
-    <col min="4363" max="4364" width="8.09765625" style="1"/>
-    <col min="4365" max="4365" width="11.19921875" style="1" customWidth="1"/>
-    <col min="4366" max="4366" width="2.8984375" style="1" customWidth="1"/>
-    <col min="4367" max="4608" width="8.09765625" style="1"/>
-    <col min="4609" max="4609" width="3.09765625" style="1" customWidth="1"/>
-    <col min="4610" max="4610" width="9.69921875" style="1" customWidth="1"/>
+    <col min="4362" max="4362" width="5.25" style="1" customWidth="1"/>
+    <col min="4363" max="4364" width="8.125" style="1"/>
+    <col min="4365" max="4365" width="11.25" style="1" customWidth="1"/>
+    <col min="4366" max="4366" width="2.875" style="1" customWidth="1"/>
+    <col min="4367" max="4608" width="8.125" style="1"/>
+    <col min="4609" max="4609" width="3.125" style="1" customWidth="1"/>
+    <col min="4610" max="4610" width="9.75" style="1" customWidth="1"/>
     <col min="4611" max="4611" width="4" style="1" customWidth="1"/>
-    <col min="4612" max="4612" width="12.09765625" style="1" customWidth="1"/>
-    <col min="4613" max="4613" width="5.19921875" style="1" customWidth="1"/>
-    <col min="4614" max="4614" width="18.19921875" style="1" customWidth="1"/>
-    <col min="4615" max="4615" width="14.296875" style="1" customWidth="1"/>
-    <col min="4616" max="4616" width="9.3984375" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="12.125" style="1" customWidth="1"/>
+    <col min="4613" max="4613" width="5.25" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="18.25" style="1" customWidth="1"/>
+    <col min="4615" max="4615" width="14.25" style="1" customWidth="1"/>
+    <col min="4616" max="4616" width="9.375" style="1" customWidth="1"/>
     <col min="4617" max="4617" width="13" style="1" customWidth="1"/>
-    <col min="4618" max="4618" width="5.19921875" style="1" customWidth="1"/>
-    <col min="4619" max="4620" width="8.09765625" style="1"/>
-    <col min="4621" max="4621" width="11.19921875" style="1" customWidth="1"/>
-    <col min="4622" max="4622" width="2.8984375" style="1" customWidth="1"/>
-    <col min="4623" max="4864" width="8.09765625" style="1"/>
-    <col min="4865" max="4865" width="3.09765625" style="1" customWidth="1"/>
-    <col min="4866" max="4866" width="9.69921875" style="1" customWidth="1"/>
+    <col min="4618" max="4618" width="5.25" style="1" customWidth="1"/>
+    <col min="4619" max="4620" width="8.125" style="1"/>
+    <col min="4621" max="4621" width="11.25" style="1" customWidth="1"/>
+    <col min="4622" max="4622" width="2.875" style="1" customWidth="1"/>
+    <col min="4623" max="4864" width="8.125" style="1"/>
+    <col min="4865" max="4865" width="3.125" style="1" customWidth="1"/>
+    <col min="4866" max="4866" width="9.75" style="1" customWidth="1"/>
     <col min="4867" max="4867" width="4" style="1" customWidth="1"/>
-    <col min="4868" max="4868" width="12.09765625" style="1" customWidth="1"/>
-    <col min="4869" max="4869" width="5.19921875" style="1" customWidth="1"/>
-    <col min="4870" max="4870" width="18.19921875" style="1" customWidth="1"/>
-    <col min="4871" max="4871" width="14.296875" style="1" customWidth="1"/>
-    <col min="4872" max="4872" width="9.3984375" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="12.125" style="1" customWidth="1"/>
+    <col min="4869" max="4869" width="5.25" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="18.25" style="1" customWidth="1"/>
+    <col min="4871" max="4871" width="14.25" style="1" customWidth="1"/>
+    <col min="4872" max="4872" width="9.375" style="1" customWidth="1"/>
     <col min="4873" max="4873" width="13" style="1" customWidth="1"/>
-    <col min="4874" max="4874" width="5.19921875" style="1" customWidth="1"/>
-    <col min="4875" max="4876" width="8.09765625" style="1"/>
-    <col min="4877" max="4877" width="11.19921875" style="1" customWidth="1"/>
-    <col min="4878" max="4878" width="2.8984375" style="1" customWidth="1"/>
-    <col min="4879" max="5120" width="8.09765625" style="1"/>
-    <col min="5121" max="5121" width="3.09765625" style="1" customWidth="1"/>
-    <col min="5122" max="5122" width="9.69921875" style="1" customWidth="1"/>
+    <col min="4874" max="4874" width="5.25" style="1" customWidth="1"/>
+    <col min="4875" max="4876" width="8.125" style="1"/>
+    <col min="4877" max="4877" width="11.25" style="1" customWidth="1"/>
+    <col min="4878" max="4878" width="2.875" style="1" customWidth="1"/>
+    <col min="4879" max="5120" width="8.125" style="1"/>
+    <col min="5121" max="5121" width="3.125" style="1" customWidth="1"/>
+    <col min="5122" max="5122" width="9.75" style="1" customWidth="1"/>
     <col min="5123" max="5123" width="4" style="1" customWidth="1"/>
-    <col min="5124" max="5124" width="12.09765625" style="1" customWidth="1"/>
-    <col min="5125" max="5125" width="5.19921875" style="1" customWidth="1"/>
-    <col min="5126" max="5126" width="18.19921875" style="1" customWidth="1"/>
-    <col min="5127" max="5127" width="14.296875" style="1" customWidth="1"/>
-    <col min="5128" max="5128" width="9.3984375" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="12.125" style="1" customWidth="1"/>
+    <col min="5125" max="5125" width="5.25" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="18.25" style="1" customWidth="1"/>
+    <col min="5127" max="5127" width="14.25" style="1" customWidth="1"/>
+    <col min="5128" max="5128" width="9.375" style="1" customWidth="1"/>
     <col min="5129" max="5129" width="13" style="1" customWidth="1"/>
-    <col min="5130" max="5130" width="5.19921875" style="1" customWidth="1"/>
-    <col min="5131" max="5132" width="8.09765625" style="1"/>
-    <col min="5133" max="5133" width="11.19921875" style="1" customWidth="1"/>
-    <col min="5134" max="5134" width="2.8984375" style="1" customWidth="1"/>
-    <col min="5135" max="5376" width="8.09765625" style="1"/>
-    <col min="5377" max="5377" width="3.09765625" style="1" customWidth="1"/>
-    <col min="5378" max="5378" width="9.69921875" style="1" customWidth="1"/>
+    <col min="5130" max="5130" width="5.25" style="1" customWidth="1"/>
+    <col min="5131" max="5132" width="8.125" style="1"/>
+    <col min="5133" max="5133" width="11.25" style="1" customWidth="1"/>
+    <col min="5134" max="5134" width="2.875" style="1" customWidth="1"/>
+    <col min="5135" max="5376" width="8.125" style="1"/>
+    <col min="5377" max="5377" width="3.125" style="1" customWidth="1"/>
+    <col min="5378" max="5378" width="9.75" style="1" customWidth="1"/>
     <col min="5379" max="5379" width="4" style="1" customWidth="1"/>
-    <col min="5380" max="5380" width="12.09765625" style="1" customWidth="1"/>
-    <col min="5381" max="5381" width="5.19921875" style="1" customWidth="1"/>
-    <col min="5382" max="5382" width="18.19921875" style="1" customWidth="1"/>
-    <col min="5383" max="5383" width="14.296875" style="1" customWidth="1"/>
-    <col min="5384" max="5384" width="9.3984375" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="12.125" style="1" customWidth="1"/>
+    <col min="5381" max="5381" width="5.25" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="18.25" style="1" customWidth="1"/>
+    <col min="5383" max="5383" width="14.25" style="1" customWidth="1"/>
+    <col min="5384" max="5384" width="9.375" style="1" customWidth="1"/>
     <col min="5385" max="5385" width="13" style="1" customWidth="1"/>
-    <col min="5386" max="5386" width="5.19921875" style="1" customWidth="1"/>
-    <col min="5387" max="5388" width="8.09765625" style="1"/>
-    <col min="5389" max="5389" width="11.19921875" style="1" customWidth="1"/>
-    <col min="5390" max="5390" width="2.8984375" style="1" customWidth="1"/>
-    <col min="5391" max="5632" width="8.09765625" style="1"/>
-    <col min="5633" max="5633" width="3.09765625" style="1" customWidth="1"/>
-    <col min="5634" max="5634" width="9.69921875" style="1" customWidth="1"/>
+    <col min="5386" max="5386" width="5.25" style="1" customWidth="1"/>
+    <col min="5387" max="5388" width="8.125" style="1"/>
+    <col min="5389" max="5389" width="11.25" style="1" customWidth="1"/>
+    <col min="5390" max="5390" width="2.875" style="1" customWidth="1"/>
+    <col min="5391" max="5632" width="8.125" style="1"/>
+    <col min="5633" max="5633" width="3.125" style="1" customWidth="1"/>
+    <col min="5634" max="5634" width="9.75" style="1" customWidth="1"/>
     <col min="5635" max="5635" width="4" style="1" customWidth="1"/>
-    <col min="5636" max="5636" width="12.09765625" style="1" customWidth="1"/>
-    <col min="5637" max="5637" width="5.19921875" style="1" customWidth="1"/>
-    <col min="5638" max="5638" width="18.19921875" style="1" customWidth="1"/>
-    <col min="5639" max="5639" width="14.296875" style="1" customWidth="1"/>
-    <col min="5640" max="5640" width="9.3984375" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="12.125" style="1" customWidth="1"/>
+    <col min="5637" max="5637" width="5.25" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="18.25" style="1" customWidth="1"/>
+    <col min="5639" max="5639" width="14.25" style="1" customWidth="1"/>
+    <col min="5640" max="5640" width="9.375" style="1" customWidth="1"/>
     <col min="5641" max="5641" width="13" style="1" customWidth="1"/>
-    <col min="5642" max="5642" width="5.19921875" style="1" customWidth="1"/>
-    <col min="5643" max="5644" width="8.09765625" style="1"/>
-    <col min="5645" max="5645" width="11.19921875" style="1" customWidth="1"/>
-    <col min="5646" max="5646" width="2.8984375" style="1" customWidth="1"/>
-    <col min="5647" max="5888" width="8.09765625" style="1"/>
-    <col min="5889" max="5889" width="3.09765625" style="1" customWidth="1"/>
-    <col min="5890" max="5890" width="9.69921875" style="1" customWidth="1"/>
+    <col min="5642" max="5642" width="5.25" style="1" customWidth="1"/>
+    <col min="5643" max="5644" width="8.125" style="1"/>
+    <col min="5645" max="5645" width="11.25" style="1" customWidth="1"/>
+    <col min="5646" max="5646" width="2.875" style="1" customWidth="1"/>
+    <col min="5647" max="5888" width="8.125" style="1"/>
+    <col min="5889" max="5889" width="3.125" style="1" customWidth="1"/>
+    <col min="5890" max="5890" width="9.75" style="1" customWidth="1"/>
     <col min="5891" max="5891" width="4" style="1" customWidth="1"/>
-    <col min="5892" max="5892" width="12.09765625" style="1" customWidth="1"/>
-    <col min="5893" max="5893" width="5.19921875" style="1" customWidth="1"/>
-    <col min="5894" max="5894" width="18.19921875" style="1" customWidth="1"/>
-    <col min="5895" max="5895" width="14.296875" style="1" customWidth="1"/>
-    <col min="5896" max="5896" width="9.3984375" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="12.125" style="1" customWidth="1"/>
+    <col min="5893" max="5893" width="5.25" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="18.25" style="1" customWidth="1"/>
+    <col min="5895" max="5895" width="14.25" style="1" customWidth="1"/>
+    <col min="5896" max="5896" width="9.375" style="1" customWidth="1"/>
     <col min="5897" max="5897" width="13" style="1" customWidth="1"/>
-    <col min="5898" max="5898" width="5.19921875" style="1" customWidth="1"/>
-    <col min="5899" max="5900" width="8.09765625" style="1"/>
-    <col min="5901" max="5901" width="11.19921875" style="1" customWidth="1"/>
-    <col min="5902" max="5902" width="2.8984375" style="1" customWidth="1"/>
-    <col min="5903" max="6144" width="8.09765625" style="1"/>
-    <col min="6145" max="6145" width="3.09765625" style="1" customWidth="1"/>
-    <col min="6146" max="6146" width="9.69921875" style="1" customWidth="1"/>
+    <col min="5898" max="5898" width="5.25" style="1" customWidth="1"/>
+    <col min="5899" max="5900" width="8.125" style="1"/>
+    <col min="5901" max="5901" width="11.25" style="1" customWidth="1"/>
+    <col min="5902" max="5902" width="2.875" style="1" customWidth="1"/>
+    <col min="5903" max="6144" width="8.125" style="1"/>
+    <col min="6145" max="6145" width="3.125" style="1" customWidth="1"/>
+    <col min="6146" max="6146" width="9.75" style="1" customWidth="1"/>
     <col min="6147" max="6147" width="4" style="1" customWidth="1"/>
-    <col min="6148" max="6148" width="12.09765625" style="1" customWidth="1"/>
-    <col min="6149" max="6149" width="5.19921875" style="1" customWidth="1"/>
-    <col min="6150" max="6150" width="18.19921875" style="1" customWidth="1"/>
-    <col min="6151" max="6151" width="14.296875" style="1" customWidth="1"/>
-    <col min="6152" max="6152" width="9.3984375" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="12.125" style="1" customWidth="1"/>
+    <col min="6149" max="6149" width="5.25" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="18.25" style="1" customWidth="1"/>
+    <col min="6151" max="6151" width="14.25" style="1" customWidth="1"/>
+    <col min="6152" max="6152" width="9.375" style="1" customWidth="1"/>
     <col min="6153" max="6153" width="13" style="1" customWidth="1"/>
-    <col min="6154" max="6154" width="5.19921875" style="1" customWidth="1"/>
-    <col min="6155" max="6156" width="8.09765625" style="1"/>
-    <col min="6157" max="6157" width="11.19921875" style="1" customWidth="1"/>
-    <col min="6158" max="6158" width="2.8984375" style="1" customWidth="1"/>
-    <col min="6159" max="6400" width="8.09765625" style="1"/>
-    <col min="6401" max="6401" width="3.09765625" style="1" customWidth="1"/>
-    <col min="6402" max="6402" width="9.69921875" style="1" customWidth="1"/>
+    <col min="6154" max="6154" width="5.25" style="1" customWidth="1"/>
+    <col min="6155" max="6156" width="8.125" style="1"/>
+    <col min="6157" max="6157" width="11.25" style="1" customWidth="1"/>
+    <col min="6158" max="6158" width="2.875" style="1" customWidth="1"/>
+    <col min="6159" max="6400" width="8.125" style="1"/>
+    <col min="6401" max="6401" width="3.125" style="1" customWidth="1"/>
+    <col min="6402" max="6402" width="9.75" style="1" customWidth="1"/>
     <col min="6403" max="6403" width="4" style="1" customWidth="1"/>
-    <col min="6404" max="6404" width="12.09765625" style="1" customWidth="1"/>
-    <col min="6405" max="6405" width="5.19921875" style="1" customWidth="1"/>
-    <col min="6406" max="6406" width="18.19921875" style="1" customWidth="1"/>
-    <col min="6407" max="6407" width="14.296875" style="1" customWidth="1"/>
-    <col min="6408" max="6408" width="9.3984375" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="12.125" style="1" customWidth="1"/>
+    <col min="6405" max="6405" width="5.25" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="18.25" style="1" customWidth="1"/>
+    <col min="6407" max="6407" width="14.25" style="1" customWidth="1"/>
+    <col min="6408" max="6408" width="9.375" style="1" customWidth="1"/>
     <col min="6409" max="6409" width="13" style="1" customWidth="1"/>
-    <col min="6410" max="6410" width="5.19921875" style="1" customWidth="1"/>
-    <col min="6411" max="6412" width="8.09765625" style="1"/>
-    <col min="6413" max="6413" width="11.19921875" style="1" customWidth="1"/>
-    <col min="6414" max="6414" width="2.8984375" style="1" customWidth="1"/>
-    <col min="6415" max="6656" width="8.09765625" style="1"/>
-    <col min="6657" max="6657" width="3.09765625" style="1" customWidth="1"/>
-    <col min="6658" max="6658" width="9.69921875" style="1" customWidth="1"/>
+    <col min="6410" max="6410" width="5.25" style="1" customWidth="1"/>
+    <col min="6411" max="6412" width="8.125" style="1"/>
+    <col min="6413" max="6413" width="11.25" style="1" customWidth="1"/>
+    <col min="6414" max="6414" width="2.875" style="1" customWidth="1"/>
+    <col min="6415" max="6656" width="8.125" style="1"/>
+    <col min="6657" max="6657" width="3.125" style="1" customWidth="1"/>
+    <col min="6658" max="6658" width="9.75" style="1" customWidth="1"/>
     <col min="6659" max="6659" width="4" style="1" customWidth="1"/>
-    <col min="6660" max="6660" width="12.09765625" style="1" customWidth="1"/>
-    <col min="6661" max="6661" width="5.19921875" style="1" customWidth="1"/>
-    <col min="6662" max="6662" width="18.19921875" style="1" customWidth="1"/>
-    <col min="6663" max="6663" width="14.296875" style="1" customWidth="1"/>
-    <col min="6664" max="6664" width="9.3984375" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="12.125" style="1" customWidth="1"/>
+    <col min="6661" max="6661" width="5.25" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="18.25" style="1" customWidth="1"/>
+    <col min="6663" max="6663" width="14.25" style="1" customWidth="1"/>
+    <col min="6664" max="6664" width="9.375" style="1" customWidth="1"/>
     <col min="6665" max="6665" width="13" style="1" customWidth="1"/>
-    <col min="6666" max="6666" width="5.19921875" style="1" customWidth="1"/>
-    <col min="6667" max="6668" width="8.09765625" style="1"/>
-    <col min="6669" max="6669" width="11.19921875" style="1" customWidth="1"/>
-    <col min="6670" max="6670" width="2.8984375" style="1" customWidth="1"/>
-    <col min="6671" max="6912" width="8.09765625" style="1"/>
-    <col min="6913" max="6913" width="3.09765625" style="1" customWidth="1"/>
-    <col min="6914" max="6914" width="9.69921875" style="1" customWidth="1"/>
+    <col min="6666" max="6666" width="5.25" style="1" customWidth="1"/>
+    <col min="6667" max="6668" width="8.125" style="1"/>
+    <col min="6669" max="6669" width="11.25" style="1" customWidth="1"/>
+    <col min="6670" max="6670" width="2.875" style="1" customWidth="1"/>
+    <col min="6671" max="6912" width="8.125" style="1"/>
+    <col min="6913" max="6913" width="3.125" style="1" customWidth="1"/>
+    <col min="6914" max="6914" width="9.75" style="1" customWidth="1"/>
     <col min="6915" max="6915" width="4" style="1" customWidth="1"/>
-    <col min="6916" max="6916" width="12.09765625" style="1" customWidth="1"/>
-    <col min="6917" max="6917" width="5.19921875" style="1" customWidth="1"/>
-    <col min="6918" max="6918" width="18.19921875" style="1" customWidth="1"/>
-    <col min="6919" max="6919" width="14.296875" style="1" customWidth="1"/>
-    <col min="6920" max="6920" width="9.3984375" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="12.125" style="1" customWidth="1"/>
+    <col min="6917" max="6917" width="5.25" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="18.25" style="1" customWidth="1"/>
+    <col min="6919" max="6919" width="14.25" style="1" customWidth="1"/>
+    <col min="6920" max="6920" width="9.375" style="1" customWidth="1"/>
     <col min="6921" max="6921" width="13" style="1" customWidth="1"/>
-    <col min="6922" max="6922" width="5.19921875" style="1" customWidth="1"/>
-    <col min="6923" max="6924" width="8.09765625" style="1"/>
-    <col min="6925" max="6925" width="11.19921875" style="1" customWidth="1"/>
-    <col min="6926" max="6926" width="2.8984375" style="1" customWidth="1"/>
-    <col min="6927" max="7168" width="8.09765625" style="1"/>
-    <col min="7169" max="7169" width="3.09765625" style="1" customWidth="1"/>
-    <col min="7170" max="7170" width="9.69921875" style="1" customWidth="1"/>
+    <col min="6922" max="6922" width="5.25" style="1" customWidth="1"/>
+    <col min="6923" max="6924" width="8.125" style="1"/>
+    <col min="6925" max="6925" width="11.25" style="1" customWidth="1"/>
+    <col min="6926" max="6926" width="2.875" style="1" customWidth="1"/>
+    <col min="6927" max="7168" width="8.125" style="1"/>
+    <col min="7169" max="7169" width="3.125" style="1" customWidth="1"/>
+    <col min="7170" max="7170" width="9.75" style="1" customWidth="1"/>
     <col min="7171" max="7171" width="4" style="1" customWidth="1"/>
-    <col min="7172" max="7172" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7173" max="7173" width="5.19921875" style="1" customWidth="1"/>
-    <col min="7174" max="7174" width="18.19921875" style="1" customWidth="1"/>
-    <col min="7175" max="7175" width="14.296875" style="1" customWidth="1"/>
-    <col min="7176" max="7176" width="9.3984375" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="12.125" style="1" customWidth="1"/>
+    <col min="7173" max="7173" width="5.25" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="18.25" style="1" customWidth="1"/>
+    <col min="7175" max="7175" width="14.25" style="1" customWidth="1"/>
+    <col min="7176" max="7176" width="9.375" style="1" customWidth="1"/>
     <col min="7177" max="7177" width="13" style="1" customWidth="1"/>
-    <col min="7178" max="7178" width="5.19921875" style="1" customWidth="1"/>
-    <col min="7179" max="7180" width="8.09765625" style="1"/>
-    <col min="7181" max="7181" width="11.19921875" style="1" customWidth="1"/>
-    <col min="7182" max="7182" width="2.8984375" style="1" customWidth="1"/>
-    <col min="7183" max="7424" width="8.09765625" style="1"/>
-    <col min="7425" max="7425" width="3.09765625" style="1" customWidth="1"/>
-    <col min="7426" max="7426" width="9.69921875" style="1" customWidth="1"/>
+    <col min="7178" max="7178" width="5.25" style="1" customWidth="1"/>
+    <col min="7179" max="7180" width="8.125" style="1"/>
+    <col min="7181" max="7181" width="11.25" style="1" customWidth="1"/>
+    <col min="7182" max="7182" width="2.875" style="1" customWidth="1"/>
+    <col min="7183" max="7424" width="8.125" style="1"/>
+    <col min="7425" max="7425" width="3.125" style="1" customWidth="1"/>
+    <col min="7426" max="7426" width="9.75" style="1" customWidth="1"/>
     <col min="7427" max="7427" width="4" style="1" customWidth="1"/>
-    <col min="7428" max="7428" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7429" max="7429" width="5.19921875" style="1" customWidth="1"/>
-    <col min="7430" max="7430" width="18.19921875" style="1" customWidth="1"/>
-    <col min="7431" max="7431" width="14.296875" style="1" customWidth="1"/>
-    <col min="7432" max="7432" width="9.3984375" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="12.125" style="1" customWidth="1"/>
+    <col min="7429" max="7429" width="5.25" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="18.25" style="1" customWidth="1"/>
+    <col min="7431" max="7431" width="14.25" style="1" customWidth="1"/>
+    <col min="7432" max="7432" width="9.375" style="1" customWidth="1"/>
     <col min="7433" max="7433" width="13" style="1" customWidth="1"/>
-    <col min="7434" max="7434" width="5.19921875" style="1" customWidth="1"/>
-    <col min="7435" max="7436" width="8.09765625" style="1"/>
-    <col min="7437" max="7437" width="11.19921875" style="1" customWidth="1"/>
-    <col min="7438" max="7438" width="2.8984375" style="1" customWidth="1"/>
-    <col min="7439" max="7680" width="8.09765625" style="1"/>
-    <col min="7681" max="7681" width="3.09765625" style="1" customWidth="1"/>
-    <col min="7682" max="7682" width="9.69921875" style="1" customWidth="1"/>
+    <col min="7434" max="7434" width="5.25" style="1" customWidth="1"/>
+    <col min="7435" max="7436" width="8.125" style="1"/>
+    <col min="7437" max="7437" width="11.25" style="1" customWidth="1"/>
+    <col min="7438" max="7438" width="2.875" style="1" customWidth="1"/>
+    <col min="7439" max="7680" width="8.125" style="1"/>
+    <col min="7681" max="7681" width="3.125" style="1" customWidth="1"/>
+    <col min="7682" max="7682" width="9.75" style="1" customWidth="1"/>
     <col min="7683" max="7683" width="4" style="1" customWidth="1"/>
-    <col min="7684" max="7684" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7685" max="7685" width="5.19921875" style="1" customWidth="1"/>
-    <col min="7686" max="7686" width="18.19921875" style="1" customWidth="1"/>
-    <col min="7687" max="7687" width="14.296875" style="1" customWidth="1"/>
-    <col min="7688" max="7688" width="9.3984375" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="12.125" style="1" customWidth="1"/>
+    <col min="7685" max="7685" width="5.25" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="18.25" style="1" customWidth="1"/>
+    <col min="7687" max="7687" width="14.25" style="1" customWidth="1"/>
+    <col min="7688" max="7688" width="9.375" style="1" customWidth="1"/>
     <col min="7689" max="7689" width="13" style="1" customWidth="1"/>
-    <col min="7690" max="7690" width="5.19921875" style="1" customWidth="1"/>
-    <col min="7691" max="7692" width="8.09765625" style="1"/>
-    <col min="7693" max="7693" width="11.19921875" style="1" customWidth="1"/>
-    <col min="7694" max="7694" width="2.8984375" style="1" customWidth="1"/>
-    <col min="7695" max="7936" width="8.09765625" style="1"/>
-    <col min="7937" max="7937" width="3.09765625" style="1" customWidth="1"/>
-    <col min="7938" max="7938" width="9.69921875" style="1" customWidth="1"/>
+    <col min="7690" max="7690" width="5.25" style="1" customWidth="1"/>
+    <col min="7691" max="7692" width="8.125" style="1"/>
+    <col min="7693" max="7693" width="11.25" style="1" customWidth="1"/>
+    <col min="7694" max="7694" width="2.875" style="1" customWidth="1"/>
+    <col min="7695" max="7936" width="8.125" style="1"/>
+    <col min="7937" max="7937" width="3.125" style="1" customWidth="1"/>
+    <col min="7938" max="7938" width="9.75" style="1" customWidth="1"/>
     <col min="7939" max="7939" width="4" style="1" customWidth="1"/>
-    <col min="7940" max="7940" width="12.09765625" style="1" customWidth="1"/>
-    <col min="7941" max="7941" width="5.19921875" style="1" customWidth="1"/>
-    <col min="7942" max="7942" width="18.19921875" style="1" customWidth="1"/>
-    <col min="7943" max="7943" width="14.296875" style="1" customWidth="1"/>
-    <col min="7944" max="7944" width="9.3984375" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="12.125" style="1" customWidth="1"/>
+    <col min="7941" max="7941" width="5.25" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="18.25" style="1" customWidth="1"/>
+    <col min="7943" max="7943" width="14.25" style="1" customWidth="1"/>
+    <col min="7944" max="7944" width="9.375" style="1" customWidth="1"/>
     <col min="7945" max="7945" width="13" style="1" customWidth="1"/>
-    <col min="7946" max="7946" width="5.19921875" style="1" customWidth="1"/>
-    <col min="7947" max="7948" width="8.09765625" style="1"/>
-    <col min="7949" max="7949" width="11.19921875" style="1" customWidth="1"/>
-    <col min="7950" max="7950" width="2.8984375" style="1" customWidth="1"/>
-    <col min="7951" max="8192" width="8.09765625" style="1"/>
-    <col min="8193" max="8193" width="3.09765625" style="1" customWidth="1"/>
-    <col min="8194" max="8194" width="9.69921875" style="1" customWidth="1"/>
+    <col min="7946" max="7946" width="5.25" style="1" customWidth="1"/>
+    <col min="7947" max="7948" width="8.125" style="1"/>
+    <col min="7949" max="7949" width="11.25" style="1" customWidth="1"/>
+    <col min="7950" max="7950" width="2.875" style="1" customWidth="1"/>
+    <col min="7951" max="8192" width="8.125" style="1"/>
+    <col min="8193" max="8193" width="3.125" style="1" customWidth="1"/>
+    <col min="8194" max="8194" width="9.75" style="1" customWidth="1"/>
     <col min="8195" max="8195" width="4" style="1" customWidth="1"/>
-    <col min="8196" max="8196" width="12.09765625" style="1" customWidth="1"/>
-    <col min="8197" max="8197" width="5.19921875" style="1" customWidth="1"/>
-    <col min="8198" max="8198" width="18.19921875" style="1" customWidth="1"/>
-    <col min="8199" max="8199" width="14.296875" style="1" customWidth="1"/>
-    <col min="8200" max="8200" width="9.3984375" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="12.125" style="1" customWidth="1"/>
+    <col min="8197" max="8197" width="5.25" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="18.25" style="1" customWidth="1"/>
+    <col min="8199" max="8199" width="14.25" style="1" customWidth="1"/>
+    <col min="8200" max="8200" width="9.375" style="1" customWidth="1"/>
     <col min="8201" max="8201" width="13" style="1" customWidth="1"/>
-    <col min="8202" max="8202" width="5.19921875" style="1" customWidth="1"/>
-    <col min="8203" max="8204" width="8.09765625" style="1"/>
-    <col min="8205" max="8205" width="11.19921875" style="1" customWidth="1"/>
-    <col min="8206" max="8206" width="2.8984375" style="1" customWidth="1"/>
-    <col min="8207" max="8448" width="8.09765625" style="1"/>
-    <col min="8449" max="8449" width="3.09765625" style="1" customWidth="1"/>
-    <col min="8450" max="8450" width="9.69921875" style="1" customWidth="1"/>
+    <col min="8202" max="8202" width="5.25" style="1" customWidth="1"/>
+    <col min="8203" max="8204" width="8.125" style="1"/>
+    <col min="8205" max="8205" width="11.25" style="1" customWidth="1"/>
+    <col min="8206" max="8206" width="2.875" style="1" customWidth="1"/>
+    <col min="8207" max="8448" width="8.125" style="1"/>
+    <col min="8449" max="8449" width="3.125" style="1" customWidth="1"/>
+    <col min="8450" max="8450" width="9.75" style="1" customWidth="1"/>
     <col min="8451" max="8451" width="4" style="1" customWidth="1"/>
-    <col min="8452" max="8452" width="12.09765625" style="1" customWidth="1"/>
-    <col min="8453" max="8453" width="5.19921875" style="1" customWidth="1"/>
-    <col min="8454" max="8454" width="18.19921875" style="1" customWidth="1"/>
-    <col min="8455" max="8455" width="14.296875" style="1" customWidth="1"/>
-    <col min="8456" max="8456" width="9.3984375" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="12.125" style="1" customWidth="1"/>
+    <col min="8453" max="8453" width="5.25" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="18.25" style="1" customWidth="1"/>
+    <col min="8455" max="8455" width="14.25" style="1" customWidth="1"/>
+    <col min="8456" max="8456" width="9.375" style="1" customWidth="1"/>
     <col min="8457" max="8457" width="13" style="1" customWidth="1"/>
-    <col min="8458" max="8458" width="5.19921875" style="1" customWidth="1"/>
-    <col min="8459" max="8460" width="8.09765625" style="1"/>
-    <col min="8461" max="8461" width="11.19921875" style="1" customWidth="1"/>
-    <col min="8462" max="8462" width="2.8984375" style="1" customWidth="1"/>
-    <col min="8463" max="8704" width="8.09765625" style="1"/>
-    <col min="8705" max="8705" width="3.09765625" style="1" customWidth="1"/>
-    <col min="8706" max="8706" width="9.69921875" style="1" customWidth="1"/>
+    <col min="8458" max="8458" width="5.25" style="1" customWidth="1"/>
+    <col min="8459" max="8460" width="8.125" style="1"/>
+    <col min="8461" max="8461" width="11.25" style="1" customWidth="1"/>
+    <col min="8462" max="8462" width="2.875" style="1" customWidth="1"/>
+    <col min="8463" max="8704" width="8.125" style="1"/>
+    <col min="8705" max="8705" width="3.125" style="1" customWidth="1"/>
+    <col min="8706" max="8706" width="9.75" style="1" customWidth="1"/>
     <col min="8707" max="8707" width="4" style="1" customWidth="1"/>
-    <col min="8708" max="8708" width="12.09765625" style="1" customWidth="1"/>
-    <col min="8709" max="8709" width="5.19921875" style="1" customWidth="1"/>
-    <col min="8710" max="8710" width="18.19921875" style="1" customWidth="1"/>
-    <col min="8711" max="8711" width="14.296875" style="1" customWidth="1"/>
-    <col min="8712" max="8712" width="9.3984375" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="12.125" style="1" customWidth="1"/>
+    <col min="8709" max="8709" width="5.25" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="18.25" style="1" customWidth="1"/>
+    <col min="8711" max="8711" width="14.25" style="1" customWidth="1"/>
+    <col min="8712" max="8712" width="9.375" style="1" customWidth="1"/>
     <col min="8713" max="8713" width="13" style="1" customWidth="1"/>
-    <col min="8714" max="8714" width="5.19921875" style="1" customWidth="1"/>
-    <col min="8715" max="8716" width="8.09765625" style="1"/>
-    <col min="8717" max="8717" width="11.19921875" style="1" customWidth="1"/>
-    <col min="8718" max="8718" width="2.8984375" style="1" customWidth="1"/>
-    <col min="8719" max="8960" width="8.09765625" style="1"/>
-    <col min="8961" max="8961" width="3.09765625" style="1" customWidth="1"/>
-    <col min="8962" max="8962" width="9.69921875" style="1" customWidth="1"/>
+    <col min="8714" max="8714" width="5.25" style="1" customWidth="1"/>
+    <col min="8715" max="8716" width="8.125" style="1"/>
+    <col min="8717" max="8717" width="11.25" style="1" customWidth="1"/>
+    <col min="8718" max="8718" width="2.875" style="1" customWidth="1"/>
+    <col min="8719" max="8960" width="8.125" style="1"/>
+    <col min="8961" max="8961" width="3.125" style="1" customWidth="1"/>
+    <col min="8962" max="8962" width="9.75" style="1" customWidth="1"/>
     <col min="8963" max="8963" width="4" style="1" customWidth="1"/>
-    <col min="8964" max="8964" width="12.09765625" style="1" customWidth="1"/>
-    <col min="8965" max="8965" width="5.19921875" style="1" customWidth="1"/>
-    <col min="8966" max="8966" width="18.19921875" style="1" customWidth="1"/>
-    <col min="8967" max="8967" width="14.296875" style="1" customWidth="1"/>
-    <col min="8968" max="8968" width="9.3984375" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="12.125" style="1" customWidth="1"/>
+    <col min="8965" max="8965" width="5.25" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="18.25" style="1" customWidth="1"/>
+    <col min="8967" max="8967" width="14.25" style="1" customWidth="1"/>
+    <col min="8968" max="8968" width="9.375" style="1" customWidth="1"/>
     <col min="8969" max="8969" width="13" style="1" customWidth="1"/>
-    <col min="8970" max="8970" width="5.19921875" style="1" customWidth="1"/>
-    <col min="8971" max="8972" width="8.09765625" style="1"/>
-    <col min="8973" max="8973" width="11.19921875" style="1" customWidth="1"/>
-    <col min="8974" max="8974" width="2.8984375" style="1" customWidth="1"/>
-    <col min="8975" max="9216" width="8.09765625" style="1"/>
-    <col min="9217" max="9217" width="3.09765625" style="1" customWidth="1"/>
-    <col min="9218" max="9218" width="9.69921875" style="1" customWidth="1"/>
+    <col min="8970" max="8970" width="5.25" style="1" customWidth="1"/>
+    <col min="8971" max="8972" width="8.125" style="1"/>
+    <col min="8973" max="8973" width="11.25" style="1" customWidth="1"/>
+    <col min="8974" max="8974" width="2.875" style="1" customWidth="1"/>
+    <col min="8975" max="9216" width="8.125" style="1"/>
+    <col min="9217" max="9217" width="3.125" style="1" customWidth="1"/>
+    <col min="9218" max="9218" width="9.75" style="1" customWidth="1"/>
     <col min="9219" max="9219" width="4" style="1" customWidth="1"/>
-    <col min="9220" max="9220" width="12.09765625" style="1" customWidth="1"/>
-    <col min="9221" max="9221" width="5.19921875" style="1" customWidth="1"/>
-    <col min="9222" max="9222" width="18.19921875" style="1" customWidth="1"/>
-    <col min="9223" max="9223" width="14.296875" style="1" customWidth="1"/>
-    <col min="9224" max="9224" width="9.3984375" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="12.125" style="1" customWidth="1"/>
+    <col min="9221" max="9221" width="5.25" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="18.25" style="1" customWidth="1"/>
+    <col min="9223" max="9223" width="14.25" style="1" customWidth="1"/>
+    <col min="9224" max="9224" width="9.375" style="1" customWidth="1"/>
     <col min="9225" max="9225" width="13" style="1" customWidth="1"/>
-    <col min="9226" max="9226" width="5.19921875" style="1" customWidth="1"/>
-    <col min="9227" max="9228" width="8.09765625" style="1"/>
-    <col min="9229" max="9229" width="11.19921875" style="1" customWidth="1"/>
-    <col min="9230" max="9230" width="2.8984375" style="1" customWidth="1"/>
-    <col min="9231" max="9472" width="8.09765625" style="1"/>
-    <col min="9473" max="9473" width="3.09765625" style="1" customWidth="1"/>
-    <col min="9474" max="9474" width="9.69921875" style="1" customWidth="1"/>
+    <col min="9226" max="9226" width="5.25" style="1" customWidth="1"/>
+    <col min="9227" max="9228" width="8.125" style="1"/>
+    <col min="9229" max="9229" width="11.25" style="1" customWidth="1"/>
+    <col min="9230" max="9230" width="2.875" style="1" customWidth="1"/>
+    <col min="9231" max="9472" width="8.125" style="1"/>
+    <col min="9473" max="9473" width="3.125" style="1" customWidth="1"/>
+    <col min="9474" max="9474" width="9.75" style="1" customWidth="1"/>
     <col min="9475" max="9475" width="4" style="1" customWidth="1"/>
-    <col min="9476" max="9476" width="12.09765625" style="1" customWidth="1"/>
-    <col min="9477" max="9477" width="5.19921875" style="1" customWidth="1"/>
-    <col min="9478" max="9478" width="18.19921875" style="1" customWidth="1"/>
-    <col min="9479" max="9479" width="14.296875" style="1" customWidth="1"/>
-    <col min="9480" max="9480" width="9.3984375" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="12.125" style="1" customWidth="1"/>
+    <col min="9477" max="9477" width="5.25" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="18.25" style="1" customWidth="1"/>
+    <col min="9479" max="9479" width="14.25" style="1" customWidth="1"/>
+    <col min="9480" max="9480" width="9.375" style="1" customWidth="1"/>
     <col min="9481" max="9481" width="13" style="1" customWidth="1"/>
-    <col min="9482" max="9482" width="5.19921875" style="1" customWidth="1"/>
-    <col min="9483" max="9484" width="8.09765625" style="1"/>
-    <col min="9485" max="9485" width="11.19921875" style="1" customWidth="1"/>
-    <col min="9486" max="9486" width="2.8984375" style="1" customWidth="1"/>
-    <col min="9487" max="9728" width="8.09765625" style="1"/>
-    <col min="9729" max="9729" width="3.09765625" style="1" customWidth="1"/>
-    <col min="9730" max="9730" width="9.69921875" style="1" customWidth="1"/>
+    <col min="9482" max="9482" width="5.25" style="1" customWidth="1"/>
+    <col min="9483" max="9484" width="8.125" style="1"/>
+    <col min="9485" max="9485" width="11.25" style="1" customWidth="1"/>
+    <col min="9486" max="9486" width="2.875" style="1" customWidth="1"/>
+    <col min="9487" max="9728" width="8.125" style="1"/>
+    <col min="9729" max="9729" width="3.125" style="1" customWidth="1"/>
+    <col min="9730" max="9730" width="9.75" style="1" customWidth="1"/>
     <col min="9731" max="9731" width="4" style="1" customWidth="1"/>
-    <col min="9732" max="9732" width="12.09765625" style="1" customWidth="1"/>
-    <col min="9733" max="9733" width="5.19921875" style="1" customWidth="1"/>
-    <col min="9734" max="9734" width="18.19921875" style="1" customWidth="1"/>
-    <col min="9735" max="9735" width="14.296875" style="1" customWidth="1"/>
-    <col min="9736" max="9736" width="9.3984375" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="12.125" style="1" customWidth="1"/>
+    <col min="9733" max="9733" width="5.25" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="18.25" style="1" customWidth="1"/>
+    <col min="9735" max="9735" width="14.25" style="1" customWidth="1"/>
+    <col min="9736" max="9736" width="9.375" style="1" customWidth="1"/>
     <col min="9737" max="9737" width="13" style="1" customWidth="1"/>
-    <col min="9738" max="9738" width="5.19921875" style="1" customWidth="1"/>
-    <col min="9739" max="9740" width="8.09765625" style="1"/>
-    <col min="9741" max="9741" width="11.19921875" style="1" customWidth="1"/>
-    <col min="9742" max="9742" width="2.8984375" style="1" customWidth="1"/>
-    <col min="9743" max="9984" width="8.09765625" style="1"/>
-    <col min="9985" max="9985" width="3.09765625" style="1" customWidth="1"/>
-    <col min="9986" max="9986" width="9.69921875" style="1" customWidth="1"/>
+    <col min="9738" max="9738" width="5.25" style="1" customWidth="1"/>
+    <col min="9739" max="9740" width="8.125" style="1"/>
+    <col min="9741" max="9741" width="11.25" style="1" customWidth="1"/>
+    <col min="9742" max="9742" width="2.875" style="1" customWidth="1"/>
+    <col min="9743" max="9984" width="8.125" style="1"/>
+    <col min="9985" max="9985" width="3.125" style="1" customWidth="1"/>
+    <col min="9986" max="9986" width="9.75" style="1" customWidth="1"/>
     <col min="9987" max="9987" width="4" style="1" customWidth="1"/>
-    <col min="9988" max="9988" width="12.09765625" style="1" customWidth="1"/>
-    <col min="9989" max="9989" width="5.19921875" style="1" customWidth="1"/>
-    <col min="9990" max="9990" width="18.19921875" style="1" customWidth="1"/>
-    <col min="9991" max="9991" width="14.296875" style="1" customWidth="1"/>
-    <col min="9992" max="9992" width="9.3984375" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="12.125" style="1" customWidth="1"/>
+    <col min="9989" max="9989" width="5.25" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="18.25" style="1" customWidth="1"/>
+    <col min="9991" max="9991" width="14.25" style="1" customWidth="1"/>
+    <col min="9992" max="9992" width="9.375" style="1" customWidth="1"/>
     <col min="9993" max="9993" width="13" style="1" customWidth="1"/>
-    <col min="9994" max="9994" width="5.19921875" style="1" customWidth="1"/>
-    <col min="9995" max="9996" width="8.09765625" style="1"/>
-    <col min="9997" max="9997" width="11.19921875" style="1" customWidth="1"/>
-    <col min="9998" max="9998" width="2.8984375" style="1" customWidth="1"/>
-    <col min="9999" max="10240" width="8.09765625" style="1"/>
-    <col min="10241" max="10241" width="3.09765625" style="1" customWidth="1"/>
-    <col min="10242" max="10242" width="9.69921875" style="1" customWidth="1"/>
+    <col min="9994" max="9994" width="5.25" style="1" customWidth="1"/>
+    <col min="9995" max="9996" width="8.125" style="1"/>
+    <col min="9997" max="9997" width="11.25" style="1" customWidth="1"/>
+    <col min="9998" max="9998" width="2.875" style="1" customWidth="1"/>
+    <col min="9999" max="10240" width="8.125" style="1"/>
+    <col min="10241" max="10241" width="3.125" style="1" customWidth="1"/>
+    <col min="10242" max="10242" width="9.75" style="1" customWidth="1"/>
     <col min="10243" max="10243" width="4" style="1" customWidth="1"/>
-    <col min="10244" max="10244" width="12.09765625" style="1" customWidth="1"/>
-    <col min="10245" max="10245" width="5.19921875" style="1" customWidth="1"/>
-    <col min="10246" max="10246" width="18.19921875" style="1" customWidth="1"/>
-    <col min="10247" max="10247" width="14.296875" style="1" customWidth="1"/>
-    <col min="10248" max="10248" width="9.3984375" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="12.125" style="1" customWidth="1"/>
+    <col min="10245" max="10245" width="5.25" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="18.25" style="1" customWidth="1"/>
+    <col min="10247" max="10247" width="14.25" style="1" customWidth="1"/>
+    <col min="10248" max="10248" width="9.375" style="1" customWidth="1"/>
     <col min="10249" max="10249" width="13" style="1" customWidth="1"/>
-    <col min="10250" max="10250" width="5.19921875" style="1" customWidth="1"/>
-    <col min="10251" max="10252" width="8.09765625" style="1"/>
-    <col min="10253" max="10253" width="11.19921875" style="1" customWidth="1"/>
-    <col min="10254" max="10254" width="2.8984375" style="1" customWidth="1"/>
-    <col min="10255" max="10496" width="8.09765625" style="1"/>
-    <col min="10497" max="10497" width="3.09765625" style="1" customWidth="1"/>
-    <col min="10498" max="10498" width="9.69921875" style="1" customWidth="1"/>
+    <col min="10250" max="10250" width="5.25" style="1" customWidth="1"/>
+    <col min="10251" max="10252" width="8.125" style="1"/>
+    <col min="10253" max="10253" width="11.25" style="1" customWidth="1"/>
+    <col min="10254" max="10254" width="2.875" style="1" customWidth="1"/>
+    <col min="10255" max="10496" width="8.125" style="1"/>
+    <col min="10497" max="10497" width="3.125" style="1" customWidth="1"/>
+    <col min="10498" max="10498" width="9.75" style="1" customWidth="1"/>
     <col min="10499" max="10499" width="4" style="1" customWidth="1"/>
-    <col min="10500" max="10500" width="12.09765625" style="1" customWidth="1"/>
-    <col min="10501" max="10501" width="5.19921875" style="1" customWidth="1"/>
-    <col min="10502" max="10502" width="18.19921875" style="1" customWidth="1"/>
-    <col min="10503" max="10503" width="14.296875" style="1" customWidth="1"/>
-    <col min="10504" max="10504" width="9.3984375" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="12.125" style="1" customWidth="1"/>
+    <col min="10501" max="10501" width="5.25" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="18.25" style="1" customWidth="1"/>
+    <col min="10503" max="10503" width="14.25" style="1" customWidth="1"/>
+    <col min="10504" max="10504" width="9.375" style="1" customWidth="1"/>
     <col min="10505" max="10505" width="13" style="1" customWidth="1"/>
-    <col min="10506" max="10506" width="5.19921875" style="1" customWidth="1"/>
-    <col min="10507" max="10508" width="8.09765625" style="1"/>
-    <col min="10509" max="10509" width="11.19921875" style="1" customWidth="1"/>
-    <col min="10510" max="10510" width="2.8984375" style="1" customWidth="1"/>
-    <col min="10511" max="10752" width="8.09765625" style="1"/>
-    <col min="10753" max="10753" width="3.09765625" style="1" customWidth="1"/>
-    <col min="10754" max="10754" width="9.69921875" style="1" customWidth="1"/>
+    <col min="10506" max="10506" width="5.25" style="1" customWidth="1"/>
+    <col min="10507" max="10508" width="8.125" style="1"/>
+    <col min="10509" max="10509" width="11.25" style="1" customWidth="1"/>
+    <col min="10510" max="10510" width="2.875" style="1" customWidth="1"/>
+    <col min="10511" max="10752" width="8.125" style="1"/>
+    <col min="10753" max="10753" width="3.125" style="1" customWidth="1"/>
+    <col min="10754" max="10754" width="9.75" style="1" customWidth="1"/>
     <col min="10755" max="10755" width="4" style="1" customWidth="1"/>
-    <col min="10756" max="10756" width="12.09765625" style="1" customWidth="1"/>
-    <col min="10757" max="10757" width="5.19921875" style="1" customWidth="1"/>
-    <col min="10758" max="10758" width="18.19921875" style="1" customWidth="1"/>
-    <col min="10759" max="10759" width="14.296875" style="1" customWidth="1"/>
-    <col min="10760" max="10760" width="9.3984375" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="12.125" style="1" customWidth="1"/>
+    <col min="10757" max="10757" width="5.25" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="18.25" style="1" customWidth="1"/>
+    <col min="10759" max="10759" width="14.25" style="1" customWidth="1"/>
+    <col min="10760" max="10760" width="9.375" style="1" customWidth="1"/>
     <col min="10761" max="10761" width="13" style="1" customWidth="1"/>
-    <col min="10762" max="10762" width="5.19921875" style="1" customWidth="1"/>
-    <col min="10763" max="10764" width="8.09765625" style="1"/>
-    <col min="10765" max="10765" width="11.19921875" style="1" customWidth="1"/>
-    <col min="10766" max="10766" width="2.8984375" style="1" customWidth="1"/>
-    <col min="10767" max="11008" width="8.09765625" style="1"/>
-    <col min="11009" max="11009" width="3.09765625" style="1" customWidth="1"/>
-    <col min="11010" max="11010" width="9.69921875" style="1" customWidth="1"/>
+    <col min="10762" max="10762" width="5.25" style="1" customWidth="1"/>
+    <col min="10763" max="10764" width="8.125" style="1"/>
+    <col min="10765" max="10765" width="11.25" style="1" customWidth="1"/>
+    <col min="10766" max="10766" width="2.875" style="1" customWidth="1"/>
+    <col min="10767" max="11008" width="8.125" style="1"/>
+    <col min="11009" max="11009" width="3.125" style="1" customWidth="1"/>
+    <col min="11010" max="11010" width="9.75" style="1" customWidth="1"/>
     <col min="11011" max="11011" width="4" style="1" customWidth="1"/>
-    <col min="11012" max="11012" width="12.09765625" style="1" customWidth="1"/>
-    <col min="11013" max="11013" width="5.19921875" style="1" customWidth="1"/>
-    <col min="11014" max="11014" width="18.19921875" style="1" customWidth="1"/>
-    <col min="11015" max="11015" width="14.296875" style="1" customWidth="1"/>
-    <col min="11016" max="11016" width="9.3984375" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="12.125" style="1" customWidth="1"/>
+    <col min="11013" max="11013" width="5.25" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="18.25" style="1" customWidth="1"/>
+    <col min="11015" max="11015" width="14.25" style="1" customWidth="1"/>
+    <col min="11016" max="11016" width="9.375" style="1" customWidth="1"/>
     <col min="11017" max="11017" width="13" style="1" customWidth="1"/>
-    <col min="11018" max="11018" width="5.19921875" style="1" customWidth="1"/>
-    <col min="11019" max="11020" width="8.09765625" style="1"/>
-    <col min="11021" max="11021" width="11.19921875" style="1" customWidth="1"/>
-    <col min="11022" max="11022" width="2.8984375" style="1" customWidth="1"/>
-    <col min="11023" max="11264" width="8.09765625" style="1"/>
-    <col min="11265" max="11265" width="3.09765625" style="1" customWidth="1"/>
-    <col min="11266" max="11266" width="9.69921875" style="1" customWidth="1"/>
+    <col min="11018" max="11018" width="5.25" style="1" customWidth="1"/>
+    <col min="11019" max="11020" width="8.125" style="1"/>
+    <col min="11021" max="11021" width="11.25" style="1" customWidth="1"/>
+    <col min="11022" max="11022" width="2.875" style="1" customWidth="1"/>
+    <col min="11023" max="11264" width="8.125" style="1"/>
+    <col min="11265" max="11265" width="3.125" style="1" customWidth="1"/>
+    <col min="11266" max="11266" width="9.75" style="1" customWidth="1"/>
     <col min="11267" max="11267" width="4" style="1" customWidth="1"/>
-    <col min="11268" max="11268" width="12.09765625" style="1" customWidth="1"/>
-    <col min="11269" max="11269" width="5.19921875" style="1" customWidth="1"/>
-    <col min="11270" max="11270" width="18.19921875" style="1" customWidth="1"/>
-    <col min="11271" max="11271" width="14.296875" style="1" customWidth="1"/>
-    <col min="11272" max="11272" width="9.3984375" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="12.125" style="1" customWidth="1"/>
+    <col min="11269" max="11269" width="5.25" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="18.25" style="1" customWidth="1"/>
+    <col min="11271" max="11271" width="14.25" style="1" customWidth="1"/>
+    <col min="11272" max="11272" width="9.375" style="1" customWidth="1"/>
     <col min="11273" max="11273" width="13" style="1" customWidth="1"/>
-    <col min="11274" max="11274" width="5.19921875" style="1" customWidth="1"/>
-    <col min="11275" max="11276" width="8.09765625" style="1"/>
-    <col min="11277" max="11277" width="11.19921875" style="1" customWidth="1"/>
-    <col min="11278" max="11278" width="2.8984375" style="1" customWidth="1"/>
-    <col min="11279" max="11520" width="8.09765625" style="1"/>
-    <col min="11521" max="11521" width="3.09765625" style="1" customWidth="1"/>
-    <col min="11522" max="11522" width="9.69921875" style="1" customWidth="1"/>
+    <col min="11274" max="11274" width="5.25" style="1" customWidth="1"/>
+    <col min="11275" max="11276" width="8.125" style="1"/>
+    <col min="11277" max="11277" width="11.25" style="1" customWidth="1"/>
+    <col min="11278" max="11278" width="2.875" style="1" customWidth="1"/>
+    <col min="11279" max="11520" width="8.125" style="1"/>
+    <col min="11521" max="11521" width="3.125" style="1" customWidth="1"/>
+    <col min="11522" max="11522" width="9.75" style="1" customWidth="1"/>
     <col min="11523" max="11523" width="4" style="1" customWidth="1"/>
-    <col min="11524" max="11524" width="12.09765625" style="1" customWidth="1"/>
-    <col min="11525" max="11525" width="5.19921875" style="1" customWidth="1"/>
-    <col min="11526" max="11526" width="18.19921875" style="1" customWidth="1"/>
-    <col min="11527" max="11527" width="14.296875" style="1" customWidth="1"/>
-    <col min="11528" max="11528" width="9.3984375" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="12.125" style="1" customWidth="1"/>
+    <col min="11525" max="11525" width="5.25" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="18.25" style="1" customWidth="1"/>
+    <col min="11527" max="11527" width="14.25" style="1" customWidth="1"/>
+    <col min="11528" max="11528" width="9.375" style="1" customWidth="1"/>
     <col min="11529" max="11529" width="13" style="1" customWidth="1"/>
-    <col min="11530" max="11530" width="5.19921875" style="1" customWidth="1"/>
-    <col min="11531" max="11532" width="8.09765625" style="1"/>
-    <col min="11533" max="11533" width="11.19921875" style="1" customWidth="1"/>
-    <col min="11534" max="11534" width="2.8984375" style="1" customWidth="1"/>
-    <col min="11535" max="11776" width="8.09765625" style="1"/>
-    <col min="11777" max="11777" width="3.09765625" style="1" customWidth="1"/>
-    <col min="11778" max="11778" width="9.69921875" style="1" customWidth="1"/>
+    <col min="11530" max="11530" width="5.25" style="1" customWidth="1"/>
+    <col min="11531" max="11532" width="8.125" style="1"/>
+    <col min="11533" max="11533" width="11.25" style="1" customWidth="1"/>
+    <col min="11534" max="11534" width="2.875" style="1" customWidth="1"/>
+    <col min="11535" max="11776" width="8.125" style="1"/>
+    <col min="11777" max="11777" width="3.125" style="1" customWidth="1"/>
+    <col min="11778" max="11778" width="9.75" style="1" customWidth="1"/>
     <col min="11779" max="11779" width="4" style="1" customWidth="1"/>
-    <col min="11780" max="11780" width="12.09765625" style="1" customWidth="1"/>
-    <col min="11781" max="11781" width="5.19921875" style="1" customWidth="1"/>
-    <col min="11782" max="11782" width="18.19921875" style="1" customWidth="1"/>
-    <col min="11783" max="11783" width="14.296875" style="1" customWidth="1"/>
-    <col min="11784" max="11784" width="9.3984375" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="12.125" style="1" customWidth="1"/>
+    <col min="11781" max="11781" width="5.25" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="18.25" style="1" customWidth="1"/>
+    <col min="11783" max="11783" width="14.25" style="1" customWidth="1"/>
+    <col min="11784" max="11784" width="9.375" style="1" customWidth="1"/>
     <col min="11785" max="11785" width="13" style="1" customWidth="1"/>
-    <col min="11786" max="11786" width="5.19921875" style="1" customWidth="1"/>
-    <col min="11787" max="11788" width="8.09765625" style="1"/>
-    <col min="11789" max="11789" width="11.19921875" style="1" customWidth="1"/>
-    <col min="11790" max="11790" width="2.8984375" style="1" customWidth="1"/>
-    <col min="11791" max="12032" width="8.09765625" style="1"/>
-    <col min="12033" max="12033" width="3.09765625" style="1" customWidth="1"/>
-    <col min="12034" max="12034" width="9.69921875" style="1" customWidth="1"/>
+    <col min="11786" max="11786" width="5.25" style="1" customWidth="1"/>
+    <col min="11787" max="11788" width="8.125" style="1"/>
+    <col min="11789" max="11789" width="11.25" style="1" customWidth="1"/>
+    <col min="11790" max="11790" width="2.875" style="1" customWidth="1"/>
+    <col min="11791" max="12032" width="8.125" style="1"/>
+    <col min="12033" max="12033" width="3.125" style="1" customWidth="1"/>
+    <col min="12034" max="12034" width="9.75" style="1" customWidth="1"/>
     <col min="12035" max="12035" width="4" style="1" customWidth="1"/>
-    <col min="12036" max="12036" width="12.09765625" style="1" customWidth="1"/>
-    <col min="12037" max="12037" width="5.19921875" style="1" customWidth="1"/>
-    <col min="12038" max="12038" width="18.19921875" style="1" customWidth="1"/>
-    <col min="12039" max="12039" width="14.296875" style="1" customWidth="1"/>
-    <col min="12040" max="12040" width="9.3984375" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="12.125" style="1" customWidth="1"/>
+    <col min="12037" max="12037" width="5.25" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="18.25" style="1" customWidth="1"/>
+    <col min="12039" max="12039" width="14.25" style="1" customWidth="1"/>
+    <col min="12040" max="12040" width="9.375" style="1" customWidth="1"/>
     <col min="12041" max="12041" width="13" style="1" customWidth="1"/>
-    <col min="12042" max="12042" width="5.19921875" style="1" customWidth="1"/>
-    <col min="12043" max="12044" width="8.09765625" style="1"/>
-    <col min="12045" max="12045" width="11.19921875" style="1" customWidth="1"/>
-    <col min="12046" max="12046" width="2.8984375" style="1" customWidth="1"/>
-    <col min="12047" max="12288" width="8.09765625" style="1"/>
-    <col min="12289" max="12289" width="3.09765625" style="1" customWidth="1"/>
-    <col min="12290" max="12290" width="9.69921875" style="1" customWidth="1"/>
+    <col min="12042" max="12042" width="5.25" style="1" customWidth="1"/>
+    <col min="12043" max="12044" width="8.125" style="1"/>
+    <col min="12045" max="12045" width="11.25" style="1" customWidth="1"/>
+    <col min="12046" max="12046" width="2.875" style="1" customWidth="1"/>
+    <col min="12047" max="12288" width="8.125" style="1"/>
+    <col min="12289" max="12289" width="3.125" style="1" customWidth="1"/>
+    <col min="12290" max="12290" width="9.75" style="1" customWidth="1"/>
     <col min="12291" max="12291" width="4" style="1" customWidth="1"/>
-    <col min="12292" max="12292" width="12.09765625" style="1" customWidth="1"/>
-    <col min="12293" max="12293" width="5.19921875" style="1" customWidth="1"/>
-    <col min="12294" max="12294" width="18.19921875" style="1" customWidth="1"/>
-    <col min="12295" max="12295" width="14.296875" style="1" customWidth="1"/>
-    <col min="12296" max="12296" width="9.3984375" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="12.125" style="1" customWidth="1"/>
+    <col min="12293" max="12293" width="5.25" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="18.25" style="1" customWidth="1"/>
+    <col min="12295" max="12295" width="14.25" style="1" customWidth="1"/>
+    <col min="12296" max="12296" width="9.375" style="1" customWidth="1"/>
     <col min="12297" max="12297" width="13" style="1" customWidth="1"/>
-    <col min="12298" max="12298" width="5.19921875" style="1" customWidth="1"/>
-    <col min="12299" max="12300" width="8.09765625" style="1"/>
-    <col min="12301" max="12301" width="11.19921875" style="1" customWidth="1"/>
-    <col min="12302" max="12302" width="2.8984375" style="1" customWidth="1"/>
-    <col min="12303" max="12544" width="8.09765625" style="1"/>
-    <col min="12545" max="12545" width="3.09765625" style="1" customWidth="1"/>
-    <col min="12546" max="12546" width="9.69921875" style="1" customWidth="1"/>
+    <col min="12298" max="12298" width="5.25" style="1" customWidth="1"/>
+    <col min="12299" max="12300" width="8.125" style="1"/>
+    <col min="12301" max="12301" width="11.25" style="1" customWidth="1"/>
+    <col min="12302" max="12302" width="2.875" style="1" customWidth="1"/>
+    <col min="12303" max="12544" width="8.125" style="1"/>
+    <col min="12545" max="12545" width="3.125" style="1" customWidth="1"/>
+    <col min="12546" max="12546" width="9.75" style="1" customWidth="1"/>
     <col min="12547" max="12547" width="4" style="1" customWidth="1"/>
-    <col min="12548" max="12548" width="12.09765625" style="1" customWidth="1"/>
-    <col min="12549" max="12549" width="5.19921875" style="1" customWidth="1"/>
-    <col min="12550" max="12550" width="18.19921875" style="1" customWidth="1"/>
-    <col min="12551" max="12551" width="14.296875" style="1" customWidth="1"/>
-    <col min="12552" max="12552" width="9.3984375" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="12.125" style="1" customWidth="1"/>
+    <col min="12549" max="12549" width="5.25" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="18.25" style="1" customWidth="1"/>
+    <col min="12551" max="12551" width="14.25" style="1" customWidth="1"/>
+    <col min="12552" max="12552" width="9.375" style="1" customWidth="1"/>
     <col min="12553" max="12553" width="13" style="1" customWidth="1"/>
-    <col min="12554" max="12554" width="5.19921875" style="1" customWidth="1"/>
-    <col min="12555" max="12556" width="8.09765625" style="1"/>
-    <col min="12557" max="12557" width="11.19921875" style="1" customWidth="1"/>
-    <col min="12558" max="12558" width="2.8984375" style="1" customWidth="1"/>
-    <col min="12559" max="12800" width="8.09765625" style="1"/>
-    <col min="12801" max="12801" width="3.09765625" style="1" customWidth="1"/>
-    <col min="12802" max="12802" width="9.69921875" style="1" customWidth="1"/>
+    <col min="12554" max="12554" width="5.25" style="1" customWidth="1"/>
+    <col min="12555" max="12556" width="8.125" style="1"/>
+    <col min="12557" max="12557" width="11.25" style="1" customWidth="1"/>
+    <col min="12558" max="12558" width="2.875" style="1" customWidth="1"/>
+    <col min="12559" max="12800" width="8.125" style="1"/>
+    <col min="12801" max="12801" width="3.125" style="1" customWidth="1"/>
+    <col min="12802" max="12802" width="9.75" style="1" customWidth="1"/>
     <col min="12803" max="12803" width="4" style="1" customWidth="1"/>
-    <col min="12804" max="12804" width="12.09765625" style="1" customWidth="1"/>
-    <col min="12805" max="12805" width="5.19921875" style="1" customWidth="1"/>
-    <col min="12806" max="12806" width="18.19921875" style="1" customWidth="1"/>
-    <col min="12807" max="12807" width="14.296875" style="1" customWidth="1"/>
-    <col min="12808" max="12808" width="9.3984375" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="12.125" style="1" customWidth="1"/>
+    <col min="12805" max="12805" width="5.25" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="18.25" style="1" customWidth="1"/>
+    <col min="12807" max="12807" width="14.25" style="1" customWidth="1"/>
+    <col min="12808" max="12808" width="9.375" style="1" customWidth="1"/>
     <col min="12809" max="12809" width="13" style="1" customWidth="1"/>
-    <col min="12810" max="12810" width="5.19921875" style="1" customWidth="1"/>
-    <col min="12811" max="12812" width="8.09765625" style="1"/>
-    <col min="12813" max="12813" width="11.19921875" style="1" customWidth="1"/>
-    <col min="12814" max="12814" width="2.8984375" style="1" customWidth="1"/>
-    <col min="12815" max="13056" width="8.09765625" style="1"/>
-    <col min="13057" max="13057" width="3.09765625" style="1" customWidth="1"/>
-    <col min="13058" max="13058" width="9.69921875" style="1" customWidth="1"/>
+    <col min="12810" max="12810" width="5.25" style="1" customWidth="1"/>
+    <col min="12811" max="12812" width="8.125" style="1"/>
+    <col min="12813" max="12813" width="11.25" style="1" customWidth="1"/>
+    <col min="12814" max="12814" width="2.875" style="1" customWidth="1"/>
+    <col min="12815" max="13056" width="8.125" style="1"/>
+    <col min="13057" max="13057" width="3.125" style="1" customWidth="1"/>
+    <col min="13058" max="13058" width="9.75" style="1" customWidth="1"/>
     <col min="13059" max="13059" width="4" style="1" customWidth="1"/>
-    <col min="13060" max="13060" width="12.09765625" style="1" customWidth="1"/>
-    <col min="13061" max="13061" width="5.19921875" style="1" customWidth="1"/>
-    <col min="13062" max="13062" width="18.19921875" style="1" customWidth="1"/>
-    <col min="13063" max="13063" width="14.296875" style="1" customWidth="1"/>
-    <col min="13064" max="13064" width="9.3984375" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="12.125" style="1" customWidth="1"/>
+    <col min="13061" max="13061" width="5.25" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="18.25" style="1" customWidth="1"/>
+    <col min="13063" max="13063" width="14.25" style="1" customWidth="1"/>
+    <col min="13064" max="13064" width="9.375" style="1" customWidth="1"/>
     <col min="13065" max="13065" width="13" style="1" customWidth="1"/>
-    <col min="13066" max="13066" width="5.19921875" style="1" customWidth="1"/>
-    <col min="13067" max="13068" width="8.09765625" style="1"/>
-    <col min="13069" max="13069" width="11.19921875" style="1" customWidth="1"/>
-    <col min="13070" max="13070" width="2.8984375" style="1" customWidth="1"/>
-    <col min="13071" max="13312" width="8.09765625" style="1"/>
-    <col min="13313" max="13313" width="3.09765625" style="1" customWidth="1"/>
-    <col min="13314" max="13314" width="9.69921875" style="1" customWidth="1"/>
+    <col min="13066" max="13066" width="5.25" style="1" customWidth="1"/>
+    <col min="13067" max="13068" width="8.125" style="1"/>
+    <col min="13069" max="13069" width="11.25" style="1" customWidth="1"/>
+    <col min="13070" max="13070" width="2.875" style="1" customWidth="1"/>
+    <col min="13071" max="13312" width="8.125" style="1"/>
+    <col min="13313" max="13313" width="3.125" style="1" customWidth="1"/>
+    <col min="13314" max="13314" width="9.75" style="1" customWidth="1"/>
     <col min="13315" max="13315" width="4" style="1" customWidth="1"/>
-    <col min="13316" max="13316" width="12.09765625" style="1" customWidth="1"/>
-    <col min="13317" max="13317" width="5.19921875" style="1" customWidth="1"/>
-    <col min="13318" max="13318" width="18.19921875" style="1" customWidth="1"/>
-    <col min="13319" max="13319" width="14.296875" style="1" customWidth="1"/>
-    <col min="13320" max="13320" width="9.3984375" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="12.125" style="1" customWidth="1"/>
+    <col min="13317" max="13317" width="5.25" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="18.25" style="1" customWidth="1"/>
+    <col min="13319" max="13319" width="14.25" style="1" customWidth="1"/>
+    <col min="13320" max="13320" width="9.375" style="1" customWidth="1"/>
     <col min="13321" max="13321" width="13" style="1" customWidth="1"/>
-    <col min="13322" max="13322" width="5.19921875" style="1" customWidth="1"/>
-    <col min="13323" max="13324" width="8.09765625" style="1"/>
-    <col min="13325" max="13325" width="11.19921875" style="1" customWidth="1"/>
-    <col min="13326" max="13326" width="2.8984375" style="1" customWidth="1"/>
-    <col min="13327" max="13568" width="8.09765625" style="1"/>
-    <col min="13569" max="13569" width="3.09765625" style="1" customWidth="1"/>
-    <col min="13570" max="13570" width="9.69921875" style="1" customWidth="1"/>
+    <col min="13322" max="13322" width="5.25" style="1" customWidth="1"/>
+    <col min="13323" max="13324" width="8.125" style="1"/>
+    <col min="13325" max="13325" width="11.25" style="1" customWidth="1"/>
+    <col min="13326" max="13326" width="2.875" style="1" customWidth="1"/>
+    <col min="13327" max="13568" width="8.125" style="1"/>
+    <col min="13569" max="13569" width="3.125" style="1" customWidth="1"/>
+    <col min="13570" max="13570" width="9.75" style="1" customWidth="1"/>
     <col min="13571" max="13571" width="4" style="1" customWidth="1"/>
-    <col min="13572" max="13572" width="12.09765625" style="1" customWidth="1"/>
-    <col min="13573" max="13573" width="5.19921875" style="1" customWidth="1"/>
-    <col min="13574" max="13574" width="18.19921875" style="1" customWidth="1"/>
-    <col min="13575" max="13575" width="14.296875" style="1" customWidth="1"/>
-    <col min="13576" max="13576" width="9.3984375" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="12.125" style="1" customWidth="1"/>
+    <col min="13573" max="13573" width="5.25" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="18.25" style="1" customWidth="1"/>
+    <col min="13575" max="13575" width="14.25" style="1" customWidth="1"/>
+    <col min="13576" max="13576" width="9.375" style="1" customWidth="1"/>
     <col min="13577" max="13577" width="13" style="1" customWidth="1"/>
-    <col min="13578" max="13578" width="5.19921875" style="1" customWidth="1"/>
-    <col min="13579" max="13580" width="8.09765625" style="1"/>
-    <col min="13581" max="13581" width="11.19921875" style="1" customWidth="1"/>
-    <col min="13582" max="13582" width="2.8984375" style="1" customWidth="1"/>
-    <col min="13583" max="13824" width="8.09765625" style="1"/>
-    <col min="13825" max="13825" width="3.09765625" style="1" customWidth="1"/>
-    <col min="13826" max="13826" width="9.69921875" style="1" customWidth="1"/>
+    <col min="13578" max="13578" width="5.25" style="1" customWidth="1"/>
+    <col min="13579" max="13580" width="8.125" style="1"/>
+    <col min="13581" max="13581" width="11.25" style="1" customWidth="1"/>
+    <col min="13582" max="13582" width="2.875" style="1" customWidth="1"/>
+    <col min="13583" max="13824" width="8.125" style="1"/>
+    <col min="13825" max="13825" width="3.125" style="1" customWidth="1"/>
+    <col min="13826" max="13826" width="9.75" style="1" customWidth="1"/>
     <col min="13827" max="13827" width="4" style="1" customWidth="1"/>
-    <col min="13828" max="13828" width="12.09765625" style="1" customWidth="1"/>
-    <col min="13829" max="13829" width="5.19921875" style="1" customWidth="1"/>
-    <col min="13830" max="13830" width="18.19921875" style="1" customWidth="1"/>
-    <col min="13831" max="13831" width="14.296875" style="1" customWidth="1"/>
-    <col min="13832" max="13832" width="9.3984375" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="12.125" style="1" customWidth="1"/>
+    <col min="13829" max="13829" width="5.25" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="18.25" style="1" customWidth="1"/>
+    <col min="13831" max="13831" width="14.25" style="1" customWidth="1"/>
+    <col min="13832" max="13832" width="9.375" style="1" customWidth="1"/>
     <col min="13833" max="13833" width="13" style="1" customWidth="1"/>
-    <col min="13834" max="13834" width="5.19921875" style="1" customWidth="1"/>
-    <col min="13835" max="13836" width="8.09765625" style="1"/>
-    <col min="13837" max="13837" width="11.19921875" style="1" customWidth="1"/>
-    <col min="13838" max="13838" width="2.8984375" style="1" customWidth="1"/>
-    <col min="13839" max="14080" width="8.09765625" style="1"/>
-    <col min="14081" max="14081" width="3.09765625" style="1" customWidth="1"/>
-    <col min="14082" max="14082" width="9.69921875" style="1" customWidth="1"/>
+    <col min="13834" max="13834" width="5.25" style="1" customWidth="1"/>
+    <col min="13835" max="13836" width="8.125" style="1"/>
+    <col min="13837" max="13837" width="11.25" style="1" customWidth="1"/>
+    <col min="13838" max="13838" width="2.875" style="1" customWidth="1"/>
+    <col min="13839" max="14080" width="8.125" style="1"/>
+    <col min="14081" max="14081" width="3.125" style="1" customWidth="1"/>
+    <col min="14082" max="14082" width="9.75" style="1" customWidth="1"/>
     <col min="14083" max="14083" width="4" style="1" customWidth="1"/>
-    <col min="14084" max="14084" width="12.09765625" style="1" customWidth="1"/>
-    <col min="14085" max="14085" width="5.19921875" style="1" customWidth="1"/>
-    <col min="14086" max="14086" width="18.19921875" style="1" customWidth="1"/>
-    <col min="14087" max="14087" width="14.296875" style="1" customWidth="1"/>
-    <col min="14088" max="14088" width="9.3984375" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="12.125" style="1" customWidth="1"/>
+    <col min="14085" max="14085" width="5.25" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="18.25" style="1" customWidth="1"/>
+    <col min="14087" max="14087" width="14.25" style="1" customWidth="1"/>
+    <col min="14088" max="14088" width="9.375" style="1" customWidth="1"/>
     <col min="14089" max="14089" width="13" style="1" customWidth="1"/>
-    <col min="14090" max="14090" width="5.19921875" style="1" customWidth="1"/>
-    <col min="14091" max="14092" width="8.09765625" style="1"/>
-    <col min="14093" max="14093" width="11.19921875" style="1" customWidth="1"/>
-    <col min="14094" max="14094" width="2.8984375" style="1" customWidth="1"/>
-    <col min="14095" max="14336" width="8.09765625" style="1"/>
-    <col min="14337" max="14337" width="3.09765625" style="1" customWidth="1"/>
-    <col min="14338" max="14338" width="9.69921875" style="1" customWidth="1"/>
+    <col min="14090" max="14090" width="5.25" style="1" customWidth="1"/>
+    <col min="14091" max="14092" width="8.125" style="1"/>
+    <col min="14093" max="14093" width="11.25" style="1" customWidth="1"/>
+    <col min="14094" max="14094" width="2.875" style="1" customWidth="1"/>
+    <col min="14095" max="14336" width="8.125" style="1"/>
+    <col min="14337" max="14337" width="3.125" style="1" customWidth="1"/>
+    <col min="14338" max="14338" width="9.75" style="1" customWidth="1"/>
     <col min="14339" max="14339" width="4" style="1" customWidth="1"/>
-    <col min="14340" max="14340" width="12.09765625" style="1" customWidth="1"/>
-    <col min="14341" max="14341" width="5.19921875" style="1" customWidth="1"/>
-    <col min="14342" max="14342" width="18.19921875" style="1" customWidth="1"/>
-    <col min="14343" max="14343" width="14.296875" style="1" customWidth="1"/>
-    <col min="14344" max="14344" width="9.3984375" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="12.125" style="1" customWidth="1"/>
+    <col min="14341" max="14341" width="5.25" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="18.25" style="1" customWidth="1"/>
+    <col min="14343" max="14343" width="14.25" style="1" customWidth="1"/>
+    <col min="14344" max="14344" width="9.375" style="1" customWidth="1"/>
     <col min="14345" max="14345" width="13" style="1" customWidth="1"/>
-    <col min="14346" max="14346" width="5.19921875" style="1" customWidth="1"/>
-    <col min="14347" max="14348" width="8.09765625" style="1"/>
-    <col min="14349" max="14349" width="11.19921875" style="1" customWidth="1"/>
-    <col min="14350" max="14350" width="2.8984375" style="1" customWidth="1"/>
-    <col min="14351" max="14592" width="8.09765625" style="1"/>
-    <col min="14593" max="14593" width="3.09765625" style="1" customWidth="1"/>
-    <col min="14594" max="14594" width="9.69921875" style="1" customWidth="1"/>
+    <col min="14346" max="14346" width="5.25" style="1" customWidth="1"/>
+    <col min="14347" max="14348" width="8.125" style="1"/>
+    <col min="14349" max="14349" width="11.25" style="1" customWidth="1"/>
+    <col min="14350" max="14350" width="2.875" style="1" customWidth="1"/>
+    <col min="14351" max="14592" width="8.125" style="1"/>
+    <col min="14593" max="14593" width="3.125" style="1" customWidth="1"/>
+    <col min="14594" max="14594" width="9.75" style="1" customWidth="1"/>
     <col min="14595" max="14595" width="4" style="1" customWidth="1"/>
-    <col min="14596" max="14596" width="12.09765625" style="1" customWidth="1"/>
-    <col min="14597" max="14597" width="5.19921875" style="1" customWidth="1"/>
-    <col min="14598" max="14598" width="18.19921875" style="1" customWidth="1"/>
-    <col min="14599" max="14599" width="14.296875" style="1" customWidth="1"/>
-    <col min="14600" max="14600" width="9.3984375" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="12.125" style="1" customWidth="1"/>
+    <col min="14597" max="14597" width="5.25" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="18.25" style="1" customWidth="1"/>
+    <col min="14599" max="14599" width="14.25" style="1" customWidth="1"/>
+    <col min="14600" max="14600" width="9.375" style="1" customWidth="1"/>
     <col min="14601" max="14601" width="13" style="1" customWidth="1"/>
-    <col min="14602" max="14602" width="5.19921875" style="1" customWidth="1"/>
-    <col min="14603" max="14604" width="8.09765625" style="1"/>
-    <col min="14605" max="14605" width="11.19921875" style="1" customWidth="1"/>
-    <col min="14606" max="14606" width="2.8984375" style="1" customWidth="1"/>
-    <col min="14607" max="14848" width="8.09765625" style="1"/>
-    <col min="14849" max="14849" width="3.09765625" style="1" customWidth="1"/>
-    <col min="14850" max="14850" width="9.69921875" style="1" customWidth="1"/>
+    <col min="14602" max="14602" width="5.25" style="1" customWidth="1"/>
+    <col min="14603" max="14604" width="8.125" style="1"/>
+    <col min="14605" max="14605" width="11.25" style="1" customWidth="1"/>
+    <col min="14606" max="14606" width="2.875" style="1" customWidth="1"/>
+    <col min="14607" max="14848" width="8.125" style="1"/>
+    <col min="14849" max="14849" width="3.125" style="1" customWidth="1"/>
+    <col min="14850" max="14850" width="9.75" style="1" customWidth="1"/>
     <col min="14851" max="14851" width="4" style="1" customWidth="1"/>
-    <col min="14852" max="14852" width="12.09765625" style="1" customWidth="1"/>
-    <col min="14853" max="14853" width="5.19921875" style="1" customWidth="1"/>
-    <col min="14854" max="14854" width="18.19921875" style="1" customWidth="1"/>
-    <col min="14855" max="14855" width="14.296875" style="1" customWidth="1"/>
-    <col min="14856" max="14856" width="9.3984375" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="12.125" style="1" customWidth="1"/>
+    <col min="14853" max="14853" width="5.25" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="18.25" style="1" customWidth="1"/>
+    <col min="14855" max="14855" width="14.25" style="1" customWidth="1"/>
+    <col min="14856" max="14856" width="9.375" style="1" customWidth="1"/>
     <col min="14857" max="14857" width="13" style="1" customWidth="1"/>
-    <col min="14858" max="14858" width="5.19921875" style="1" customWidth="1"/>
-    <col min="14859" max="14860" width="8.09765625" style="1"/>
-    <col min="14861" max="14861" width="11.19921875" style="1" customWidth="1"/>
-    <col min="14862" max="14862" width="2.8984375" style="1" customWidth="1"/>
-    <col min="14863" max="15104" width="8.09765625" style="1"/>
-    <col min="15105" max="15105" width="3.09765625" style="1" customWidth="1"/>
-    <col min="15106" max="15106" width="9.69921875" style="1" customWidth="1"/>
+    <col min="14858" max="14858" width="5.25" style="1" customWidth="1"/>
+    <col min="14859" max="14860" width="8.125" style="1"/>
+    <col min="14861" max="14861" width="11.25" style="1" customWidth="1"/>
+    <col min="14862" max="14862" width="2.875" style="1" customWidth="1"/>
+    <col min="14863" max="15104" width="8.125" style="1"/>
+    <col min="15105" max="15105" width="3.125" style="1" customWidth="1"/>
+    <col min="15106" max="15106" width="9.75" style="1" customWidth="1"/>
     <col min="15107" max="15107" width="4" style="1" customWidth="1"/>
-    <col min="15108" max="15108" width="12.09765625" style="1" customWidth="1"/>
-    <col min="15109" max="15109" width="5.19921875" style="1" customWidth="1"/>
-    <col min="15110" max="15110" width="18.19921875" style="1" customWidth="1"/>
-    <col min="15111" max="15111" width="14.296875" style="1" customWidth="1"/>
-    <col min="15112" max="15112" width="9.3984375" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="12.125" style="1" customWidth="1"/>
+    <col min="15109" max="15109" width="5.25" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="18.25" style="1" customWidth="1"/>
+    <col min="15111" max="15111" width="14.25" style="1" customWidth="1"/>
+    <col min="15112" max="15112" width="9.375" style="1" customWidth="1"/>
     <col min="15113" max="15113" width="13" style="1" customWidth="1"/>
-    <col min="15114" max="15114" width="5.19921875" style="1" customWidth="1"/>
-    <col min="15115" max="15116" width="8.09765625" style="1"/>
-    <col min="15117" max="15117" width="11.19921875" style="1" customWidth="1"/>
-    <col min="15118" max="15118" width="2.8984375" style="1" customWidth="1"/>
-    <col min="15119" max="15360" width="8.09765625" style="1"/>
-    <col min="15361" max="15361" width="3.09765625" style="1" customWidth="1"/>
-    <col min="15362" max="15362" width="9.69921875" style="1" customWidth="1"/>
+    <col min="15114" max="15114" width="5.25" style="1" customWidth="1"/>
+    <col min="15115" max="15116" width="8.125" style="1"/>
+    <col min="15117" max="15117" width="11.25" style="1" customWidth="1"/>
+    <col min="15118" max="15118" width="2.875" style="1" customWidth="1"/>
+    <col min="15119" max="15360" width="8.125" style="1"/>
+    <col min="15361" max="15361" width="3.125" style="1" customWidth="1"/>
+    <col min="15362" max="15362" width="9.75" style="1" customWidth="1"/>
     <col min="15363" max="15363" width="4" style="1" customWidth="1"/>
-    <col min="15364" max="15364" width="12.09765625" style="1" customWidth="1"/>
-    <col min="15365" max="15365" width="5.19921875" style="1" customWidth="1"/>
-    <col min="15366" max="15366" width="18.19921875" style="1" customWidth="1"/>
-    <col min="15367" max="15367" width="14.296875" style="1" customWidth="1"/>
-    <col min="15368" max="15368" width="9.3984375" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="12.125" style="1" customWidth="1"/>
+    <col min="15365" max="15365" width="5.25" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="18.25" style="1" customWidth="1"/>
+    <col min="15367" max="15367" width="14.25" style="1" customWidth="1"/>
+    <col min="15368" max="15368" width="9.375" style="1" customWidth="1"/>
     <col min="15369" max="15369" width="13" style="1" customWidth="1"/>
-    <col min="15370" max="15370" width="5.19921875" style="1" customWidth="1"/>
-    <col min="15371" max="15372" width="8.09765625" style="1"/>
-    <col min="15373" max="15373" width="11.19921875" style="1" customWidth="1"/>
-    <col min="15374" max="15374" width="2.8984375" style="1" customWidth="1"/>
-    <col min="15375" max="15616" width="8.09765625" style="1"/>
-    <col min="15617" max="15617" width="3.09765625" style="1" customWidth="1"/>
-    <col min="15618" max="15618" width="9.69921875" style="1" customWidth="1"/>
+    <col min="15370" max="15370" width="5.25" style="1" customWidth="1"/>
+    <col min="15371" max="15372" width="8.125" style="1"/>
+    <col min="15373" max="15373" width="11.25" style="1" customWidth="1"/>
+    <col min="15374" max="15374" width="2.875" style="1" customWidth="1"/>
+    <col min="15375" max="15616" width="8.125" style="1"/>
+    <col min="15617" max="15617" width="3.125" style="1" customWidth="1"/>
+    <col min="15618" max="15618" width="9.75" style="1" customWidth="1"/>
     <col min="15619" max="15619" width="4" style="1" customWidth="1"/>
-    <col min="15620" max="15620" width="12.09765625" style="1" customWidth="1"/>
-    <col min="15621" max="15621" width="5.19921875" style="1" customWidth="1"/>
-    <col min="15622" max="15622" width="18.19921875" style="1" customWidth="1"/>
-    <col min="15623" max="15623" width="14.296875" style="1" customWidth="1"/>
-    <col min="15624" max="15624" width="9.3984375" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="12.125" style="1" customWidth="1"/>
+    <col min="15621" max="15621" width="5.25" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="18.25" style="1" customWidth="1"/>
+    <col min="15623" max="15623" width="14.25" style="1" customWidth="1"/>
+    <col min="15624" max="15624" width="9.375" style="1" customWidth="1"/>
     <col min="15625" max="15625" width="13" style="1" customWidth="1"/>
-    <col min="15626" max="15626" width="5.19921875" style="1" customWidth="1"/>
-    <col min="15627" max="15628" width="8.09765625" style="1"/>
-    <col min="15629" max="15629" width="11.19921875" style="1" customWidth="1"/>
-    <col min="15630" max="15630" width="2.8984375" style="1" customWidth="1"/>
-    <col min="15631" max="15872" width="8.09765625" style="1"/>
-    <col min="15873" max="15873" width="3.09765625" style="1" customWidth="1"/>
-    <col min="15874" max="15874" width="9.69921875" style="1" customWidth="1"/>
+    <col min="15626" max="15626" width="5.25" style="1" customWidth="1"/>
+    <col min="15627" max="15628" width="8.125" style="1"/>
+    <col min="15629" max="15629" width="11.25" style="1" customWidth="1"/>
+    <col min="15630" max="15630" width="2.875" style="1" customWidth="1"/>
+    <col min="15631" max="15872" width="8.125" style="1"/>
+    <col min="15873" max="15873" width="3.125" style="1" customWidth="1"/>
+    <col min="15874" max="15874" width="9.75" style="1" customWidth="1"/>
     <col min="15875" max="15875" width="4" style="1" customWidth="1"/>
-    <col min="15876" max="15876" width="12.09765625" style="1" customWidth="1"/>
-    <col min="15877" max="15877" width="5.19921875" style="1" customWidth="1"/>
-    <col min="15878" max="15878" width="18.19921875" style="1" customWidth="1"/>
-    <col min="15879" max="15879" width="14.296875" style="1" customWidth="1"/>
-    <col min="15880" max="15880" width="9.3984375" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="12.125" style="1" customWidth="1"/>
+    <col min="15877" max="15877" width="5.25" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="18.25" style="1" customWidth="1"/>
+    <col min="15879" max="15879" width="14.25" style="1" customWidth="1"/>
+    <col min="15880" max="15880" width="9.375" style="1" customWidth="1"/>
     <col min="15881" max="15881" width="13" style="1" customWidth="1"/>
-    <col min="15882" max="15882" width="5.19921875" style="1" customWidth="1"/>
-    <col min="15883" max="15884" width="8.09765625" style="1"/>
-    <col min="15885" max="15885" width="11.19921875" style="1" customWidth="1"/>
-    <col min="15886" max="15886" width="2.8984375" style="1" customWidth="1"/>
-    <col min="15887" max="16128" width="8.09765625" style="1"/>
-    <col min="16129" max="16129" width="3.09765625" style="1" customWidth="1"/>
-    <col min="16130" max="16130" width="9.69921875" style="1" customWidth="1"/>
+    <col min="15882" max="15882" width="5.25" style="1" customWidth="1"/>
+    <col min="15883" max="15884" width="8.125" style="1"/>
+    <col min="15885" max="15885" width="11.25" style="1" customWidth="1"/>
+    <col min="15886" max="15886" width="2.875" style="1" customWidth="1"/>
+    <col min="15887" max="16128" width="8.125" style="1"/>
+    <col min="16129" max="16129" width="3.125" style="1" customWidth="1"/>
+    <col min="16130" max="16130" width="9.75" style="1" customWidth="1"/>
     <col min="16131" max="16131" width="4" style="1" customWidth="1"/>
-    <col min="16132" max="16132" width="12.09765625" style="1" customWidth="1"/>
-    <col min="16133" max="16133" width="5.19921875" style="1" customWidth="1"/>
-    <col min="16134" max="16134" width="18.19921875" style="1" customWidth="1"/>
-    <col min="16135" max="16135" width="14.296875" style="1" customWidth="1"/>
-    <col min="16136" max="16136" width="9.3984375" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="12.125" style="1" customWidth="1"/>
+    <col min="16133" max="16133" width="5.25" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="18.25" style="1" customWidth="1"/>
+    <col min="16135" max="16135" width="14.25" style="1" customWidth="1"/>
+    <col min="16136" max="16136" width="9.375" style="1" customWidth="1"/>
     <col min="16137" max="16137" width="13" style="1" customWidth="1"/>
-    <col min="16138" max="16138" width="5.19921875" style="1" customWidth="1"/>
-    <col min="16139" max="16140" width="8.09765625" style="1"/>
-    <col min="16141" max="16141" width="11.19921875" style="1" customWidth="1"/>
-    <col min="16142" max="16142" width="2.8984375" style="1" customWidth="1"/>
-    <col min="16143" max="16384" width="8.09765625" style="1"/>
+    <col min="16138" max="16138" width="5.25" style="1" customWidth="1"/>
+    <col min="16139" max="16140" width="8.125" style="1"/>
+    <col min="16141" max="16141" width="11.25" style="1" customWidth="1"/>
+    <col min="16142" max="16142" width="2.875" style="1" customWidth="1"/>
+    <col min="16143" max="16384" width="8.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:9" s="3" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
@@ -7676,131 +7709,131 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="166" t="s">
+    <row r="6" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="166"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="2:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="168" t="s">
+      <c r="C10" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="169"/>
-      <c r="H10" s="169"/>
-      <c r="I10" s="170"/>
-    </row>
-    <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D10" s="180"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="181"/>
+    </row>
+    <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="12"/>
-      <c r="C11" s="171"/>
-      <c r="D11" s="172"/>
-      <c r="E11" s="172"/>
-      <c r="F11" s="172"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="173"/>
-    </row>
-    <row r="12" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C11" s="182"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="184"/>
+    </row>
+    <row r="12" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="12"/>
-      <c r="C12" s="171"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="173"/>
-    </row>
-    <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="182"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="183"/>
+      <c r="I12" s="184"/>
+    </row>
+    <row r="13" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="12"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="173"/>
-    </row>
-    <row r="14" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C13" s="182"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="184"/>
+    </row>
+    <row r="14" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="12"/>
-      <c r="C14" s="171"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="173"/>
-    </row>
-    <row r="15" spans="2:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="182"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="184"/>
+    </row>
+    <row r="15" spans="2:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="13"/>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="176"/>
-    </row>
-    <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-    </row>
-    <row r="17" spans="2:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C15" s="185"/>
+      <c r="D15" s="186"/>
+      <c r="E15" s="186"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="186"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="187"/>
+    </row>
+    <row r="16" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="188"/>
+      <c r="D16" s="188"/>
+      <c r="E16" s="188"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="188"/>
+    </row>
+    <row r="17" spans="2:9" s="10" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="19" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="2:9" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="178" t="s">
+      <c r="C19" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="180"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="191"/>
       <c r="G19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="178"/>
-      <c r="I19" s="181"/>
-    </row>
-    <row r="20" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H19" s="189"/>
+      <c r="I19" s="192"/>
+    </row>
+    <row r="20" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="15" t="s">
         <v>11</v>
       </c>
@@ -7822,7 +7855,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="22"/>
       <c r="C21" s="1">
         <v>1</v>
@@ -7830,11 +7863,11 @@
       <c r="D21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="161" t="s">
+      <c r="E21" s="193" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="162"/>
-      <c r="G21" s="163"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="195"/>
       <c r="H21" s="24" t="s">
         <v>19</v>
       </c>
@@ -7842,7 +7875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="22"/>
       <c r="C22" s="7">
         <v>2</v>
@@ -7850,11 +7883,11 @@
       <c r="D22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="164" t="s">
+      <c r="E22" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="143"/>
-      <c r="G22" s="165"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="197"/>
       <c r="H22" s="27" t="s">
         <v>22</v>
       </c>
@@ -7862,7 +7895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="22"/>
       <c r="C23" s="1">
         <v>3</v>
@@ -7870,11 +7903,11 @@
       <c r="D23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="164" t="s">
+      <c r="E23" s="196" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="143"/>
-      <c r="G23" s="165"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="197"/>
       <c r="H23" s="24" t="s">
         <v>22</v>
       </c>
@@ -7882,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="22"/>
       <c r="C24" s="7">
         <v>4</v>
@@ -7890,11 +7923,11 @@
       <c r="D24" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="164" t="s">
+      <c r="E24" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="143"/>
-      <c r="G24" s="144"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="176"/>
       <c r="H24" s="27" t="s">
         <v>22</v>
       </c>
@@ -7902,7 +7935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="22"/>
       <c r="C25" s="1">
         <v>5</v>
@@ -7910,11 +7943,11 @@
       <c r="D25" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="142" t="s">
+      <c r="E25" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="143"/>
-      <c r="G25" s="144"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="176"/>
       <c r="H25" s="27" t="s">
         <v>28</v>
       </c>
@@ -7922,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="22"/>
       <c r="C26" s="7">
         <v>6</v>
@@ -7930,11 +7963,11 @@
       <c r="D26" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="142" t="s">
+      <c r="E26" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="143"/>
-      <c r="G26" s="144"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="176"/>
       <c r="H26" s="27" t="s">
         <v>22</v>
       </c>
@@ -7942,7 +7975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="22"/>
       <c r="C27" s="7">
         <v>7</v>
@@ -7950,11 +7983,11 @@
       <c r="D27" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="142" t="s">
+      <c r="E27" s="174" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="143"/>
-      <c r="G27" s="144"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="176"/>
       <c r="H27" s="27" t="s">
         <v>22</v>
       </c>
@@ -7962,7 +7995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="22"/>
       <c r="C28" s="7">
         <v>8</v>
@@ -7970,11 +8003,11 @@
       <c r="D28" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="142" t="s">
+      <c r="E28" s="174" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="143"/>
-      <c r="G28" s="144"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="176"/>
       <c r="H28" s="27" t="s">
         <v>81</v>
       </c>
@@ -7982,7 +8015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="22"/>
       <c r="C29" s="7">
         <v>9</v>
@@ -7990,11 +8023,11 @@
       <c r="D29" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="145" t="s">
+      <c r="E29" s="214" t="s">
         <v>84</v>
       </c>
-      <c r="F29" s="146"/>
-      <c r="G29" s="147"/>
+      <c r="F29" s="215"/>
+      <c r="G29" s="216"/>
       <c r="H29" s="27" t="s">
         <v>81</v>
       </c>
@@ -8002,7 +8035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="30"/>
       <c r="C30" s="31">
         <v>10</v>
@@ -8010,11 +8043,11 @@
       <c r="D30" s="76" t="s">
         <v>86</v>
       </c>
-      <c r="E30" s="139" t="s">
+      <c r="E30" s="211" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="140"/>
-      <c r="G30" s="141"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="213"/>
       <c r="H30" s="32" t="s">
         <v>31</v>
       </c>
@@ -8022,150 +8055,132 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:9" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" s="10" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B33" s="10" t="s">
         <v>32</v>
       </c>
       <c r="H33" s="34"/>
       <c r="I33" s="35"/>
     </row>
-    <row r="34" spans="2:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="35" spans="2:9" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="35" spans="2:9" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B35" s="36"/>
       <c r="C35" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="157" t="s">
+      <c r="D35" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="158"/>
-      <c r="F35" s="158"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="157" t="s">
+      <c r="E35" s="201"/>
+      <c r="F35" s="201"/>
+      <c r="G35" s="202"/>
+      <c r="H35" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="160"/>
-    </row>
-    <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I35" s="203"/>
+    </row>
+    <row r="36" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C36" s="39">
         <v>1</v>
       </c>
-      <c r="D36" s="148"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="156"/>
-    </row>
-    <row r="37" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" s="204"/>
+      <c r="E36" s="205"/>
+      <c r="F36" s="205"/>
+      <c r="G36" s="206"/>
+      <c r="H36" s="198"/>
+      <c r="I36" s="199"/>
+    </row>
+    <row r="37" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C37" s="39">
         <v>2</v>
       </c>
-      <c r="D37" s="148"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="156"/>
-    </row>
-    <row r="38" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D37" s="204"/>
+      <c r="E37" s="205"/>
+      <c r="F37" s="205"/>
+      <c r="G37" s="206"/>
+      <c r="H37" s="198"/>
+      <c r="I37" s="199"/>
+    </row>
+    <row r="38" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="12"/>
       <c r="C38" s="39">
         <v>3</v>
       </c>
-      <c r="D38" s="148"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="155"/>
-      <c r="I38" s="156"/>
-    </row>
-    <row r="39" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" s="204"/>
+      <c r="E38" s="205"/>
+      <c r="F38" s="205"/>
+      <c r="G38" s="206"/>
+      <c r="H38" s="198"/>
+      <c r="I38" s="199"/>
+    </row>
+    <row r="39" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="12"/>
       <c r="C39" s="39">
         <v>4</v>
       </c>
-      <c r="D39" s="148"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="156"/>
-    </row>
-    <row r="40" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D39" s="204"/>
+      <c r="E39" s="205"/>
+      <c r="F39" s="205"/>
+      <c r="G39" s="206"/>
+      <c r="H39" s="198"/>
+      <c r="I39" s="199"/>
+    </row>
+    <row r="40" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="12"/>
       <c r="C40" s="39">
         <v>5</v>
       </c>
-      <c r="D40" s="148"/>
-      <c r="E40" s="149"/>
-      <c r="F40" s="149"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="151"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D40" s="204"/>
+      <c r="E40" s="205"/>
+      <c r="F40" s="205"/>
+      <c r="G40" s="206"/>
+      <c r="H40" s="204"/>
+      <c r="I40" s="217"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B41" s="12"/>
       <c r="C41" s="39">
         <v>6</v>
       </c>
-      <c r="D41" s="152"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="154"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="151"/>
-    </row>
-    <row r="42" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D41" s="218"/>
+      <c r="E41" s="219"/>
+      <c r="F41" s="219"/>
+      <c r="G41" s="220"/>
+      <c r="H41" s="204"/>
+      <c r="I41" s="217"/>
+    </row>
+    <row r="42" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="12"/>
       <c r="C42" s="39">
         <v>7</v>
       </c>
-      <c r="D42" s="148"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="151"/>
-    </row>
-    <row r="43" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="204"/>
+      <c r="E42" s="205"/>
+      <c r="F42" s="205"/>
+      <c r="G42" s="206"/>
+      <c r="H42" s="204"/>
+      <c r="I42" s="217"/>
+    </row>
+    <row r="43" spans="2:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B43" s="13"/>
       <c r="C43" s="40">
         <v>8</v>
       </c>
-      <c r="D43" s="135"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="135"/>
-      <c r="I43" s="138"/>
+      <c r="D43" s="207"/>
+      <c r="E43" s="208"/>
+      <c r="F43" s="208"/>
+      <c r="G43" s="209"/>
+      <c r="H43" s="207"/>
+      <c r="I43" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="C10:I15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="D35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="H36:I36"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="E30:G30"/>
@@ -8182,6 +8197,24 @@
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="C10:I15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -8199,19 +8232,19 @@
       <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.8984375" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="77" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="D14" t="s">
         <v>97</v>
       </c>
@@ -8222,37 +8255,37 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:44" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:44" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="2:44" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="2:44" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:44" x14ac:dyDescent="0.4">
       <c r="D20" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="2:44" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="23" spans="2:44" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:44" x14ac:dyDescent="0.4">
       <c r="D23" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="2:44" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:44" x14ac:dyDescent="0.4">
       <c r="D24" s="81" t="s">
         <v>106</v>
       </c>
@@ -8303,7 +8336,7 @@
       <c r="AQ24" s="82"/>
       <c r="AR24" s="83"/>
     </row>
-    <row r="25" spans="2:44" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:44" x14ac:dyDescent="0.4">
       <c r="D25" s="84">
         <v>1</v>
       </c>
@@ -8352,7 +8385,7 @@
       <c r="AQ25" s="85"/>
       <c r="AR25" s="86"/>
     </row>
-    <row r="26" spans="2:44" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:44" x14ac:dyDescent="0.4">
       <c r="D26" s="78">
         <v>2</v>
       </c>
@@ -8401,12 +8434,12 @@
       <c r="AQ26" s="79"/>
       <c r="AR26" s="80"/>
     </row>
-    <row r="28" spans="2:44" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:44" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="2:44" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:44" x14ac:dyDescent="0.4">
       <c r="D29" t="s">
         <v>115</v>
       </c>
@@ -8414,7 +8447,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="2:44" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:44" x14ac:dyDescent="0.4">
       <c r="D30" t="s">
         <v>115</v>
       </c>
@@ -8422,7 +8455,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="2:44" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:44" x14ac:dyDescent="0.4">
       <c r="D31" t="s">
         <v>115</v>
       </c>
@@ -8441,35 +8474,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591B07A0-150A-42B3-8439-C419787ED092}">
   <dimension ref="E11:BT64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S43" sqref="S43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="12" max="12" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="4.8984375" customWidth="1"/>
+    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="9:45" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="AB11" s="185" t="s">
+    <row r="11" spans="9:45" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="AB11" s="90" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="9:45" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="I14" s="183" t="s">
+    <row r="14" spans="9:45" ht="24" x14ac:dyDescent="0.4">
+      <c r="I14" s="88" t="s">
         <v>119</v>
       </c>
-      <c r="AS14" s="184" t="s">
+      <c r="AS14" s="89" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="9:45" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="I15" s="183" t="s">
+    <row r="15" spans="9:45" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="I15" s="88" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="5:39" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:39" x14ac:dyDescent="0.4">
       <c r="AB17" t="s">
         <v>97</v>
       </c>
@@ -8480,7 +8514,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="5:39" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:39" x14ac:dyDescent="0.4">
       <c r="AB18" t="s">
         <v>100</v>
       </c>
@@ -8491,8 +8525,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="5:39" x14ac:dyDescent="0.45">
-      <c r="AA19" s="188" t="s">
+    <row r="19" spans="5:39" x14ac:dyDescent="0.4">
+      <c r="AA19" s="93" t="s">
         <v>123</v>
       </c>
       <c r="AE19" t="s">
@@ -8502,895 +8536,896 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="5:39" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="AG24" s="187"/>
-    </row>
-    <row r="29" spans="5:39" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="E29" s="184" t="s">
+    <row r="24" spans="5:39" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="AG24" s="92"/>
+    </row>
+    <row r="29" spans="5:39" ht="24" x14ac:dyDescent="0.4">
+      <c r="E29" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="L29" s="182" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="5:39" x14ac:dyDescent="0.45">
-      <c r="E30" s="182" t="s">
+      <c r="L29" s="87" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="5:39" x14ac:dyDescent="0.4">
+      <c r="E30" s="87" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="5:39" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="E31" s="182" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE31" s="184" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM31" s="182" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="5:39" x14ac:dyDescent="0.45">
+    <row r="31" spans="5:39" ht="24" x14ac:dyDescent="0.4">
+      <c r="E31" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE31" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM31" s="87" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="5:39" x14ac:dyDescent="0.4">
       <c r="E32" t="s">
         <v>126</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>127</v>
       </c>
       <c r="L32" t="s">
         <v>128</v>
       </c>
-      <c r="AE32" s="182" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="5:72" x14ac:dyDescent="0.45">
-      <c r="E33" s="189">
-        <v>1</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="O32" t="s">
         <v>129</v>
       </c>
-      <c r="L33" s="190" t="s">
-        <v>133</v>
-      </c>
-      <c r="S33" s="186" t="s">
-        <v>138</v>
-      </c>
-      <c r="T33" s="191" t="s">
-        <v>139</v>
-      </c>
-      <c r="U33" s="191"/>
-      <c r="V33" s="191"/>
-      <c r="AE33" s="182" t="s">
-        <v>145</v>
-      </c>
-      <c r="AI33" s="182" t="s">
+      <c r="S32" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE32" s="87" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="5:72" x14ac:dyDescent="0.4">
+      <c r="E33" s="94" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" s="221" t="s">
+        <v>167</v>
+      </c>
+      <c r="L33">
+        <v>20210301</v>
+      </c>
+      <c r="O33" t="s">
+        <v>131</v>
+      </c>
+      <c r="S33" s="91"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="AE33" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI33" s="87" t="s">
         <v>98</v>
       </c>
-      <c r="AK33" s="182" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="5:72" x14ac:dyDescent="0.45">
-      <c r="E34" s="189">
-        <v>2</v>
-      </c>
-      <c r="G34" t="s">
-        <v>130</v>
+      <c r="AK33" s="87" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="5:72" x14ac:dyDescent="0.4">
+      <c r="E34" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="I34" s="221" t="s">
+        <v>171</v>
       </c>
       <c r="L34">
-        <v>1230001</v>
-      </c>
-      <c r="S34" s="191" t="s">
-        <v>138</v>
-      </c>
-      <c r="T34" s="191" t="s">
-        <v>140</v>
-      </c>
-      <c r="U34" s="191"/>
-      <c r="V34" s="191"/>
-      <c r="AE34" s="182" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="5:72" x14ac:dyDescent="0.45">
-      <c r="E35" s="189">
-        <v>3</v>
-      </c>
-      <c r="G35" t="s">
-        <v>131</v>
+        <v>20210301</v>
+      </c>
+      <c r="O34" t="s">
+        <v>174</v>
+      </c>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="95"/>
+      <c r="AE34" s="87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="5:72" x14ac:dyDescent="0.4">
+      <c r="E35" s="94" t="s">
+        <v>169</v>
+      </c>
+      <c r="I35" s="221" t="s">
+        <v>172</v>
       </c>
       <c r="L35">
         <v>20210301</v>
       </c>
-      <c r="S35" s="191" t="s">
-        <v>138</v>
-      </c>
-      <c r="T35" s="191" t="s">
-        <v>141</v>
-      </c>
-      <c r="U35" s="191"/>
-      <c r="V35" s="191"/>
-      <c r="AE35" s="194" t="s">
+      <c r="O35" t="s">
+        <v>175</v>
+      </c>
+      <c r="S35" s="95"/>
+      <c r="T35" s="95"/>
+      <c r="U35" s="95"/>
+      <c r="V35" s="95"/>
+      <c r="AE35" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="AF35" s="195"/>
-      <c r="AG35" s="194" t="s">
+      <c r="AF35" s="99"/>
+      <c r="AG35" s="98" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH35" s="99"/>
+      <c r="AI35" s="99"/>
+      <c r="AJ35" s="99"/>
+      <c r="AK35" s="99"/>
+      <c r="AL35" s="99"/>
+      <c r="AM35" s="99"/>
+      <c r="AN35" s="99"/>
+      <c r="AO35" s="116"/>
+      <c r="AP35" s="99" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ35" s="99"/>
+      <c r="AR35" s="99"/>
+      <c r="AS35" s="99"/>
+      <c r="AT35" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU35" s="99"/>
+      <c r="AV35" s="99"/>
+      <c r="AW35" s="116"/>
+      <c r="AX35" s="99" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY35" s="99"/>
+      <c r="AZ35" s="99"/>
+      <c r="BA35" s="99"/>
+      <c r="BB35" s="99"/>
+      <c r="BC35" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="BD35" s="116"/>
+      <c r="BE35" s="99" t="s">
         <v>149</v>
       </c>
-      <c r="AH35" s="195"/>
-      <c r="AI35" s="195"/>
-      <c r="AJ35" s="195"/>
-      <c r="AK35" s="195"/>
-      <c r="AL35" s="195"/>
-      <c r="AM35" s="195"/>
-      <c r="AN35" s="195"/>
-      <c r="AO35" s="212"/>
-      <c r="AP35" s="195" t="s">
+      <c r="BF35" s="99"/>
+      <c r="BG35" s="99"/>
+      <c r="BH35" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="BI35" s="99"/>
+      <c r="BJ35" s="99"/>
+      <c r="BK35" s="116"/>
+      <c r="BL35" s="99" t="s">
+        <v>162</v>
+      </c>
+      <c r="BM35" s="99"/>
+      <c r="BN35" s="99"/>
+      <c r="BO35" s="99"/>
+      <c r="BP35" s="99"/>
+      <c r="BQ35" s="98" t="s">
+        <v>163</v>
+      </c>
+      <c r="BR35" s="99"/>
+      <c r="BS35" s="99"/>
+      <c r="BT35" s="100"/>
+    </row>
+    <row r="36" spans="5:72" x14ac:dyDescent="0.4">
+      <c r="E36" s="94" t="s">
+        <v>170</v>
+      </c>
+      <c r="I36" s="221" t="s">
+        <v>173</v>
+      </c>
+      <c r="L36">
+        <v>20210301</v>
+      </c>
+      <c r="O36" t="s">
+        <v>176</v>
+      </c>
+      <c r="S36" s="95"/>
+      <c r="T36" s="95"/>
+      <c r="U36" s="95"/>
+      <c r="V36" s="95"/>
+      <c r="AE36" s="101">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="102"/>
+      <c r="AG36" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH36" s="102"/>
+      <c r="AI36" s="102"/>
+      <c r="AJ36" s="102"/>
+      <c r="AK36" s="102"/>
+      <c r="AL36" s="102"/>
+      <c r="AM36" s="102"/>
+      <c r="AN36" s="102"/>
+      <c r="AO36" s="117"/>
+      <c r="AP36" s="101" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ36" s="102"/>
+      <c r="AR36" s="102"/>
+      <c r="AS36" s="102"/>
+      <c r="AT36" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU36" s="102"/>
+      <c r="AV36" s="102"/>
+      <c r="AW36" s="117"/>
+      <c r="AX36" s="101"/>
+      <c r="AY36" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="AZ36" s="102"/>
+      <c r="BA36" s="102"/>
+      <c r="BB36" s="117"/>
+      <c r="BC36" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD36" s="102"/>
+      <c r="BE36" s="101" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF36" s="102"/>
+      <c r="BG36" s="117"/>
+      <c r="BH36" s="102"/>
+      <c r="BI36" s="102">
+        <v>10</v>
+      </c>
+      <c r="BJ36" s="102"/>
+      <c r="BK36" s="102"/>
+      <c r="BL36" s="101"/>
+      <c r="BM36" s="102"/>
+      <c r="BN36" s="102"/>
+      <c r="BO36" s="102"/>
+      <c r="BP36" s="117"/>
+      <c r="BQ36" s="102"/>
+      <c r="BR36" s="102"/>
+      <c r="BS36" s="102"/>
+      <c r="BT36" s="86"/>
+    </row>
+    <row r="37" spans="5:72" x14ac:dyDescent="0.4">
+      <c r="E37" s="87" t="s">
+        <v>134</v>
+      </c>
+      <c r="S37" s="87"/>
+      <c r="AE37" s="104">
+        <v>2</v>
+      </c>
+      <c r="AF37" s="105"/>
+      <c r="AG37" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH37" s="105"/>
+      <c r="AI37" s="105"/>
+      <c r="AJ37" s="105"/>
+      <c r="AK37" s="105"/>
+      <c r="AL37" s="105"/>
+      <c r="AM37" s="105"/>
+      <c r="AN37" s="105"/>
+      <c r="AO37" s="118"/>
+      <c r="AP37" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ37" s="105"/>
+      <c r="AR37" s="105"/>
+      <c r="AS37" s="105"/>
+      <c r="AT37" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU37" s="105"/>
+      <c r="AV37" s="105"/>
+      <c r="AW37" s="118"/>
+      <c r="AX37" s="104"/>
+      <c r="AY37" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ37" s="105"/>
+      <c r="BA37" s="105"/>
+      <c r="BB37" s="118"/>
+      <c r="BC37" s="106"/>
+      <c r="BD37" s="105"/>
+      <c r="BE37" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF37" s="105"/>
+      <c r="BG37" s="118"/>
+      <c r="BH37" s="105"/>
+      <c r="BI37" s="105">
+        <v>6</v>
+      </c>
+      <c r="BJ37" s="105"/>
+      <c r="BK37" s="105"/>
+      <c r="BL37" s="104"/>
+      <c r="BM37" s="105"/>
+      <c r="BN37" s="105"/>
+      <c r="BO37" s="105"/>
+      <c r="BP37" s="118"/>
+      <c r="BQ37" s="105"/>
+      <c r="BR37" s="105"/>
+      <c r="BS37" s="105"/>
+      <c r="BT37" s="107"/>
+    </row>
+    <row r="38" spans="5:72" x14ac:dyDescent="0.4">
+      <c r="G38" s="91"/>
+      <c r="AE38" s="104">
+        <v>3</v>
+      </c>
+      <c r="AF38" s="105"/>
+      <c r="AG38" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="AH38" s="105"/>
+      <c r="AI38" s="105"/>
+      <c r="AJ38" s="105"/>
+      <c r="AK38" s="105"/>
+      <c r="AL38" s="105"/>
+      <c r="AM38" s="105"/>
+      <c r="AN38" s="105"/>
+      <c r="AO38" s="118"/>
+      <c r="AP38" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ38" s="105"/>
+      <c r="AR38" s="105"/>
+      <c r="AS38" s="105"/>
+      <c r="AT38" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU38" s="105"/>
+      <c r="AV38" s="105"/>
+      <c r="AW38" s="118"/>
+      <c r="AX38" s="104"/>
+      <c r="AY38" s="105" t="s">
+        <v>155</v>
+      </c>
+      <c r="AZ38" s="105"/>
+      <c r="BA38" s="105"/>
+      <c r="BB38" s="118"/>
+      <c r="BC38" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD38" s="105"/>
+      <c r="BE38" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF38" s="105"/>
+      <c r="BG38" s="118"/>
+      <c r="BH38" s="105"/>
+      <c r="BI38" s="105">
+        <v>8</v>
+      </c>
+      <c r="BJ38" s="105"/>
+      <c r="BK38" s="105"/>
+      <c r="BL38" s="104"/>
+      <c r="BM38" s="105"/>
+      <c r="BN38" s="105"/>
+      <c r="BO38" s="105"/>
+      <c r="BP38" s="118"/>
+      <c r="BQ38" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="BR38" s="105"/>
+      <c r="BS38" s="105"/>
+      <c r="BT38" s="107"/>
+    </row>
+    <row r="39" spans="5:72" x14ac:dyDescent="0.4">
+      <c r="AE39" s="122" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF39" s="109"/>
+      <c r="AG39" s="104"/>
+      <c r="AH39" s="105"/>
+      <c r="AI39" s="124" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ39" s="105"/>
+      <c r="AK39" s="105"/>
+      <c r="AL39" s="105"/>
+      <c r="AM39" s="105"/>
+      <c r="AN39" s="105"/>
+      <c r="AO39" s="118"/>
+      <c r="AP39" s="121"/>
+      <c r="AQ39" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR39" s="110"/>
+      <c r="AS39" s="110"/>
+      <c r="AT39" s="121"/>
+      <c r="AU39" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV39" s="110"/>
+      <c r="AW39" s="118"/>
+      <c r="AX39" s="108"/>
+      <c r="AY39" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ39" s="105"/>
+      <c r="BA39" s="105"/>
+      <c r="BB39" s="118"/>
+      <c r="BC39" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="BD39" s="105"/>
+      <c r="BE39" s="104"/>
+      <c r="BF39" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG39" s="118"/>
+      <c r="BH39" s="105"/>
+      <c r="BI39" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ39" s="111"/>
+      <c r="BK39" s="111"/>
+      <c r="BL39" s="104"/>
+      <c r="BM39" s="105"/>
+      <c r="BN39" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="BO39" s="105"/>
+      <c r="BP39" s="118"/>
+      <c r="BQ39" s="105"/>
+      <c r="BR39" s="124" t="s">
+        <v>133</v>
+      </c>
+      <c r="BS39" s="105"/>
+      <c r="BT39" s="107"/>
+    </row>
+    <row r="40" spans="5:72" x14ac:dyDescent="0.4">
+      <c r="AE40" s="104">
+        <v>57</v>
+      </c>
+      <c r="AF40" s="105"/>
+      <c r="AG40" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH40" s="105"/>
+      <c r="AI40" s="105"/>
+      <c r="AJ40" s="105"/>
+      <c r="AK40" s="105"/>
+      <c r="AL40" s="105"/>
+      <c r="AM40" s="105"/>
+      <c r="AN40" s="105"/>
+      <c r="AO40" s="118"/>
+      <c r="AP40" s="104" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ40" s="105"/>
+      <c r="AR40" s="105"/>
+      <c r="AS40" s="105"/>
+      <c r="AT40" s="104" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU40" s="105"/>
+      <c r="AV40" s="105"/>
+      <c r="AW40" s="118"/>
+      <c r="AX40" s="104"/>
+      <c r="AY40" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="AZ40" s="105"/>
+      <c r="BA40" s="105"/>
+      <c r="BB40" s="118"/>
+      <c r="BC40" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD40" s="105"/>
+      <c r="BE40" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF40" s="105"/>
+      <c r="BG40" s="118"/>
+      <c r="BH40" s="105"/>
+      <c r="BI40" s="105">
+        <v>10</v>
+      </c>
+      <c r="BJ40" s="105"/>
+      <c r="BK40" s="105"/>
+      <c r="BL40" s="104"/>
+      <c r="BM40" s="105"/>
+      <c r="BN40" s="105"/>
+      <c r="BO40" s="105"/>
+      <c r="BP40" s="118"/>
+      <c r="BQ40" s="105"/>
+      <c r="BR40" s="105"/>
+      <c r="BS40" s="105"/>
+      <c r="BT40" s="107"/>
+    </row>
+    <row r="41" spans="5:72" x14ac:dyDescent="0.4">
+      <c r="AE41" s="104">
+        <v>58</v>
+      </c>
+      <c r="AF41" s="105"/>
+      <c r="AG41" s="104" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH41" s="105"/>
+      <c r="AI41" s="105"/>
+      <c r="AJ41" s="105"/>
+      <c r="AK41" s="105"/>
+      <c r="AL41" s="105"/>
+      <c r="AM41" s="105"/>
+      <c r="AN41" s="105"/>
+      <c r="AO41" s="118"/>
+      <c r="AP41" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ41" s="105"/>
+      <c r="AR41" s="105"/>
+      <c r="AS41" s="105"/>
+      <c r="AT41" s="104" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU41" s="105"/>
+      <c r="AV41" s="105"/>
+      <c r="AW41" s="118"/>
+      <c r="AX41" s="104"/>
+      <c r="AY41" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="AZ41" s="105"/>
+      <c r="BA41" s="105"/>
+      <c r="BB41" s="118"/>
+      <c r="BC41" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD41" s="105"/>
+      <c r="BE41" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF41" s="105"/>
+      <c r="BG41" s="118"/>
+      <c r="BH41" s="105"/>
+      <c r="BI41" s="105">
+        <v>6</v>
+      </c>
+      <c r="BJ41" s="105"/>
+      <c r="BK41" s="105"/>
+      <c r="BL41" s="104"/>
+      <c r="BM41" s="105"/>
+      <c r="BN41" s="105"/>
+      <c r="BO41" s="105"/>
+      <c r="BP41" s="118"/>
+      <c r="BQ41" s="105"/>
+      <c r="BR41" s="105"/>
+      <c r="BS41" s="105"/>
+      <c r="BT41" s="107"/>
+    </row>
+    <row r="42" spans="5:72" x14ac:dyDescent="0.4">
+      <c r="AE42" s="104">
+        <v>59</v>
+      </c>
+      <c r="AF42" s="105"/>
+      <c r="AG42" s="104" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH42" s="105"/>
+      <c r="AI42" s="105"/>
+      <c r="AJ42" s="105"/>
+      <c r="AK42" s="105"/>
+      <c r="AL42" s="105"/>
+      <c r="AM42" s="105"/>
+      <c r="AN42" s="105"/>
+      <c r="AO42" s="118"/>
+      <c r="AP42" s="104" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ42" s="105"/>
+      <c r="AR42" s="105"/>
+      <c r="AS42" s="105"/>
+      <c r="AT42" s="104" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU42" s="105"/>
+      <c r="AV42" s="105"/>
+      <c r="AW42" s="118"/>
+      <c r="AX42" s="104"/>
+      <c r="AY42" s="105" t="s">
+        <v>160</v>
+      </c>
+      <c r="AZ42" s="105"/>
+      <c r="BA42" s="105"/>
+      <c r="BB42" s="118"/>
+      <c r="BC42" s="106" t="s">
+        <v>156</v>
+      </c>
+      <c r="BD42" s="105"/>
+      <c r="BE42" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF42" s="105"/>
+      <c r="BG42" s="118"/>
+      <c r="BH42" s="105"/>
+      <c r="BI42" s="105">
+        <v>8</v>
+      </c>
+      <c r="BJ42" s="105"/>
+      <c r="BK42" s="105"/>
+      <c r="BL42" s="104"/>
+      <c r="BM42" s="105"/>
+      <c r="BN42" s="105"/>
+      <c r="BO42" s="105"/>
+      <c r="BP42" s="118"/>
+      <c r="BQ42" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="BR42" s="105"/>
+      <c r="BS42" s="105"/>
+      <c r="BT42" s="107"/>
+    </row>
+    <row r="43" spans="5:72" x14ac:dyDescent="0.4">
+      <c r="AE43" s="123" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF43" s="120"/>
+      <c r="AG43" s="112"/>
+      <c r="AH43" s="113"/>
+      <c r="AI43" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ43" s="113"/>
+      <c r="AK43" s="113"/>
+      <c r="AL43" s="113"/>
+      <c r="AM43" s="113"/>
+      <c r="AN43" s="113"/>
+      <c r="AO43" s="119"/>
+      <c r="AP43" s="112"/>
+      <c r="AQ43" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR43" s="113"/>
+      <c r="AS43" s="113"/>
+      <c r="AT43" s="112"/>
+      <c r="AU43" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV43" s="113"/>
+      <c r="AW43" s="119"/>
+      <c r="AX43" s="112"/>
+      <c r="AY43" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ43" s="113"/>
+      <c r="BA43" s="113"/>
+      <c r="BB43" s="119"/>
+      <c r="BC43" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="BD43" s="113"/>
+      <c r="BE43" s="112"/>
+      <c r="BF43" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="BG43" s="119"/>
+      <c r="BH43" s="113"/>
+      <c r="BI43" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="BJ43" s="114"/>
+      <c r="BK43" s="114"/>
+      <c r="BL43" s="112"/>
+      <c r="BM43" s="113"/>
+      <c r="BN43" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="BO43" s="113"/>
+      <c r="BP43" s="119"/>
+      <c r="BQ43" s="113"/>
+      <c r="BR43" s="125" t="s">
+        <v>133</v>
+      </c>
+      <c r="BS43" s="113"/>
+      <c r="BT43" s="115"/>
+    </row>
+    <row r="44" spans="5:72" x14ac:dyDescent="0.4">
+      <c r="AE44" s="96"/>
+      <c r="AF44" s="96"/>
+      <c r="AG44" s="96"/>
+      <c r="AH44" s="96"/>
+      <c r="AI44" s="96"/>
+      <c r="AJ44" s="96"/>
+      <c r="AK44" s="96"/>
+      <c r="AL44" s="96"/>
+      <c r="AM44" s="96"/>
+      <c r="AN44" s="96"/>
+      <c r="AO44" s="96"/>
+      <c r="AP44" s="96"/>
+      <c r="AQ44" s="96"/>
+      <c r="AR44" s="96"/>
+      <c r="AS44" s="96"/>
+      <c r="AT44" s="96"/>
+      <c r="AU44" s="96"/>
+      <c r="AV44" s="96"/>
+      <c r="AW44" s="96"/>
+      <c r="AX44" s="96"/>
+      <c r="AY44" s="96"/>
+      <c r="AZ44" s="96"/>
+      <c r="BA44" s="96"/>
+      <c r="BB44" s="96"/>
+      <c r="BC44" s="96"/>
+      <c r="BD44" s="96"/>
+      <c r="BE44" s="96"/>
+      <c r="BF44" s="96"/>
+      <c r="BG44" s="96"/>
+      <c r="BH44" s="96"/>
+      <c r="BI44" s="96"/>
+      <c r="BJ44" s="97"/>
+      <c r="BK44" s="97"/>
+      <c r="BL44" s="96"/>
+      <c r="BM44" s="96"/>
+      <c r="BN44" s="96"/>
+      <c r="BO44" s="96"/>
+      <c r="BP44" s="96"/>
+      <c r="BQ44" s="96"/>
+      <c r="BR44" s="96"/>
+      <c r="BS44" s="96"/>
+      <c r="BT44" s="97"/>
+    </row>
+    <row r="45" spans="5:72" x14ac:dyDescent="0.4">
+      <c r="AG45" s="95"/>
+      <c r="AH45" s="95"/>
+      <c r="AI45" s="95"/>
+      <c r="AJ45" s="95"/>
+      <c r="AK45" s="95"/>
+      <c r="AL45" s="95"/>
+      <c r="AM45" s="95"/>
+      <c r="AN45" s="95"/>
+      <c r="AO45" s="95"/>
+      <c r="AP45" s="95"/>
+      <c r="AQ45" s="95"/>
+      <c r="AR45" s="95"/>
+      <c r="AS45" s="95"/>
+      <c r="AT45" s="95"/>
+      <c r="AU45" s="95"/>
+      <c r="AV45" s="95"/>
+      <c r="AW45" s="95"/>
+      <c r="AX45" s="95"/>
+      <c r="AY45" s="95"/>
+      <c r="AZ45" s="95"/>
+      <c r="BA45" s="95"/>
+      <c r="BB45" s="95"/>
+      <c r="BC45" s="95"/>
+      <c r="BD45" s="95"/>
+      <c r="BE45" s="95"/>
+      <c r="BF45" s="95"/>
+      <c r="BG45" s="95"/>
+      <c r="BH45" s="95"/>
+      <c r="BI45" s="95"/>
+      <c r="BJ45" s="95"/>
+      <c r="BK45" s="95"/>
+      <c r="BL45" s="95"/>
+      <c r="BM45" s="95"/>
+      <c r="BN45" s="95"/>
+      <c r="BO45" s="95"/>
+      <c r="BP45" s="95"/>
+      <c r="BQ45" s="95"/>
+      <c r="BR45" s="95"/>
+      <c r="BS45" s="95"/>
+    </row>
+    <row r="46" spans="5:72" x14ac:dyDescent="0.4">
+      <c r="AG46" s="95"/>
+      <c r="AH46" s="95"/>
+      <c r="AI46" s="95"/>
+      <c r="AJ46" s="95"/>
+      <c r="AK46" s="95"/>
+      <c r="AL46" s="95"/>
+      <c r="AM46" s="95"/>
+      <c r="AN46" s="95"/>
+      <c r="AO46" s="95"/>
+      <c r="AP46" s="95"/>
+      <c r="AQ46" s="95"/>
+      <c r="AR46" s="95"/>
+      <c r="AS46" s="95"/>
+      <c r="AT46" s="95"/>
+      <c r="AU46" s="95"/>
+      <c r="AV46" s="95"/>
+      <c r="AW46" s="95"/>
+      <c r="AX46" s="95"/>
+      <c r="AY46" s="95"/>
+      <c r="AZ46" s="95"/>
+      <c r="BA46" s="95"/>
+      <c r="BB46" s="95"/>
+      <c r="BC46" s="95"/>
+      <c r="BD46" s="95"/>
+      <c r="BE46" s="95"/>
+      <c r="BF46" s="95"/>
+      <c r="BG46" s="95"/>
+      <c r="BH46" s="95"/>
+      <c r="BI46" s="95"/>
+      <c r="BJ46" s="95"/>
+      <c r="BK46" s="95"/>
+      <c r="BL46" s="95"/>
+      <c r="BM46" s="95"/>
+      <c r="BN46" s="95"/>
+      <c r="BO46" s="95"/>
+      <c r="BP46" s="95"/>
+      <c r="BQ46" s="95"/>
+      <c r="BR46" s="95"/>
+      <c r="BS46" s="95"/>
+    </row>
+    <row r="47" spans="5:72" x14ac:dyDescent="0.4">
+      <c r="AG47" s="95"/>
+      <c r="AH47" s="95"/>
+      <c r="AI47" s="95"/>
+      <c r="AJ47" s="95"/>
+      <c r="AK47" s="95"/>
+      <c r="AL47" s="95"/>
+      <c r="AM47" s="95"/>
+      <c r="AN47" s="95"/>
+      <c r="AO47" s="95"/>
+      <c r="AP47" s="95"/>
+      <c r="AQ47" s="95"/>
+      <c r="AR47" s="95"/>
+      <c r="AS47" s="95"/>
+      <c r="AT47" s="95"/>
+      <c r="AU47" s="95"/>
+      <c r="AV47" s="95"/>
+      <c r="AW47" s="95"/>
+      <c r="AX47" s="95"/>
+      <c r="AY47" s="95"/>
+      <c r="AZ47" s="95"/>
+      <c r="BA47" s="95"/>
+      <c r="BB47" s="95"/>
+      <c r="BC47" s="95"/>
+      <c r="BD47" s="95"/>
+      <c r="BE47" s="95"/>
+      <c r="BF47" s="95"/>
+      <c r="BG47" s="95"/>
+      <c r="BH47" s="95"/>
+      <c r="BI47" s="95"/>
+      <c r="BJ47" s="95"/>
+      <c r="BK47" s="95"/>
+      <c r="BL47" s="95"/>
+      <c r="BM47" s="95"/>
+      <c r="BN47" s="95"/>
+      <c r="BO47" s="95"/>
+      <c r="BP47" s="95"/>
+      <c r="BQ47" s="95"/>
+      <c r="BR47" s="95"/>
+      <c r="BS47" s="95"/>
+    </row>
+    <row r="49" spans="11:40" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="T49" s="90" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="11:40" ht="24" x14ac:dyDescent="0.4">
+      <c r="AN61" s="89" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="63" spans="11:40" ht="13.9" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" spans="11:40" x14ac:dyDescent="0.4">
+      <c r="K64" s="91" t="s">
         <v>150</v>
       </c>
-      <c r="AQ35" s="195"/>
-      <c r="AR35" s="195"/>
-      <c r="AS35" s="195"/>
-      <c r="AT35" s="194" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU35" s="195"/>
-      <c r="AV35" s="195"/>
-      <c r="AW35" s="212"/>
-      <c r="AX35" s="195" t="s">
+      <c r="L64" s="91"/>
+      <c r="M64" s="91"/>
+      <c r="N64" s="91"/>
+      <c r="O64" s="91"/>
+      <c r="P64" s="91"/>
+      <c r="Q64" s="91"/>
+      <c r="R64" s="91"/>
+      <c r="S64" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="AY35" s="195"/>
-      <c r="AZ35" s="195"/>
-      <c r="BA35" s="195"/>
-      <c r="BB35" s="195"/>
-      <c r="BC35" s="194" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD35" s="212"/>
-      <c r="BE35" s="195" t="s">
-        <v>154</v>
-      </c>
-      <c r="BF35" s="195"/>
-      <c r="BG35" s="195"/>
-      <c r="BH35" s="194" t="s">
+      <c r="T64" s="91"/>
+      <c r="U64" s="91"/>
+      <c r="V64" s="91"/>
+      <c r="W64" s="91"/>
+      <c r="X64" s="91"/>
+      <c r="Y64" s="91"/>
+      <c r="Z64" s="91"/>
+      <c r="AA64" s="91"/>
+      <c r="AB64" s="91"/>
+      <c r="AC64" s="91"/>
+      <c r="AD64" s="91" t="s">
         <v>166</v>
-      </c>
-      <c r="BI35" s="195"/>
-      <c r="BJ35" s="195"/>
-      <c r="BK35" s="212"/>
-      <c r="BL35" s="195" t="s">
-        <v>167</v>
-      </c>
-      <c r="BM35" s="195"/>
-      <c r="BN35" s="195"/>
-      <c r="BO35" s="195"/>
-      <c r="BP35" s="195"/>
-      <c r="BQ35" s="194" t="s">
-        <v>168</v>
-      </c>
-      <c r="BR35" s="195"/>
-      <c r="BS35" s="195"/>
-      <c r="BT35" s="196"/>
-    </row>
-    <row r="36" spans="5:72" x14ac:dyDescent="0.45">
-      <c r="E36" s="189">
-        <v>4</v>
-      </c>
-      <c r="G36" t="s">
-        <v>132</v>
-      </c>
-      <c r="L36" t="s">
-        <v>134</v>
-      </c>
-      <c r="S36" s="191" t="s">
-        <v>138</v>
-      </c>
-      <c r="T36" s="191" t="s">
-        <v>142</v>
-      </c>
-      <c r="U36" s="191"/>
-      <c r="V36" s="191"/>
-      <c r="AE36" s="197">
-        <v>1</v>
-      </c>
-      <c r="AF36" s="198"/>
-      <c r="AG36" s="197" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH36" s="198"/>
-      <c r="AI36" s="198"/>
-      <c r="AJ36" s="198"/>
-      <c r="AK36" s="198"/>
-      <c r="AL36" s="198"/>
-      <c r="AM36" s="198"/>
-      <c r="AN36" s="198"/>
-      <c r="AO36" s="213"/>
-      <c r="AP36" s="197" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ36" s="198"/>
-      <c r="AR36" s="198"/>
-      <c r="AS36" s="198"/>
-      <c r="AT36" s="197" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU36" s="198"/>
-      <c r="AV36" s="198"/>
-      <c r="AW36" s="213"/>
-      <c r="AX36" s="197"/>
-      <c r="AY36" s="198" t="s">
-        <v>158</v>
-      </c>
-      <c r="AZ36" s="198"/>
-      <c r="BA36" s="198"/>
-      <c r="BB36" s="213"/>
-      <c r="BC36" s="199" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD36" s="198"/>
-      <c r="BE36" s="197" t="s">
-        <v>162</v>
-      </c>
-      <c r="BF36" s="198"/>
-      <c r="BG36" s="213"/>
-      <c r="BH36" s="198"/>
-      <c r="BI36" s="198">
-        <v>10</v>
-      </c>
-      <c r="BJ36" s="198"/>
-      <c r="BK36" s="198"/>
-      <c r="BL36" s="197"/>
-      <c r="BM36" s="198"/>
-      <c r="BN36" s="198"/>
-      <c r="BO36" s="198"/>
-      <c r="BP36" s="213"/>
-      <c r="BQ36" s="198"/>
-      <c r="BR36" s="198"/>
-      <c r="BS36" s="198"/>
-      <c r="BT36" s="86"/>
-    </row>
-    <row r="37" spans="5:72" x14ac:dyDescent="0.45">
-      <c r="E37" s="182" t="s">
-        <v>137</v>
-      </c>
-      <c r="S37" s="182" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE37" s="200">
-        <v>2</v>
-      </c>
-      <c r="AF37" s="201"/>
-      <c r="AG37" s="200" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH37" s="201"/>
-      <c r="AI37" s="201"/>
-      <c r="AJ37" s="201"/>
-      <c r="AK37" s="201"/>
-      <c r="AL37" s="201"/>
-      <c r="AM37" s="201"/>
-      <c r="AN37" s="201"/>
-      <c r="AO37" s="214"/>
-      <c r="AP37" s="200" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ37" s="201"/>
-      <c r="AR37" s="201"/>
-      <c r="AS37" s="201"/>
-      <c r="AT37" s="200" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU37" s="201"/>
-      <c r="AV37" s="201"/>
-      <c r="AW37" s="214"/>
-      <c r="AX37" s="200"/>
-      <c r="AY37" s="201" t="s">
-        <v>159</v>
-      </c>
-      <c r="AZ37" s="201"/>
-      <c r="BA37" s="201"/>
-      <c r="BB37" s="214"/>
-      <c r="BC37" s="202"/>
-      <c r="BD37" s="201"/>
-      <c r="BE37" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="BF37" s="201"/>
-      <c r="BG37" s="214"/>
-      <c r="BH37" s="201"/>
-      <c r="BI37" s="201">
-        <v>6</v>
-      </c>
-      <c r="BJ37" s="201"/>
-      <c r="BK37" s="201"/>
-      <c r="BL37" s="200"/>
-      <c r="BM37" s="201"/>
-      <c r="BN37" s="201"/>
-      <c r="BO37" s="201"/>
-      <c r="BP37" s="214"/>
-      <c r="BQ37" s="201"/>
-      <c r="BR37" s="201"/>
-      <c r="BS37" s="201"/>
-      <c r="BT37" s="203"/>
-    </row>
-    <row r="38" spans="5:72" x14ac:dyDescent="0.45">
-      <c r="AE38" s="200">
-        <v>3</v>
-      </c>
-      <c r="AF38" s="201"/>
-      <c r="AG38" s="200" t="s">
-        <v>156</v>
-      </c>
-      <c r="AH38" s="201"/>
-      <c r="AI38" s="201"/>
-      <c r="AJ38" s="201"/>
-      <c r="AK38" s="201"/>
-      <c r="AL38" s="201"/>
-      <c r="AM38" s="201"/>
-      <c r="AN38" s="201"/>
-      <c r="AO38" s="214"/>
-      <c r="AP38" s="200" t="s">
-        <v>141</v>
-      </c>
-      <c r="AQ38" s="201"/>
-      <c r="AR38" s="201"/>
-      <c r="AS38" s="201"/>
-      <c r="AT38" s="200" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU38" s="201"/>
-      <c r="AV38" s="201"/>
-      <c r="AW38" s="214"/>
-      <c r="AX38" s="200"/>
-      <c r="AY38" s="201" t="s">
-        <v>160</v>
-      </c>
-      <c r="AZ38" s="201"/>
-      <c r="BA38" s="201"/>
-      <c r="BB38" s="214"/>
-      <c r="BC38" s="202" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD38" s="201"/>
-      <c r="BE38" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="BF38" s="201"/>
-      <c r="BG38" s="214"/>
-      <c r="BH38" s="201"/>
-      <c r="BI38" s="201">
-        <v>8</v>
-      </c>
-      <c r="BJ38" s="201"/>
-      <c r="BK38" s="201"/>
-      <c r="BL38" s="200"/>
-      <c r="BM38" s="201"/>
-      <c r="BN38" s="201"/>
-      <c r="BO38" s="201"/>
-      <c r="BP38" s="214"/>
-      <c r="BQ38" s="201" t="s">
-        <v>169</v>
-      </c>
-      <c r="BR38" s="201"/>
-      <c r="BS38" s="201"/>
-      <c r="BT38" s="203"/>
-    </row>
-    <row r="39" spans="5:72" x14ac:dyDescent="0.45">
-      <c r="AE39" s="218" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF39" s="205"/>
-      <c r="AG39" s="200"/>
-      <c r="AH39" s="201"/>
-      <c r="AI39" s="220" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ39" s="201"/>
-      <c r="AK39" s="201"/>
-      <c r="AL39" s="201"/>
-      <c r="AM39" s="201"/>
-      <c r="AN39" s="201"/>
-      <c r="AO39" s="214"/>
-      <c r="AP39" s="217"/>
-      <c r="AQ39" s="220" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR39" s="206"/>
-      <c r="AS39" s="206"/>
-      <c r="AT39" s="217"/>
-      <c r="AU39" s="220" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV39" s="206"/>
-      <c r="AW39" s="214"/>
-      <c r="AX39" s="204"/>
-      <c r="AY39" s="220" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ39" s="201"/>
-      <c r="BA39" s="201"/>
-      <c r="BB39" s="214"/>
-      <c r="BC39" s="220" t="s">
-        <v>136</v>
-      </c>
-      <c r="BD39" s="201"/>
-      <c r="BE39" s="200"/>
-      <c r="BF39" s="220" t="s">
-        <v>136</v>
-      </c>
-      <c r="BG39" s="214"/>
-      <c r="BH39" s="201"/>
-      <c r="BI39" s="220" t="s">
-        <v>136</v>
-      </c>
-      <c r="BJ39" s="207"/>
-      <c r="BK39" s="207"/>
-      <c r="BL39" s="200"/>
-      <c r="BM39" s="201"/>
-      <c r="BN39" s="220" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO39" s="201"/>
-      <c r="BP39" s="214"/>
-      <c r="BQ39" s="201"/>
-      <c r="BR39" s="220" t="s">
-        <v>136</v>
-      </c>
-      <c r="BS39" s="201"/>
-      <c r="BT39" s="203"/>
-    </row>
-    <row r="40" spans="5:72" x14ac:dyDescent="0.45">
-      <c r="AE40" s="200">
-        <v>57</v>
-      </c>
-      <c r="AF40" s="201"/>
-      <c r="AG40" s="200" t="s">
-        <v>170</v>
-      </c>
-      <c r="AH40" s="201"/>
-      <c r="AI40" s="201"/>
-      <c r="AJ40" s="201"/>
-      <c r="AK40" s="201"/>
-      <c r="AL40" s="201"/>
-      <c r="AM40" s="201"/>
-      <c r="AN40" s="201"/>
-      <c r="AO40" s="214"/>
-      <c r="AP40" s="200" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ40" s="201"/>
-      <c r="AR40" s="201"/>
-      <c r="AS40" s="201"/>
-      <c r="AT40" s="200" t="s">
-        <v>129</v>
-      </c>
-      <c r="AU40" s="201"/>
-      <c r="AV40" s="201"/>
-      <c r="AW40" s="214"/>
-      <c r="AX40" s="200"/>
-      <c r="AY40" s="201" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ40" s="201"/>
-      <c r="BA40" s="201"/>
-      <c r="BB40" s="214"/>
-      <c r="BC40" s="202" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD40" s="201"/>
-      <c r="BE40" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="BF40" s="201"/>
-      <c r="BG40" s="214"/>
-      <c r="BH40" s="201"/>
-      <c r="BI40" s="201">
-        <v>10</v>
-      </c>
-      <c r="BJ40" s="201"/>
-      <c r="BK40" s="201"/>
-      <c r="BL40" s="200"/>
-      <c r="BM40" s="201"/>
-      <c r="BN40" s="201"/>
-      <c r="BO40" s="201"/>
-      <c r="BP40" s="214"/>
-      <c r="BQ40" s="201"/>
-      <c r="BR40" s="201"/>
-      <c r="BS40" s="201"/>
-      <c r="BT40" s="203"/>
-    </row>
-    <row r="41" spans="5:72" x14ac:dyDescent="0.45">
-      <c r="AE41" s="200">
-        <v>58</v>
-      </c>
-      <c r="AF41" s="201"/>
-      <c r="AG41" s="200" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH41" s="201"/>
-      <c r="AI41" s="201"/>
-      <c r="AJ41" s="201"/>
-      <c r="AK41" s="201"/>
-      <c r="AL41" s="201"/>
-      <c r="AM41" s="201"/>
-      <c r="AN41" s="201"/>
-      <c r="AO41" s="214"/>
-      <c r="AP41" s="200" t="s">
-        <v>140</v>
-      </c>
-      <c r="AQ41" s="201"/>
-      <c r="AR41" s="201"/>
-      <c r="AS41" s="201"/>
-      <c r="AT41" s="200" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU41" s="201"/>
-      <c r="AV41" s="201"/>
-      <c r="AW41" s="214"/>
-      <c r="AX41" s="200"/>
-      <c r="AY41" s="201" t="s">
-        <v>164</v>
-      </c>
-      <c r="AZ41" s="201"/>
-      <c r="BA41" s="201"/>
-      <c r="BB41" s="214"/>
-      <c r="BC41" s="202" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD41" s="201"/>
-      <c r="BE41" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="BF41" s="201"/>
-      <c r="BG41" s="214"/>
-      <c r="BH41" s="201"/>
-      <c r="BI41" s="201">
-        <v>6</v>
-      </c>
-      <c r="BJ41" s="201"/>
-      <c r="BK41" s="201"/>
-      <c r="BL41" s="200"/>
-      <c r="BM41" s="201"/>
-      <c r="BN41" s="201"/>
-      <c r="BO41" s="201"/>
-      <c r="BP41" s="214"/>
-      <c r="BQ41" s="201"/>
-      <c r="BR41" s="201"/>
-      <c r="BS41" s="201"/>
-      <c r="BT41" s="203"/>
-    </row>
-    <row r="42" spans="5:72" x14ac:dyDescent="0.45">
-      <c r="AE42" s="200">
-        <v>59</v>
-      </c>
-      <c r="AF42" s="201"/>
-      <c r="AG42" s="200" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH42" s="201"/>
-      <c r="AI42" s="201"/>
-      <c r="AJ42" s="201"/>
-      <c r="AK42" s="201"/>
-      <c r="AL42" s="201"/>
-      <c r="AM42" s="201"/>
-      <c r="AN42" s="201"/>
-      <c r="AO42" s="214"/>
-      <c r="AP42" s="200" t="s">
-        <v>141</v>
-      </c>
-      <c r="AQ42" s="201"/>
-      <c r="AR42" s="201"/>
-      <c r="AS42" s="201"/>
-      <c r="AT42" s="200" t="s">
-        <v>131</v>
-      </c>
-      <c r="AU42" s="201"/>
-      <c r="AV42" s="201"/>
-      <c r="AW42" s="214"/>
-      <c r="AX42" s="200"/>
-      <c r="AY42" s="201" t="s">
-        <v>165</v>
-      </c>
-      <c r="AZ42" s="201"/>
-      <c r="BA42" s="201"/>
-      <c r="BB42" s="214"/>
-      <c r="BC42" s="202" t="s">
-        <v>161</v>
-      </c>
-      <c r="BD42" s="201"/>
-      <c r="BE42" s="200" t="s">
-        <v>162</v>
-      </c>
-      <c r="BF42" s="201"/>
-      <c r="BG42" s="214"/>
-      <c r="BH42" s="201"/>
-      <c r="BI42" s="201">
-        <v>8</v>
-      </c>
-      <c r="BJ42" s="201"/>
-      <c r="BK42" s="201"/>
-      <c r="BL42" s="200"/>
-      <c r="BM42" s="201"/>
-      <c r="BN42" s="201"/>
-      <c r="BO42" s="201"/>
-      <c r="BP42" s="214"/>
-      <c r="BQ42" s="201" t="s">
-        <v>169</v>
-      </c>
-      <c r="BR42" s="201"/>
-      <c r="BS42" s="201"/>
-      <c r="BT42" s="203"/>
-    </row>
-    <row r="43" spans="5:72" x14ac:dyDescent="0.45">
-      <c r="AE43" s="219" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF43" s="216"/>
-      <c r="AG43" s="208"/>
-      <c r="AH43" s="209"/>
-      <c r="AI43" s="221" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ43" s="209"/>
-      <c r="AK43" s="209"/>
-      <c r="AL43" s="209"/>
-      <c r="AM43" s="209"/>
-      <c r="AN43" s="209"/>
-      <c r="AO43" s="215"/>
-      <c r="AP43" s="208"/>
-      <c r="AQ43" s="221" t="s">
-        <v>136</v>
-      </c>
-      <c r="AR43" s="209"/>
-      <c r="AS43" s="209"/>
-      <c r="AT43" s="208"/>
-      <c r="AU43" s="221" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV43" s="209"/>
-      <c r="AW43" s="215"/>
-      <c r="AX43" s="208"/>
-      <c r="AY43" s="221" t="s">
-        <v>136</v>
-      </c>
-      <c r="AZ43" s="209"/>
-      <c r="BA43" s="209"/>
-      <c r="BB43" s="215"/>
-      <c r="BC43" s="221" t="s">
-        <v>136</v>
-      </c>
-      <c r="BD43" s="209"/>
-      <c r="BE43" s="208"/>
-      <c r="BF43" s="221" t="s">
-        <v>136</v>
-      </c>
-      <c r="BG43" s="215"/>
-      <c r="BH43" s="209"/>
-      <c r="BI43" s="221" t="s">
-        <v>136</v>
-      </c>
-      <c r="BJ43" s="210"/>
-      <c r="BK43" s="210"/>
-      <c r="BL43" s="208"/>
-      <c r="BM43" s="209"/>
-      <c r="BN43" s="221" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO43" s="209"/>
-      <c r="BP43" s="215"/>
-      <c r="BQ43" s="209"/>
-      <c r="BR43" s="221" t="s">
-        <v>136</v>
-      </c>
-      <c r="BS43" s="209"/>
-      <c r="BT43" s="211"/>
-    </row>
-    <row r="44" spans="5:72" x14ac:dyDescent="0.45">
-      <c r="AE44" s="192"/>
-      <c r="AF44" s="192"/>
-      <c r="AG44" s="192"/>
-      <c r="AH44" s="192"/>
-      <c r="AI44" s="192"/>
-      <c r="AJ44" s="192"/>
-      <c r="AK44" s="192"/>
-      <c r="AL44" s="192"/>
-      <c r="AM44" s="192"/>
-      <c r="AN44" s="192"/>
-      <c r="AO44" s="192"/>
-      <c r="AP44" s="192"/>
-      <c r="AQ44" s="192"/>
-      <c r="AR44" s="192"/>
-      <c r="AS44" s="192"/>
-      <c r="AT44" s="192"/>
-      <c r="AU44" s="192"/>
-      <c r="AV44" s="192"/>
-      <c r="AW44" s="192"/>
-      <c r="AX44" s="192"/>
-      <c r="AY44" s="192"/>
-      <c r="AZ44" s="192"/>
-      <c r="BA44" s="192"/>
-      <c r="BB44" s="192"/>
-      <c r="BC44" s="192"/>
-      <c r="BD44" s="192"/>
-      <c r="BE44" s="192"/>
-      <c r="BF44" s="192"/>
-      <c r="BG44" s="192"/>
-      <c r="BH44" s="192"/>
-      <c r="BI44" s="192"/>
-      <c r="BJ44" s="193"/>
-      <c r="BK44" s="193"/>
-      <c r="BL44" s="192"/>
-      <c r="BM44" s="192"/>
-      <c r="BN44" s="192"/>
-      <c r="BO44" s="192"/>
-      <c r="BP44" s="192"/>
-      <c r="BQ44" s="192"/>
-      <c r="BR44" s="192"/>
-      <c r="BS44" s="192"/>
-      <c r="BT44" s="193"/>
-    </row>
-    <row r="45" spans="5:72" x14ac:dyDescent="0.45">
-      <c r="AG45" s="191"/>
-      <c r="AH45" s="191"/>
-      <c r="AI45" s="191"/>
-      <c r="AJ45" s="191"/>
-      <c r="AK45" s="191"/>
-      <c r="AL45" s="191"/>
-      <c r="AM45" s="191"/>
-      <c r="AN45" s="191"/>
-      <c r="AO45" s="191"/>
-      <c r="AP45" s="191"/>
-      <c r="AQ45" s="191"/>
-      <c r="AR45" s="191"/>
-      <c r="AS45" s="191"/>
-      <c r="AT45" s="191"/>
-      <c r="AU45" s="191"/>
-      <c r="AV45" s="191"/>
-      <c r="AW45" s="191"/>
-      <c r="AX45" s="191"/>
-      <c r="AY45" s="191"/>
-      <c r="AZ45" s="191"/>
-      <c r="BA45" s="191"/>
-      <c r="BB45" s="191"/>
-      <c r="BC45" s="191"/>
-      <c r="BD45" s="191"/>
-      <c r="BE45" s="191"/>
-      <c r="BF45" s="191"/>
-      <c r="BG45" s="191"/>
-      <c r="BH45" s="191"/>
-      <c r="BI45" s="191"/>
-      <c r="BJ45" s="191"/>
-      <c r="BK45" s="191"/>
-      <c r="BL45" s="191"/>
-      <c r="BM45" s="191"/>
-      <c r="BN45" s="191"/>
-      <c r="BO45" s="191"/>
-      <c r="BP45" s="191"/>
-      <c r="BQ45" s="191"/>
-      <c r="BR45" s="191"/>
-      <c r="BS45" s="191"/>
-    </row>
-    <row r="46" spans="5:72" x14ac:dyDescent="0.45">
-      <c r="AG46" s="191"/>
-      <c r="AH46" s="191"/>
-      <c r="AI46" s="191"/>
-      <c r="AJ46" s="191"/>
-      <c r="AK46" s="191"/>
-      <c r="AL46" s="191"/>
-      <c r="AM46" s="191"/>
-      <c r="AN46" s="191"/>
-      <c r="AO46" s="191"/>
-      <c r="AP46" s="191"/>
-      <c r="AQ46" s="191"/>
-      <c r="AR46" s="191"/>
-      <c r="AS46" s="191"/>
-      <c r="AT46" s="191"/>
-      <c r="AU46" s="191"/>
-      <c r="AV46" s="191"/>
-      <c r="AW46" s="191"/>
-      <c r="AX46" s="191"/>
-      <c r="AY46" s="191"/>
-      <c r="AZ46" s="191"/>
-      <c r="BA46" s="191"/>
-      <c r="BB46" s="191"/>
-      <c r="BC46" s="191"/>
-      <c r="BD46" s="191"/>
-      <c r="BE46" s="191"/>
-      <c r="BF46" s="191"/>
-      <c r="BG46" s="191"/>
-      <c r="BH46" s="191"/>
-      <c r="BI46" s="191"/>
-      <c r="BJ46" s="191"/>
-      <c r="BK46" s="191"/>
-      <c r="BL46" s="191"/>
-      <c r="BM46" s="191"/>
-      <c r="BN46" s="191"/>
-      <c r="BO46" s="191"/>
-      <c r="BP46" s="191"/>
-      <c r="BQ46" s="191"/>
-      <c r="BR46" s="191"/>
-      <c r="BS46" s="191"/>
-    </row>
-    <row r="47" spans="5:72" x14ac:dyDescent="0.45">
-      <c r="AG47" s="191"/>
-      <c r="AH47" s="191"/>
-      <c r="AI47" s="191"/>
-      <c r="AJ47" s="191"/>
-      <c r="AK47" s="191"/>
-      <c r="AL47" s="191"/>
-      <c r="AM47" s="191"/>
-      <c r="AN47" s="191"/>
-      <c r="AO47" s="191"/>
-      <c r="AP47" s="191"/>
-      <c r="AQ47" s="191"/>
-      <c r="AR47" s="191"/>
-      <c r="AS47" s="191"/>
-      <c r="AT47" s="191"/>
-      <c r="AU47" s="191"/>
-      <c r="AV47" s="191"/>
-      <c r="AW47" s="191"/>
-      <c r="AX47" s="191"/>
-      <c r="AY47" s="191"/>
-      <c r="AZ47" s="191"/>
-      <c r="BA47" s="191"/>
-      <c r="BB47" s="191"/>
-      <c r="BC47" s="191"/>
-      <c r="BD47" s="191"/>
-      <c r="BE47" s="191"/>
-      <c r="BF47" s="191"/>
-      <c r="BG47" s="191"/>
-      <c r="BH47" s="191"/>
-      <c r="BI47" s="191"/>
-      <c r="BJ47" s="191"/>
-      <c r="BK47" s="191"/>
-      <c r="BL47" s="191"/>
-      <c r="BM47" s="191"/>
-      <c r="BN47" s="191"/>
-      <c r="BO47" s="191"/>
-      <c r="BP47" s="191"/>
-      <c r="BQ47" s="191"/>
-      <c r="BR47" s="191"/>
-      <c r="BS47" s="191"/>
-    </row>
-    <row r="49" spans="11:40" ht="19.8" x14ac:dyDescent="0.45">
-      <c r="T49" s="185" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="11:40" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="AN61" s="184" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="63" spans="11:40" ht="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="64" spans="11:40" x14ac:dyDescent="0.45">
-      <c r="K64" s="186" t="s">
-        <v>155</v>
-      </c>
-      <c r="L64" s="186"/>
-      <c r="M64" s="186"/>
-      <c r="N64" s="186"/>
-      <c r="O64" s="186"/>
-      <c r="P64" s="186"/>
-      <c r="Q64" s="186"/>
-      <c r="R64" s="186"/>
-      <c r="S64" s="186" t="s">
-        <v>157</v>
-      </c>
-      <c r="T64" s="186"/>
-      <c r="U64" s="186"/>
-      <c r="V64" s="186"/>
-      <c r="W64" s="186"/>
-      <c r="X64" s="186"/>
-      <c r="Y64" s="186"/>
-      <c r="Z64" s="186"/>
-      <c r="AA64" s="186"/>
-      <c r="AB64" s="186"/>
-      <c r="AC64" s="186"/>
-      <c r="AD64" s="186" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -9398,7 +9433,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L33" numberStoredAsText="1"/>
+    <ignoredError sqref="E33 I33 E34:E36 I34:I36" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
